--- a/data/hotels_by_city/Dallas/Dallas_shard_67.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_67.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>11juliomad</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>teresa I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r356907434-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>KBreezyMofo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r351640081-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Cerra G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r333776034-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Eileen F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r333579576-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>In my opinion the room was inadequate to qualify for a suite. Microwave had no swivel dish inside so could not be used. No plates or utensils to use in the dinette area. Shower head flooded bathroom leak at top of shower head went all over. There was no Senior discount. Presentation of pool was not welcoming. It was dirty and full of leaves. The hot tub was not hot!! The breakfast selection was not as plentiful as we had hoped. No yogurt or eggs waffle iron was hardly operable, minimal fruit and what fruit was there was over ripe. The staff and manager were very nice and accommodating when asked. They were the main reason we stayed our entire 5 nights. The air conditioning did not reach the 2nd room so we froze in main area and boiled in the bedroom. Be aware do not use hotel towels to remove makeup or you may be charged.More</t>
   </si>
   <si>
+    <t>wackyweavers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r330685348-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve">I had multiple people arriving different days and arrival times. When I went to the office to see if I could make the arrivals as smooth as possible, Jasmine who was working reception, went over and beyond in helping us get settled. She impressed me with her gentle approach yet asking perfect clarifying questions. She remained calm and patient and was able to work with me. I highly recommend this hotel due to Jasmine's  professionalism and character. Thank you Econo lodge! </t>
   </si>
   <si>
+    <t>Mark V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r325906449-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Jazmine V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r325238851-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>It was a great hotel room. It was a good price for what we got, and in fact we received a little more than what we expected and to top it off great view of the stadium and not to mention we were within walking distance of the stadium. staff members are very helpful and patient miss jasmine the front reception was awsome. i strongly recommend this establishment and will definitely be returning for future stays. I enjoyed my stay at Econo Lodge.</t>
   </si>
   <si>
+    <t>Karen239</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r323775089-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Travelingrid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r322282262-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -342,6 +372,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Alandra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r322205814-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -357,6 +390,9 @@
     <t>Staff were polite and Attentive. Really loved Jasmine. She put a smile on my face. Room was clean and smelled nice. Recommend continental breakfast. Close to theme parks. As well as cowboys stadium and rangers ballpark.</t>
   </si>
   <si>
+    <t>Sheneia Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r321958178-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -369,6 +405,9 @@
     <t xml:space="preserve">I just love this hotel I visit often I really love the staff especially jasmine and kandy they always make my stay a great keep up the great work I look forward to always comin to stay let's not forget housekeeping they do a great job as well </t>
   </si>
   <si>
+    <t>zetagirl2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r320798416-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -387,6 +426,9 @@
     <t>The room was pleasant smelling, that is a big plus.  The microwave and fridge were clean and working, another big plus.  The bed was comfortable and my only complaint there was the bed-skirt was nasty as if it hadn't been cleaned in quite some time.  The room was clean overall but the tub has permanent stains and a ripple in the permanent mat.  The chair in the room had multiple stains which caused me not to sit on it.  For the money it was fine and I booked it for a week after my initial stay of 4 days so it definitely has not been a bad experience.  The location off a major highway, can't be beat, right near major attractions - Six Flags, Globe Life Ball Park, AT&amp;T stadium, Wet n' Wild water park, DFW Airport, Lone Star race track, Ripley's Wax Museum - all these attractions and shopping venues are within a 1-10 mile radius.  The TV's were outdated and not enough good channels, this could be improved upon as well.More</t>
   </si>
   <si>
+    <t>Sgarcia7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r320182942-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -402,6 +444,9 @@
     <t>Worst motel I have ever stayed at!! Sheets had hair and bugs, no comforter, blanket had cigarette holes when it was a non-smoking room. I went and asked for more sheets, staff member said they did not have any. Mold around bathtub, no hot water had to take cold shower! Please save your money go somewhere else.</t>
   </si>
   <si>
+    <t>Jan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r318633156-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -417,6 +462,9 @@
     <t>Candy and the staff at the Econo Lodge couldn't have been more helpful.  Really nice.  The hotel itself needs some help.  There was a cockroach in our room and there was some kind of biting bug in our beds.  The pool and hot tub were not cleaned appropriately so by the end of our stay (which was four days), there was a light green algae tinge to the water.  The hotel was so close to the stadium so it fit our needs for our trip.  We had read reviews about the hotel that were not complimentary but we booked it anyway.</t>
   </si>
   <si>
+    <t>Toby D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r318001298-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -432,6 +480,9 @@
     <t>WE HAD A BLAST AT THE ECONO LODGE!!  Candy made everything perfect for our stay.  Pick up and drop off's to the airport and shuttled us around, even to the game at AT&amp;T Stadium.  Friendly and made us feel welcomed at all times.  Candy was up for accommodating all of our needs throughout our stay!!  Thanks so much!! ~The Fab5</t>
   </si>
   <si>
+    <t>alaguirre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r316740330-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -450,6 +501,9 @@
     <t>It was about what we expected. The rooms were set up very strangly. We had a main living area with small kitchen and nothing in it but appliances. There was not a tv on the tv stand in the "living space", only in the bedrooms and ,no way to remove them(we tried). Only one sleeping room had an a.c the other was in the living room so it got very hot in one room. The a.c. sucked and only worked when set on low fan.. The other only had buttons with no words next to them to figure out what the heck setting it was on. Was screwing around with it half asleep when I woke up in a "68 degree" hot room. So I turned it to 63 and it got freakin cold. There was a roach on the floor running around right before bed. Gross!!Bed was not bad,shower was fine with good pressure, and we made some descent coffee in the morning. Then paid 5 bucks each for them to shuttle us to the game and then we walked back(long,hot walk for us, should just take a cab). Breakfast was mediocre. I had a bagel with cream cheese and juice. They had a waffle maker that wasn't beeping when ready(we had to guess). They also had cereal and some sweet bread that were delicious. Overall not too bad for last minute hotel for the game for less than...It was about what we expected. The rooms were set up very strangly. We had a main living area with small kitchen and nothing in it but appliances. There was not a tv on the tv stand in the "living space", only in the bedrooms and ,no way to remove them(we tried). Only one sleeping room had an a.c the other was in the living room so it got very hot in one room. The a.c. sucked and only worked when set on low fan.. The other only had buttons with no words next to them to figure out what the heck setting it was on. Was screwing around with it half asleep when I woke up in a "68 degree" hot room. So I turned it to 63 and it got freakin cold. There was a roach on the floor running around right before bed. Gross!!Bed was not bad,shower was fine with good pressure, and we made some descent coffee in the morning. Then paid 5 bucks each for them to shuttle us to the game and then we walked back(long,hot walk for us, should just take a cab). Breakfast was mediocre. I had a bagel with cream cheese and juice. They had a waffle maker that wasn't beeping when ready(we had to guess). They also had cereal and some sweet bread that were delicious. Overall not too bad for last minute hotel for the game for less than 200 bucks and shuttle to game(parking is ridiculously expensive for the games).If your not too picky and easy going and not expecting a four star hotel this place is ok. Could use some major updating but you can tell they are trying. I'd probably stay again.More</t>
   </si>
   <si>
+    <t>rvfdchief923</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r314630231-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -474,6 +528,9 @@
     <t>i made reservation with their main reservation line i asked if they had 24hr shuttle from DFW airport the lady said yes,so i booked it she also said they were only 3.2 miles from airport. so i called hotel next day they had my reservation an i asked again about shuttle she said we run all the time just call three hours in advance,an told her my plane would be in at 10:10pm she said ok.. So that night of my stay i called three hours before plane came in,the lady then told me that their shuttle stopped running at 10:00pm i told them a few choice words an said well you r only 3.2miles away so i will get a taxi, she said No they were 20miles away. so still waiting on my refund of $87.00 an their dumb moron manager said since i was a no sho she cant refund anything.but the whole conversations that i had with all of them was recorded,an have turned over to the choice hotels chain.as well as morgan law firm,an sffma goverment association  for firefighters. More</t>
   </si>
   <si>
+    <t>Kaytrana W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r314284936-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -489,6 +546,9 @@
     <t>the staff was friendly, the room was clean, the price was great! I was very pleased with the level of care given at the econo lodge inn &amp; suites. The hotel staff gave me a level of care that was excellent. I will be back.</t>
   </si>
   <si>
+    <t>Cynthia F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r314013373-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -507,6 +567,9 @@
     <t>Came to watch our football team play. Great front view of AT&amp;T stadium.  Location was great. BUT let me start my saying its one of the worst hotels we have ever stayed in. So out dated, dirty blankets, roaches, mold around the shower, couldn't sit in the little sofa it was too sticky we had to use a sheet to sit on it. Door keys did not work had to take them several times to the front desk to reset them. Wall fan did not work. The topping of our stay was when we found condom wrappers under the bed and a big bigger on the wall by the kitchen sink..thia is a SIGN that your custodian staff does not clean!!!  Your hotel is not up to code, or  hotel regulations, its not a safe place for anyone to stay.  The price we paid was ridiculous.  I would never recommend anyone to stay at your hotel.More</t>
   </si>
   <si>
+    <t>Larry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r313654952-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -522,6 +585,9 @@
     <t>The Room is not bad. Its older hotel and the rooms need updated. Good Shampoo of carpet and couch. did have a kitchen in the room, Very low end. Lobby is nice and staff is friendly I checked in with (Melissa). This hotel is very close to everything. Every good location!</t>
   </si>
   <si>
+    <t>tayl0r27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r312515206-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -540,6 +606,9 @@
     <t>False advertisement on the shuttle service because the guy had no clue what I was talking about when we wanted to go to hurricane harbor. Both of the two rooms I have stayed in had an odor, and cold water. We paid the $25 the next morning actually the same morning we were checking out for a dog that was in our room for 40 minutes. My brother-n-law had just dropped her off so we could take her home with us. Well I guess the lady we paid must have left or her shift was over, and the manager charged our card $150 for our dog. Still haven't been paid back for it either.More</t>
   </si>
   <si>
+    <t>davyd83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r310754199-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -555,6 +624,9 @@
     <t>This property has recently come under new management. Yes, it has a few bumps and bruises and some things that need fixing. But the room was very clean and the staff was incredibly friendly. One thing to note, however. The website says they have a complimentary airport shuttle. This does not operate on Sunday. That being said, the hotel met or even exceeded my expectations for the price I paid and its location. I would stay here again.</t>
   </si>
   <si>
+    <t>Amy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r303597730-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -573,6 +645,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>maribel a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r292275626-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -594,6 +669,9 @@
     <t>I stay here since March 19th. I have stayed in so many hotels but this one is by far the worst. First of all the customer service is horrible and the manager tends to ignore any complaints. I had my daughters dog stay with me for a couple days so I gave the pet deposit and everything was fine till the manager came to my room and told me I had to get rid of the dog or move out because dogs were not allowed, when says pets allowed with a deposit. I was upset but I got rid of him like his said. After that I noticed that whenever we would leave and noone would be home, when I would get home the manager would come search my room, stating that the housekeeper saw the dog and each time, again he never saw the dog there. The whole time I stayed there not once did housekeeper clean my room, so they had no business in my room. Thru out the whole time I kept getting moved rooms till the last two is when I had enough and moved out because they had bedbugs and even thou I told the manager he didn't care so I moved out. I ended up owing a balance so he locked me out and didn't let me take my belongings till I paid, so I did. When I got to the room my room...I stay here since March 19th. I have stayed in so many hotels but this one is by far the worst. First of all the customer service is horrible and the manager tends to ignore any complaints. I had my daughters dog stay with me for a couple days so I gave the pet deposit and everything was fine till the manager came to my room and told me I had to get rid of the dog or move out because dogs were not allowed, when says pets allowed with a deposit. I was upset but I got rid of him like his said. After that I noticed that whenever we would leave and noone would be home, when I would get home the manager would come search my room, stating that the housekeeper saw the dog and each time, again he never saw the dog there. The whole time I stayed there not once did housekeeper clean my room, so they had no business in my room. Thru out the whole time I kept getting moved rooms till the last two is when I had enough and moved out because they had bedbugs and even thou I told the manager he didn't care so I moved out. I ended up owing a balance so he locked me out and didn't let me take my belongings till I paid, so I did. When I got to the room my room had been flip up side down and my stuff had been searched and some of my stuff was missing. There was no forced entry or unlocked windows so the only people with a key were people from the office. Even thou I complained to the office the manager again didn't care so im filing a police report. Please do yourself a favor and do not stay here.More</t>
   </si>
   <si>
+    <t>Stephanie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r286685417-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -621,6 +699,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>burnsfamily123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r286080329-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -633,6 +714,9 @@
     <t>My family and I have stayed at this motel numerous times over the years. It has slowly gone done hill. This will be our last time staying here. When we arrived (late at night) our beds weren't even made. The room and the bathroom weren't clean, the carpet was disgusting.  The breakfast wasn't worth the walk. It was terrible. There are shady people hanging outside. I was scared to walk outside alone. On a positive note it is very close to Six Flags and Hurricane Harbor, but I would spend a few extra bucks and go somewhere else.</t>
   </si>
   <si>
+    <t>Charles J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r281715907-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -651,6 +735,9 @@
     <t>I know you get what you pay for but this place should give you money to stay there. I am only giving this place two stars due to how close they are to major attractions in Arlington and for the trolley service they offer to the attractions. Me and my family stayed there for 5 night and the minute we walked into the door we should have run. First off the first room we were given still had someone in it. I went back to the office and the desk clerk gave me another room, which when we went in the A/C didn't work. I went back to the office and the desk clerk tells me to open a window and he would have someone fix it in the morning. After arguing with him for 20 min he finally gave us another room which was right next to the first one!!! When we finally got into this room the TV cable line was broken which I had to fix myself and then I pulled the extra blanket out of the closet for my son to sleep on the pull out couch, it had rips and tears in it and looked like it had been burnt by someone smoking which should be impossible because its a non smoking hotel. I went down and requested a new blanket which I was told would be delivered in the morning by the maid. FYI...I know you get what you pay for but this place should give you money to stay there. I am only giving this place two stars due to how close they are to major attractions in Arlington and for the trolley service they offer to the attractions. Me and my family stayed there for 5 night and the minute we walked into the door we should have run. First off the first room we were given still had someone in it. I went back to the office and the desk clerk gave me another room, which when we went in the A/C didn't work. I went back to the office and the desk clerk tells me to open a window and he would have someone fix it in the morning. After arguing with him for 20 min he finally gave us another room which was right next to the first one!!! When we finally got into this room the TV cable line was broken which I had to fix myself and then I pulled the extra blanket out of the closet for my son to sleep on the pull out couch, it had rips and tears in it and looked like it had been burnt by someone smoking which should be impossible because its a non smoking hotel. I went down and requested a new blanket which I was told would be delivered in the morning by the maid. FYI the maid never came in the 5 days we were there, also never saw the guy to fix the cable line. I asked ever night but was told the same thing. We will never every stay here again.More</t>
   </si>
   <si>
+    <t>KimC007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r280003178-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -666,6 +753,9 @@
     <t>The staff was very friendly.  The beds and bathrooms were clean.  There is an IHOP within walking distance.  The hotel provided transportation to the stadium for a small fee.  Daniel our driver was great !!</t>
   </si>
   <si>
+    <t>Victor S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r274271241-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -684,6 +774,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Yantisguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r274214753-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -699,6 +792,9 @@
     <t>Just stayed here for three nights and a when we walked through the door the first time our immediate instincts were to run. Only trouble was there were no other hotels with openings in the immediate area and due to the event we were there for we had to deal with this. The carpets were filthy with stains, mildew smell throughout the room, kitchen was dirty and out-dated and just filthy. Bathroom had a broken toilet seat and burn marks on it. Even the countertop had burns in it and the side of it were falling off. The one tiny dresser they had was falling apart on the bottom and the drawer could not be used. Left out clothes in the suitcases. Bath towels had holes in them and the last ones came with paint on them like they had been used for painter rags. Wifi never worked either. Asked for extra pillows and after waiting two hours we called back only to get told they had no extras. Just feel we paid for something we were totally misled by on the photos they presented online via Expedia and we should have at least been granted a refund for such a disgusting place. The lobby and cafteria area was the only thing there that appeared to look like the photos. The ones of the rooms we have no idea where they came from but believe us it was not from...Just stayed here for three nights and a when we walked through the door the first time our immediate instincts were to run. Only trouble was there were no other hotels with openings in the immediate area and due to the event we were there for we had to deal with this. The carpets were filthy with stains, mildew smell throughout the room, kitchen was dirty and out-dated and just filthy. Bathroom had a broken toilet seat and burn marks on it. Even the countertop had burns in it and the side of it were falling off. The one tiny dresser they had was falling apart on the bottom and the drawer could not be used. Left out clothes in the suitcases. Bath towels had holes in them and the last ones came with paint on them like they had been used for painter rags. Wifi never worked either. Asked for extra pillows and after waiting two hours we called back only to get told they had no extras. Just feel we paid for something we were totally misled by on the photos they presented online via Expedia and we should have at least been granted a refund for such a disgusting place. The lobby and cafteria area was the only thing there that appeared to look like the photos. The ones of the rooms we have no idea where they came from but believe us it was not from this hotel. We even had to take the bedspread to put over the sofa to feel comfortable enough to sit on it and then it was so old that you basically sunk so far in it was very difficult to get out of and it was ripped too. Also the maid service only cleaned up in the bathroom and made a bed, Never touched the floors to vacuumn or even wipe down countertops the entire time we were there,  This morning when we left very early to get away there was a large half dead cockroach on the floor in the kitchen area.More</t>
   </si>
   <si>
+    <t>11camaro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r273858202-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -717,6 +813,9 @@
     <t>Gonna try to put this in short version. Called hotel before booking because I seen they have on their website free shuttle to anywhere &amp; wanted to ask if they are able to pick us from the concert afterwards. Was told we can take you there, but on the way back you have to pay $5 for ride back. Well come time for concert had to pay $5 to get to concert &amp; no shuttle available for return. Was told it was only 1 mile to walk back. My husband has had 3 back &amp; neck surgeries. So guess what this wasnt good for him at all. 1st impression for this hotel was yuck for me, nasty &amp; moldy looking. Checked in at 2 &amp; was told to come back at 3 where room could be ready. Keep in mind concert started at 5pm. get back about 310 &amp; still being told room wasnt cleaned yet. told guy concert starts at 5 &amp; we needed to get ready. he called &amp; told them to get it cleaned got in room about 345. Had to rush to shower &amp; get ready to leave by 430. Had not one towel or wash clothes at all. They left 2 bottles of lotion for shampoo. Husband asked housekeeper for some towels &amp; she told him there was no more &amp; she speaked no english. Called desk to bring us at least the towels. never...Gonna try to put this in short version. Called hotel before booking because I seen they have on their website free shuttle to anywhere &amp; wanted to ask if they are able to pick us from the concert afterwards. Was told we can take you there, but on the way back you have to pay $5 for ride back. Well come time for concert had to pay $5 to get to concert &amp; no shuttle available for return. Was told it was only 1 mile to walk back. My husband has had 3 back &amp; neck surgeries. So guess what this wasnt good for him at all. 1st impression for this hotel was yuck for me, nasty &amp; moldy looking. Checked in at 2 &amp; was told to come back at 3 where room could be ready. Keep in mind concert started at 5pm. get back about 310 &amp; still being told room wasnt cleaned yet. told guy concert starts at 5 &amp; we needed to get ready. he called &amp; told them to get it cleaned got in room about 345. Had to rush to shower &amp; get ready to leave by 430. Had not one towel or wash clothes at all. They left 2 bottles of lotion for shampoo. Husband asked housekeeper for some towels &amp; she told him there was no more &amp; she speaked no english. Called desk to bring us at least the towels. never seen them until we returned from concert. Notice one towel had black all on it. Had to use my t-shirt to dry off with. Shower was worn out looking, roof of building had a large area of shingle ripped off. Flooring felt damp &amp; sticky, wore shoes at all times. Neither TV remote worked. House keeping told us there was place to get ice. Didnt see any signage about vending area's. I took several pictures &amp; plan on sending the to the corp office. We normally do not stay in a place that looks like this. But we wanted something with a shuttle &amp; close to the concert. Someone needs to put uin about 3-4 new hotels in the land next to them. We spent $148 on this room &amp; feel it was a total ripe off cause I put in down to a Motel 6 or lower grade. This place was terrible. Oh too let me mention we had people fighting up until about 130am not far from us. We didnt hear them any longer after we heard some sirens that were close. Not sure if it was for them. I DO NOT RECOMMEND THIS PLACE AT ALL!!More</t>
   </si>
   <si>
+    <t>Shamry G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r270713182-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -735,6 +834,9 @@
     <t>Ok, first off, the woman over charged me and my brother for a room. We were told it was on the 3rd floor. We drive to the back where room is located, and there was a group of like 12 guys drunk and smoking pot by the stairs and would not move. Broken glass was all in the parking lot. We get to our room, and there was a man hiding in it, he was also drinking. At first he held the door shut so we could not get in!! Alarmed and appalled at this point i checked to look at the room number assigned. it was right, but there was a man in there. And on top of the strange drunk man in the room, there was nothing in it at all. the whole room was gutted out. the bed and couch were lying on the ground. The building walking up to the room smelled like urine. DO NOT STAY HERE!!! IT IS NOT SAFE AT ALL!!!!More</t>
   </si>
   <si>
+    <t>Greg W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r268739125-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -753,6 +855,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Terri Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r267733537-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -768,6 +873,9 @@
     <t>I've been in several hotels for the past month and I must admit, this is one of the best. Upon arriving, I felt very welcome after battling this Texas rain (THANKS AGAIN MARTHA), my room was ready, very clean and stocked with clean linens. My room had a full size stove and fridge so I was able to cook a home cooked meal (what a break from road food). There are several hotel options in this area. Let me say that the Econo Lodge has moved to the top of my list.</t>
   </si>
   <si>
+    <t>Irene B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r257896815-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -789,6 +897,9 @@
     <t>There were no towels. We were told to wait until the morning when housekeeping came in to their shift. MAYBE they would have towels by then. Front desk had no sense of urgency or customer service.  House Keeping did come and left 3 wash clothes no Bath towels. Had to go and try and communicate to her we needed large towels.  She finally understood and handed me some. Which made me think, she had them and didn’t think to leave us any??  Roaches all over the place. It was 3 of us and they demanded we all leave a credit card. Even if the rooms were charged only on one.  After these reviews will keep a close eye on my statements.  How are they licensed?  Why have they been allowed to continue to operate under such conditions.  Not only bad but dangerous with the amount of roaches in the roomsMore</t>
   </si>
   <si>
+    <t>Pantsaggin416</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r254265178-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -805,6 +916,9 @@
   </si>
   <si>
     <t>February 2015</t>
+  </si>
+  <si>
+    <t>Unique D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r249774376-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -830,6 +944,9 @@
 We have been here since November. The manager said, that the owner said, that the housekeeping staff said, that there was a bunch of traffic coming in and out of our room...Like I said, we are residents here and my child is here....I do not have anyone here we don't know. My boyfriend and I work mostly from home. We have paid them over $2700 since November to stay here and they give us less than 24 hours notice to be out...for a bogus, untrue reason...and after asking us to move rooms just...After a 3 - month extended stay at this hotel, my boyfriend, my son and I were suddenly and unjustly kicked out on of the hotel by the owner after I complained to Choice Hotels corp guest relations about $162 in unauthorized fraudulent charges occurring on my card from this hotel. I told them 2 days before, the front desk called and asked us to switch rooms unexpectedly (they said it was due to renovations). We spent our whole day off from work, moving and after one night in the new room, my son and I were broken out in bumps (pictures attached). I talked to the manager about it and they said they would come the next day to fumigate....the next day came and the manager comes and says we have to leave....that day! I was getting ready to take my son to his basketball game! We have been here since November. The manager said, that the owner said, that the housekeeping staff said, that there was a bunch of traffic coming in and out of our room...Like I said, we are residents here and my child is here....I do not have anyone here we don't know. My boyfriend and I work mostly from home. We have paid them over $2700 since November to stay here and they give us less than 24 hours notice to be out...for a bogus, untrue reason...and after asking us to move rooms just 2 days before!!!In the time we have been here, we have had a mouse in our room, broken appliances and dealt with rude breakfast housekeeping staff (we were told long-term guests could no longer eat breakfast) plus the fraudulent charges made me have to get a new debit card....which I'm still waiting on...while being kicked out..I hadn't really made a fuss to corporate until the third unauthorized charge and how interesting it is the next day the owner shows up and has the manager kick us out...The people who own this place have no heart, and definitely have no concept HOSPITALITY. They have pretty much put us at risk of homelessness, especially since I have no debit card thanks to their unauthorized charges. If you want to stay here and give your money to the type of people who would do this to a young family, and get ate on by whatever may be living in the mattress and carpet and take the risk of waking up to a surprise debit taken out your bank account by the hotel...then by all means this is the perfect place to stay....you may want to PAY CASH!More</t>
   </si>
   <si>
+    <t>Jana B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r245650995-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -851,6 +968,9 @@
     <t>I booked this hotel due to its proximity to AT&amp;T Stadium since I was attending the Cowboys/Colts game. The free hotel shuttle picked me up from DFW, I arrived at the hotel around 1030am and my room wasn't ready yet, so I waited in the lobby. While I waited, I looked up the hotel's reviews on Trip Advisor (backwards, I know) and was petrified to actually get to a guest room based on what I was reading. Due to my plans changing abruptly, I ended up not checking in until the second night of my reservation and the front desk agent, Melissa, was great in helping me work things out. She knew I was attending the game, so we discussed and I booked myself the $5 shuttle ride to the stadium. They only take you, they don't bring you back - which was ok because it's not that far of a walk and there is plenty of pedestrian traffic, so no worries about walking alone (like I was). The next day, I returned to the hotel and checked in prior to leaving for the game. The facilities were clean, a bit outdated and the desk chair seemed like it would break upon any weight being placed on it. They could stand to resurface the tub, deep steam clean/shampoo the carpet and recliner chair, but it was ok for one night. My major issue was being across from the ice maker...talk...I booked this hotel due to its proximity to AT&amp;T Stadium since I was attending the Cowboys/Colts game. The free hotel shuttle picked me up from DFW, I arrived at the hotel around 1030am and my room wasn't ready yet, so I waited in the lobby. While I waited, I looked up the hotel's reviews on Trip Advisor (backwards, I know) and was petrified to actually get to a guest room based on what I was reading. Due to my plans changing abruptly, I ended up not checking in until the second night of my reservation and the front desk agent, Melissa, was great in helping me work things out. She knew I was attending the game, so we discussed and I booked myself the $5 shuttle ride to the stadium. They only take you, they don't bring you back - which was ok because it's not that far of a walk and there is plenty of pedestrian traffic, so no worries about walking alone (like I was). The next day, I returned to the hotel and checked in prior to leaving for the game. The facilities were clean, a bit outdated and the desk chair seemed like it would break upon any weight being placed on it. They could stand to resurface the tub, deep steam clean/shampoo the carpet and recliner chair, but it was ok for one night. My major issue was being across from the ice maker...talk about noisy! Also, I'm not used to staying in places where people come and go all night (that I know of), so the bottom floor, near the parking lot, the ice maker and with luggage rolling past the door at all hours was a bit much for me, but I was so tired that I slept through most of that. The overhead noise was bad the next morning, so I suggest staying in a higher floor. The shuttle driver, Daniel, was great! He offered to take me wherever I needed to go prior to getting to the hotel (upon arrival in Dallas) and also while I was there. I did arrange a pick-up with him post-game, which he was happy to accommodate...as long as you tipped him! He ended up being like a personal driver! Overall, I'm sure people have had worse experiences; however, for one night, it was ok. Safe travels!More</t>
   </si>
   <si>
+    <t>Bill S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r242260100-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -869,6 +989,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Bobbie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r238952078-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -885,6 +1008,9 @@
   </si>
   <si>
     <t>We stayed here for our recent trip to six flags, we arrived late, was told there was no rooms so I booked the room through hotels.com where of course there was a room, once inside he said it had booked us in the wrong room so he had to move us to a suite (upsale). 3rd floor 3 tired kids, no elevator to their back 3rd building, need I say more! Now all of that was deal able I'm pretty easy going....the rest is deal breakers...beds were cardboard covered with a sheet, the walkways were all slanted and needing major repair, 1 stair wobbled so bad when you stepped on it that I honestly that it was going to break, a cockroach fell out the shower curtain, the shower went from burning hot to freezing cold every few mins which meant no shower for 3 kids :( there was hardly anything out for breakfast except toast, waffle mix, and frosted flakes......I could go on but I don't think it's needed spend the extra 10 bucks and go to the holiday inn directly across the street from 6 flags!More</t>
+  </si>
+  <si>
+    <t>Briget S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r233710036-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -934,6 +1060,9 @@
 Then...What a Massive mistake. Originally I was looking for a clean, reasonable place for me and the wife to stay during the Dallas Cowboys game on Oct 3, 2014. We didn't need much just a clean room with no frills to in sleep during our 3 night stay. We knew we would be going a lot during the day so little was needed at night. And this place is close enough to walk to the stadium.  I read some reviews on another hotel booking site,  and this place just might fit the bill. Boy was I WRONG. I booked the trip in May, and there is no way this place went downhill between now and then. The place looks OK from the outside, but inside the room it was another matter altogether. The place was probably built in the 70's and it appears that they have hardly done any upkeep what so ever.  Carpet was filthy with what appears to be blood stains on it, holes in every door. Couch is scary looking, we covered it before sitting on it. The bed had one paper thin blanket on it. The walls were in need of paint, BAD. There wasn’t even a roller in the toilet paper roll. It was just a used roll lying on the bathroom counter. Super thin, worn out towels. Shower handle will not adjust....NO cold water in the shower, just super warm, hot and hotter.   Then the fun began. Day 1, no maid service, on one cleaned the room, bed not made - towels not replaced - small 1 cup coffee maker not cleaned, which by the way, no coffee cups at all, no Styrofoam or anything. We asked for another blanket and pillows, I had to get them from the front desk. The blanket was stained, my wife thought it was blood stained as well. We left it out the next day for the maids to see, and they just folded it and put it back on the bed. While I was in the lobby picking up the blanket I saw a new sign that said “all cars in the parking lot on Sunday without a parking permit will be towed”. When I asked about guests like myself who had paid for 3 nights  I was informed that we would still have to pay an additional $5 for parking or our car would be towed on Sunday / Gameday,  no exceptions! When I pointed out that the sign was not up the day before, and what if I hadn't come in and seen it, would they still have towed my car?  the answer was sorry, "everyone needs a permit or they get towed" ! Needless to say I paid the extra $5.Next, My wife  was at the front desk asking for another box of Kleenex and they informed her that they were out! While she was there, the lady in the room next to us was demanding her...More</t>
   </si>
   <si>
+    <t>Teresa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r232937189-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1078,9 @@
     <t>Booked this hotel when my husband and I ran the Biggestlooserrunwalk 5K because it had a cheaper rate for just a one night stay. It is an older hotel so don't have any big expectations when staying here. The room was clean and bed comfortable and close to our venue. Would recommend to anyone for an overnight stay.</t>
   </si>
   <si>
+    <t>Lwomack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r230451594-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1099,9 @@
     <t>When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign...When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign like this. The smaller bedroom's bath had a hair dryer but the plug was burnt and so were both wall sockets. I brought my own dryer so I didn't try theirs. In the other bath, I tried drying my hair. The dryer sounded like it was getting high and low peaks of current so I unplugged it. When I did, the dryer plug was extremely hot and in the process I blistered (not just hot, yes blistered!) my finger. I had to use another wall socket. The beds are not comfortable and we both had two rough nights in that room. We slept on the first bed the first night and tried the other the next night. Both were bad. The pillows on one were like rocks and the other were on the thin side. There was an iron and blankets in the closet but no ironing board and both closets had doors that were off the tracks and hard to open. There were cosmetic issues all around the rooms since this is an older place. I felt safe walking around there. It was quiet and easily within walking distance of the Cowboys Stadium and plenty of good restaurants within walking distance. I heard one guest ask about an ice bucket and the clerk told him the rooms didn't have them but ours did. Don't rely on signs or the map from the office to find the vending machines either. That didn't work. I finally walked to the front desk and...More</t>
   </si>
   <si>
+    <t>MayraSegura</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r228328405-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1120,9 @@
     <t>WILL NEVER EVER EVER AGAIN!  The outside of the rooms had The rooms are gross and smell like ash trays, even though I had a non smoking room. The carpet was gross and the bed looked the same. I went to Walmart and purchased sheets and slept on the new sheets with my own pillow and was covered from head to toe. I didn't dare step on the floor bare foot either. The breakfast was nasty! The lady would clean the trash can and then the counter with the same rag!!! Close to the stadium and restaurants but would rather pay more and stay further away than stay in a room like that again!!!!More</t>
   </si>
   <si>
+    <t>Xxxjaxsxxx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r221675010-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1141,9 @@
     <t>I reserved 2 rooms for 2 nights. Online it only showed king suites with sleeper sofas. I called to see if we could get the rooms close together. The man said he could upgrade us at no charge to a 2 bed and we could be right next to each other. When we arrived the front office gave off a great impression. The night lady was wonderful. The rooms ended up being on different floors and different buildings. Both rooms needed extreme cleaning and lots of maintenance. I was fine until I went to pack up the kitchen to go home. The cabinet under the sink had mold. The bottom was caved in from the pipes leaking. The pool was really nice they even let us stay a little longer. Only downside was the hot tub wasn't very hot. Again great staff got my six flags tickets super cheap as well. Just needs deep cleaning and lots of maintenance.More</t>
   </si>
   <si>
+    <t>BobVMemphis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r218951888-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1024,6 +1165,9 @@
     <t>We stayed at this hotel to attend a concert at the nearby AT&amp;T Stadium.  The hotel is certainly within easy walking distance of the stadium.  I found the room to be comfortable, quiet, and clean.  The driver picked us up shortly after we called to hotel from the DFW airport.  In the immediate area of the hotel are a multitude of great restaurants and shops, and even a WalMart near the stadium.  The only drawback was that the airport shuttle does not run 24 hours nor early AM.  I had an early flight out of DFW and had to get a paid shuttle and it was what I consider somewhat expensive.  Otherwise a great stay.  I would certainly stay at this hotel again.More</t>
   </si>
   <si>
+    <t>Fidel P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r218434860-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1201,9 @@
     <t>Don't let the past reveiws you read intimidate you. This is an awesome hotel. The water was HOT, the pool was cold, the service was amazing and it was clean. Yes, it is an older hotel, but it is very well kept. We had an issue with the TV in the living room, it was fixed before we can back from our activies for the day. The location of this hotel is so close to shopping, resturants and of course Six Flags. We stayed in the two bedroom suite and it was just the right size for our family of 5. Our kids loved the waffles for breakfast, we enjoyed bagels and cereal. If you are looking for an economical place to stay with lots of room, free breakfast and shuttle and friendly staff, this is your hotel. We will stay here again!!!More</t>
   </si>
   <si>
+    <t>Takeshia V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r217325213-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1075,6 +1222,9 @@
     <t>My friends and I were in town for a concert. We stayed at this location due to being close to the AT&amp;T Stadium. The room was just average nothing spectacular about it. There was a shuttle driver who took us to around town, but only on his terms. As long as it was convenient for him. He made sure he told us about people who didn't tip. I guess this was to ensure we tipped him or else he wouldn't drive us around. The day of the concert we made a reservation with the shuttle to be picked up after the concert. The shuttle driver had us write our name, number and how many people were in our party on a list. After the concert we met our driver at the location he told us he would meet us at. We were extremely disappointed to find that the van was full of people already and no where for my party to sit.  Needless to say, 2 people in my party were able to ride home and myself and 2 other people where left standing in a parking lot until the shuttle driving came to pick us back up only he never returned and we had to find another ride home.More</t>
   </si>
   <si>
+    <t>rmdev83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r214491335-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1243,9 @@
     <t>We are actually here now and this place is awful! We are a family of four with 10 and 8 years old children. We have stayed at various types of lodging (value and premium) so we'd figure for a short trip to Six Flags that this place would do. Wrong! Breakfast is terrible (waffles taste salty and the orange juice tastes watered down) and the breakfast area reeks of body odor. The rooms are dated with signs of dilapidation. Also, we called for extra towels as they only supplied us with three bath towels (should have accommodated for four as booking clearly showed) and they never brought them up. After 45 minutes, I called down and they asked me to go down and get them. As I mentioned before, we have stayed in many different types of lodging but this place is by far the worst we have ever visited! It's so sad to see the nicer Holiday Inn down the road while we are stuck at this dump!! Don't be cheap like we tried to be and stay away from this place!!More</t>
   </si>
   <si>
+    <t>Danny F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r204891840-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1108,6 +1261,9 @@
     <t xml:space="preserve">I just want to say how much I enjoyed stay in Arlington.  Your Motel was very clean and your friendly staff made our stay even better. I am a regular and stay often. I'm very impressed with Juan who works the desk. He even recognizes my voice when I call for reservations. Thanks for your service. Your motel is a great value. </t>
   </si>
   <si>
+    <t>Brian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r204270447-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1126,6 +1282,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>kanreki66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r201754180-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1141,6 +1300,9 @@
     <t>Front desk do not consider use of the bus other than check-in. when I had business at an airport and used a shuttle bus, he picked up. when I asked shuttle bus at check-out but shuttle bus is busy time, he drove himself for me.I was helped very much by him.</t>
   </si>
   <si>
+    <t>Tricia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r200532704-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1321,9 @@
     <t>We stayed at this hotel recently.  It is an old property, but for the price I was not surprised.  What did surprise me was the support of the hotel staff.  We flew into town for games at AT&amp;T stadium, planning to walk to the games.  Unfortunately the weather didn't agree with us, and the front desk organized a shuttle to get us down to the stadium. They were willing to help us out with anything while we were staying, even getting us back to the airport when our taxi didn't show up.  Don't expect brand new rooms, but you can expect a NYC sized apartment for a room and a helpful staff.More</t>
   </si>
   <si>
+    <t>Bridget B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r200490378-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1174,6 +1339,9 @@
     <t>Let's put it this way, I've stayed in hostels in Asia that are better than this place.  The two stars I am giving are simply for the location (walking distance to AT&amp;T stadium).  If location is all that matters to you, and you don't mind sleeping in a run down hotel with extremely uncomfortable beds and no hot water, then this place is for you.The beds/pillows were extremely uncomfortable.  The hot tub had brown water.  Front desk would not give us another blanket when asked.  The shower handle was semi-broken and no matter which way we turned it, we could not get hot water for more than a few minutes.  So we took freezing cold showers every day.  The towels had holes in them and when we requested new/extra ones, the front desk said it would be a 30 minute wait.  We called the front desk to order us a cab and they never did.  When we were leaving, the front desk person said he would bring us where we wanted to go for $30 which was a complete rip off.  Do not stay here unless you absolutely cannot afford anything else.  Even then, I would recommend a campground over this placeMore</t>
   </si>
   <si>
+    <t>jeffreyjfred</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r200470892-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1357,9 @@
     <t>Stayed here for 4 nights.  This is not an expensive hotel but some things just "weren't right".  Lock on door broke (when we were on the outside), a bug crawled up from the sink drain, towels are very thin, there was tissue or toilet paper under the bath mat, the pool chairs were hand painted (and the paint did not stick well so it is all flaked), the televisions are older than I can date, one phone in the room had both cords broken...and some more but you get the idea.  We were at the reception desk when someone asked where the fitness center was and the receptionist said there wasn't one - well we found one the next day.  Seems like a safe place.More</t>
   </si>
   <si>
+    <t>JOSEPH R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r200252675-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1207,6 +1378,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Diana V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r198418199-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1243,6 +1417,9 @@
     <t>I read all of these reviews and some of the ones that are so old need to be ignored. I have stayed at this location multiple times. And when you need an affordable place to stay and you have 4 teenagers, this is the place. If you are someone who is accustomed to staying at exclusive 4-star hotels, then you will not be happy. But we are more than satisfied. Our kids love the pool. Especially the "waterfall" part. The buffet can fill all of them up without costing us a penny. They love to make the homemade waffles. And eat as much cereal and OJ as they want. My husband and I love that the shuttle runs non-stop back and forth from Six Flags and we can come back when we are done and the kids can stay as long as they want and we know they have a safe ride back to the hotel. (Keep in mind all four of our kids are from 16 to 19 years old). The set up of the room is like an apartment. We get a room with a door we can close if we want to sleep while they stay up to watch TV or play X-Box. And we can have extra snacks and drinks for them because there is a fridge and microwave. Sure it is dated and the towels are not pristine. But if everything was beautiful and brand...I read all of these reviews and some of the ones that are so old need to be ignored. I have stayed at this location multiple times. And when you need an affordable place to stay and you have 4 teenagers, this is the place. If you are someone who is accustomed to staying at exclusive 4-star hotels, then you will not be happy. But we are more than satisfied. Our kids love the pool. Especially the "waterfall" part. The buffet can fill all of them up without costing us a penny. They love to make the homemade waffles. And eat as much cereal and OJ as they want. My husband and I love that the shuttle runs non-stop back and forth from Six Flags and we can come back when we are done and the kids can stay as long as they want and we know they have a safe ride back to the hotel. (Keep in mind all four of our kids are from 16 to 19 years old). The set up of the room is like an apartment. We get a room with a door we can close if we want to sleep while they stay up to watch TV or play X-Box. And we can have extra snacks and drinks for them because there is a fridge and microwave. Sure it is dated and the towels are not pristine. But if everything was beautiful and brand new and shiny, it would not be as affordable as it is. We have been in multiple rooms on multiple stays and have never seen a bed bug. Go stay somewhere else if you are expecting perfection, but if you want a fun stay with nice employees and a fun shuttle driver, then this is the place for you.More</t>
   </si>
   <si>
+    <t>charles o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r195678186-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1261,6 +1438,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>SweetSholly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r192029450-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1279,6 +1459,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Houldie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r189893366-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1477,9 @@
     <t>Price was great and location w/ in walking distance of dome and restaurants...We stayed three days and our room was not vacuumed once..The layout was nice, but couch had no springs.. Could be a super place if it was updated. Shuttle to game was dirty, had no seat belts , and was overcrowded!!!</t>
   </si>
   <si>
+    <t>Joe_and_Katrina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r189776661-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +1501,9 @@
     <t>We were not expecting the Ritz when we made our reservation here.  I read several reviews and determined that this hotel was old, but fairly clean and in a good location to get to AT&amp;T Stadium.  Good location, yes; everything else, no.  The room was outdated, kind of clean, and had strange "solutions" to dilemmas, such as a fan in the wall between the "living room" and the bedroom to get the heat or air conditioning in from the "living room," as that is the only place they had an air conditioner/heater.  We woke up the first morning in the hotel to NO hot water and towels that were either stained or had 2-inch diameter holes in them.  When my husband went to talk to the staff about this, they offered to send someone from maintenance for the water problem (and no one ever came,) and handed him a pile of towels, of which ONE has neither stains or holes.  After we got back to the room that night, we checked the hot water again.  This time we did have hot water, but it was scalding, and there was no in-between.  Freeze or be scalded.  Those are your choices.  Then dry off with a stained and/or holey towel.  It is in a good location, but I would suggest spending a little more and staying in one of the other hotels that are in this area.More</t>
   </si>
   <si>
+    <t>Ellyn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r189015593-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1331,6 +1520,9 @@
   </si>
   <si>
     <t>For the price we paid, I expected more. Yes it's only a 1.1 mile walk to Cowboy stadium and they have a shuttle (they charge $5/person) and then charged me ($10 for a parking permit) but the rooms leave a lot to be desired especially for the price I paid. We stayed in a 2 bedroom suite and the beds were fine but the linens had holes in them. We told them that 5 people were sleeping and there were only 4 towels. The towels had holes in them. The rooms are old and in need of updating. The seal on the exterior door was bad and let in the cold air. The staff was nice enough. Good thing our family pretty much was exhausted so we got back from the game and went to bed. Woke up to barely any hot water in the shower. Called down and no one from maintenance came up.More</t>
+  </si>
+  <si>
+    <t>Dave B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r187988595-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1355,6 +1547,9 @@
 The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said...Where to begin, the trip to Arlington.  Nine of us flew to Arlington for a football game.  One of the nine booked the trip through Priceline.com and in an attempt to save us all some cash and get us closer to AT &amp; T Stadium, we chose an Econolodge.  When we arrived at the airport and called for the promised shuttle, we were put on hold and hung-up on for approximately 25 minutes.  Realizing what we were dealing with, we flagged down a private shuttle and rode to the hotel.  Check-in was average.  Arriving at the rooms, you could see the age of the hotel and the lack of maintenance that has occurred over the years.  Getting into the room was a challenge.  Over the three day stay, I would estimate that it took an average of 6-8 tries to get the access card to open the door.  The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said we don’t have any.  We were directed to the only vending machine at this fairly large property.  Imagine our surprise to learn that it was completely empty, except for the red cream soda, not exactly a great thirst quencher.  We were then directed by the front desk staff to a convenience store just around the corner.  We walked just around the corner and found nothing so called it a night, a thirsty night.  (We did find out from the shuttle driver the next day that there is no convenience store around the corner with the nearest being about .5 miles away across a freeway.)The maid service was interesting and half hearted to say the least.  Half-hearted in the fact that they made up one bed and left the other un-touched and un-made.  Half-hearted in the fact that they took the damp towels and left no fresh towels.  And half-hearted in the face that when we moved a small sofa we found a lot of dust and stuff clearly indicating that it had been vacuumed for months if not years.  Blech.Breakfast was very carb-heavy and after a quick taste of the bland orange juice, we decided to avail ourselves of the great breakfast buffet at the Holiday Inn next door.  Highly recommend that...More</t>
   </si>
   <si>
+    <t>SDTravelerGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r187816776-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1373,6 +1568,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Adetecar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r186960305-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1388,6 +1586,9 @@
     <t>We stayed at this Hotel on Thanksgiving for the Cowboy's game. It is in a really good location, however, they take advantage of this location giving you a terrible service and high rates.The hotel is old, dirty, uncomfortable and we never got hot water!If you are going to the AT&amp;T Stadium in Arlington, TX, keep looking for a better option.</t>
   </si>
   <si>
+    <t>EnviableRegent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r183081899-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1409,6 +1610,9 @@
     <t>We only stayed 1 night to hit Six Flags and it was like a mini apartment. The front desk staff was friendly and helpful. There was a kitchen with a full size fridge and a microwave and even a few plates, a cup and 2 knives. Odd quantity but at least they were there. Its a standard room on the bottom floor. The only noise I heard was from the maids who got to our room just after 9a.m.  The bed was comfy...not really firm but not exactly soft. I need a relatively firm bed but this worked just fine. I slept very well on it. The shower was a little odd but we got told that was just how the knobs were in Arlington. It is very close to Six Flags and gas stations if needed. It was a quiet road but only one entrance/exit. I would stay there again if I'm ever in that area.More</t>
   </si>
   <si>
+    <t>Dominick C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r182866311-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1436,6 +1640,9 @@
     <t>I recently went to the Premier Pigments School located in Arlington, The Staff at the Econo Lodge  hotel went above and beyond there jobs to make me and the other tenants comfortable!!!!!!! The shuttle was GREAT!!!!!! This man seemed to always be working???? Great guy!!!! So I want to say some things . They were OUT of everything!!!!!!!!!! COME ON HELP THESE GUYS OUT!!!!!!!! and your place would be 100 times better!!! TREAT YOUR WORKERS RIGHT!!!!!!!!More</t>
   </si>
   <si>
+    <t>Enjoli K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r182713964-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1661,9 @@
     <t>3 three friends &amp; I stayed at the Econo lodge for one nite. Our was roomy for 4 adults.  It even had a kitchen complete with large fridge, stove, sink, microwave, coffee maker, and bar with seats.  Our room also had a sofa that made into a bed although we did not use it.  There were 2 tvs. one in our bed room; the other in the living room.  the bathroom was standard hotel.  The breakfast was cereal, bagels with regular cream cheese, toast with butter and your choice of jellies, but the best part was the waffles.  The waffle batter was portioned into cups that were poured into waffle pan.  One word-- Yummy.  They sure do beat the frozen ones. Maple syrup and butter are offered to top your waffle.  The staff were extra helpful in helping us find activities in the area and even providing us with phone numbers and addresses.  The hotel has an indoor pool that we did not see or use, but I figure we will see that next time.  The ice machine was down but the staff gave me ice from the kitchen.  The staff were very friendly and quick to help.  I would recommend staying at Econo Lodge.More</t>
   </si>
   <si>
+    <t>anujm03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r181944620-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1682,9 @@
     <t>I was quite impressed by the hotel. As a member of Choice Priveleges, I was looking for a hotel that would give me points that was near the Cowboys stadium. I made the reservation the night before and showed up at 11 AM, even though check in time was not until 3 PM. The management was very friendly and let me check in at 11.The hotel was also quite comfortable and reasonably priced with 2 beds and a couch. I will try to stay there everytime I go to a Cowboys game.More</t>
   </si>
   <si>
+    <t>iwillnotdoit2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r181927769-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1487,6 +1700,9 @@
     <t>It's not the St. Regis, nor should anyone make that comparison.  It's suitable for a one night stand.  It's an easy walking distance to the stadium, safe, clean and had free parking.That's all I needed it for.More</t>
   </si>
   <si>
+    <t>bkasunset</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r180984901-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1505,6 +1721,9 @@
     <t>I stayed for 3 nights and I was very happy with my room, considering the price. And it's in a great location.  The best part is the great shuttle service and the manager goes out of his way to provide excellent service.More</t>
   </si>
   <si>
+    <t>GrahamHouseInn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r180868457-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1523,6 +1742,9 @@
     <t>1- guests noisy into wee am hours2- blood spot on pillow3- twin blanket on king bed4- twin blanket used as mattress pad5- no hot water in shower6- kitchenette missing: silverware, cooking utensils, pots and skillets, basic kitchen amenities - this was a totally unusable "amenity"7- complaints to front desk not effective8- carpet so filthy that your feet made a dark footprint in the tub9- "breakfast" was a cruel trick fit for the halloween season - no treats hereMore</t>
   </si>
   <si>
+    <t>carmendmartin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r175578925-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1541,6 +1763,9 @@
     <t>I was satisfied with the stay. Our last night staying some teenagers were knocking on the doors and running. This happened around 12 am. Called front desk and they was quick to address the problem. We was there with a large group on a business trip. When we had arrived to check in, we were upgraded to a different room because somehow the confirmation was never sent. Liked the fact the room  was set up like a 2 bedroom apartment. Hardbto find hotels that provide a full working kitchen, king size bed and a pull out sofa. And two separate tvs. Plan on using again in the future.More</t>
   </si>
   <si>
+    <t>greengirl15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r172842657-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1787,9 @@
     <t>We booked this hotel through Priceline's name your price tool. Was never asked about smoking or non smoking and when we got there we were booked into a smoking room. The manager was very kind and said even though there only a few rooms left and it was considered an upgrade he would be able to switch us to a nonsmoking room. The room we had was clean and the A/C was ice cold. This make not be a first choice but the great customer service of the new manager was very appreciated. It is very convenient to Cowboys stadium or to catch a Rangers game. While this is not a luxury hotel by any means it was comfortable for a budget friendly quick trip.More</t>
   </si>
   <si>
+    <t>jason m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r170231887-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1583,6 +1811,9 @@
     <t>I understood that this was a budget motel but oh my god. wanted two kitchens first night got none, second night got one kitchen, then threatened by night guy to kick us out for leaking tub when the tub had a crack in it. had to change room again, into another room that will be three rooms in two days, when asking for manager only one guy can help and he gets there  between eight and nine in the morning sometimes, that is what we were told. so no costumer service, at one point there were some young men trying all the car doors in the parking lot to find a open one and when confronted said they were not worried about the police, told front desk and the guy up front said things like that happen all the time no big deal, actual comment. finally upon checkout we were overcharged and told they would contact us that was almost a month ago. also, i cannot say for sure but i think they back part of the motel was used for a prostitution ring with men coming and going all night in and out of may rooms. told front deck about it and were told no big deal. unbelievable and the worst part we were on a budget  and were kinda stuck with the situation. this is the worst stay i have ever had anywhere and beg people to avoid...I understood that this was a budget motel but oh my god. wanted two kitchens first night got none, second night got one kitchen, then threatened by night guy to kick us out for leaking tub when the tub had a crack in it. had to change room again, into another room that will be three rooms in two days, when asking for manager only one guy can help and he gets there  between eight and nine in the morning sometimes, that is what we were told. so no costumer service, at one point there were some young men trying all the car doors in the parking lot to find a open one and when confronted said they were not worried about the police, told front desk and the guy up front said things like that happen all the time no big deal, actual comment. finally upon checkout we were overcharged and told they would contact us that was almost a month ago. also, i cannot say for sure but i think they back part of the motel was used for a prostitution ring with men coming and going all night in and out of may rooms. told front deck about it and were told no big deal. unbelievable and the worst part we were on a budget  and were kinda stuck with the situation. this is the worst stay i have ever had anywhere and beg people to avoid this place at all costs there is a holiday inn next door stay there please stay away i do not want any other vacations to be ruined by this horrible place.More</t>
   </si>
   <si>
+    <t>Mark A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r169912569-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1601,6 +1832,9 @@
     <t>I checked in at 10:30pm and checked out at 2:00am.  My wife woke me because there was a bug crawling on the baby's blanket.  When I lifted the untucked part of the bed there were 50 more tick sized what I thought to be baby roaches.  My good friend is an exterminator and informed me that roaches dont infest beds, BED BUGS do.  They are so disgusting (more so than roaches he says) that he no longer takes BED BUG jobs.  The only reason we were at this hotel is because our softball team sponser had provided us with these rooms.  My wife and I were so disgusted by the fact that one probably crawled on our four month old baby we will never stay in a hotel room again unless we take our own beds.  I know its convenient for those who bring their families to parks nearby but unless you want to carry these small friends back home with you I highly suggest staying somewhere miles and miles away.  A couple of words to describe this place and I'll end this review, BIOHAZARD (harvest blood similar to a mosquito), INFESTATION, DEPLORABLE, REVOLTING.........More</t>
   </si>
   <si>
+    <t>ShadowLightning</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r168346172-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1617,6 +1851,9 @@
   </si>
   <si>
     <t>This place has to be the worst hotel I have ever stayed, and I've stayed at a lot if hotels. We left our room for about 5 1/2 hours to go swimming at Hurricane Harbor, the weather was bad and even though they have two shuttles, they wouldn't pick up 9 people((3 Adults and 6 calm kids)). We had to call a different hotel to pick us up. We were hoping to come back to clean room but it looked the same as we left. We were gone for 5 1/2 hours. The beds wasn't made, floor wasn't vacuumed, or anything. We called the front desk and all he did was make sorry excuses for himself. I am never staying here again. It sucks. More</t>
+  </si>
+  <si>
+    <t>McJayhawk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r157936233-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1644,6 +1881,9 @@
 We were there for NCAA basketball and it was about a 15-20 minute walk over to Cowboys Stadium.  On the way you pass Wendy's TGI Friday's, Hooters, Walgreens and a bunch of other resturants.  Parking ranged from...Wow.  Maybe they have remodeled or maybe we got a different room or maybe it is the off season, but this place is fine. I've stayed at 20 or 30 rooms just about like it over the years and a lot that were not as nice.  I was super concerned reading the reviews, but it is just a standard motel that has not recently been remodeled.  The front desk was friendly and got us right to our room.  The room was fine, with a small extra room that had an additional TV and a small love seat, refridgerator and microwave.  We didn't watch much TV but the reception was good. They weren't flat screens or super big, but again, at a Motel 6 or EconoLodge I don't expect that.    The shower was a little tricky to figure out how to operate but it worked.  The beds were compfortable.  The curtains didn't match the bed spread but I guess I sleep with my eyes closed so that didn't bother me, it might bother some.The breakfast room had recently been remodeled and has a tile floor and was nice.  Basic breakfast about like what I eat at home, cold cereal, milk, juice, toast, waffles.We were there for NCAA basketball and it was about a 15-20 minute walk over to Cowboys Stadium.  On the way you pass Wendy's TGI Friday's, Hooters, Walgreens and a bunch of other resturants.  Parking ranged from $20 up $40 so paying $65 or $70 for this motel makes it an even better deal.     I would definately stay there again.More</t>
   </si>
   <si>
+    <t>N2Whales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r147968478-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1662,6 +1902,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>rcsone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r141113790-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1923,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Huffyboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r140957862-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1690,6 +1936,9 @@
   </si>
   <si>
     <t>Front desk understaffed. Unable to suggest somewhere to go for night life (were from out of town). We're told there was shuttle service from airport was not told "not from love field" found that out the hard way after a $50 cab ride. Rooms are old, dirty , and outdated. I'm watching the smallest tv ive ever seen right now while I'm looking at this brown stain on my comforter wondering what it could be. For location give it thumbs up but thats about it. The shuttle driver by the way is awesome. Another thumbs up.</t>
+  </si>
+  <si>
+    <t>Mark W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r139352112-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1715,6 +1964,9 @@
     <t>I booked this hotel at a very cheap rate for the cowboy classic at Dallas Stadium.  After reading all the reviews I was terrified that I had made a mistake.  Let me just say, I did not.  This hotel was exactly what I expected.  I mean it's an Econo Lodge for pete sake.  Were you expecting some beautiful suite?  We stayed in room 309.  It was worn but clean.  Everything worked.  Shower was fine, we had hot water, toilet flushed, all the lights worked, television was fine, bed was comfortable and no bed bugs, both the fridge and the microwave were clean and worked, the air conditioning kept up and wasn't loud.  The cleaning staff did a great job with our room everyday.  The front desk was friendly and helpful.  I was so relieved that the hotel snobs didn't keep me from rebooking a new hotel which would have cost a lot more.
 Now having said all that, It certainly wasn't perfect.  Our room was near a lobby area which at times was very loud.  The ice machine was near our door and was loud as well.  The room does have a very distinct cleaning smell, but you get used to it after you have been in the room for a while.  We did not go the the pool, but it looks very small.  The free breakfast is a joke - skip it.
 As I said before, the room is...I booked this hotel at a very cheap rate for the cowboy classic at Dallas Stadium.  After reading all the reviews I was terrified that I had made a mistake.  Let me just say, I did not.  This hotel was exactly what I expected.  I mean it's an Econo Lodge for pete sake.  Were you expecting some beautiful suite?  We stayed in room 309.  It was worn but clean.  Everything worked.  Shower was fine, we had hot water, toilet flushed, all the lights worked, television was fine, bed was comfortable and no bed bugs, both the fridge and the microwave were clean and worked, the air conditioning kept up and wasn't loud.  The cleaning staff did a great job with our room everyday.  The front desk was friendly and helpful.  I was so relieved that the hotel snobs didn't keep me from rebooking a new hotel which would have cost a lot more.Now having said all that, It certainly wasn't perfect.  Our room was near a lobby area which at times was very loud.  The ice machine was near our door and was loud as well.  The room does have a very distinct cleaning smell, but you get used to it after you have been in the room for a while.  We did not go the the pool, but it looks very small.  The free breakfast is a joke - skip it.As I said before, the room is worn.  The furniture is old, the carpet needs to be replaced and it has more of a cabin feel than a hotel.  But it was CLEAN!If you are looking for a luxury suite, this is not it.  But if you are looking for a reasonably priced hotel within walking distance to just about everything then this hotel would work for you.More</t>
+  </si>
+  <si>
+    <t>Keyboardlady</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r139308033-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1757,6 +2009,9 @@
 +Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired...My husband (63) and I (58) spent Labor Day weekend at this hotel; we attended an event at Dallas Cowboy Stadium.  We are not (obviously) high-end travelers and chose this primarily for its location and that we are Choice Privileges members and have generally been comfortable with their line of acccommodations.LOCATION:+EXTREMELY easy-on, easy-off of I-30.+FREE hotel shuttle runs to/from DFW Int'l airport (we didn't use it so cannot comment on it other than it exists)-Hotel shuttle DOES NOT run to Dallas Love Field (where we flew into)+++If you are attending an event at Cowboy Stadium or the Texas Rangers field, you can easily WALK THERE.  In fact, it cost us less for one night lodging and a place to park the rental car than some of the signs I saw for parking.  The walk is &lt;one mile and it is safe, easy and you pass many restaurants if you want to eat in the vicinity as wellPHYSICAL PLANT:-this is an older property in much need of a facelift; outdoor railings needed paint; it looks a little sad+hotel lobby seems recently redecorated and the breakfast room area was as wellROOM:+Two double beds and a fold out love seat for a great price+Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired for the amenities of a restaurant meal-Kitchen is stocked with virtually nothing;  we had 2 dinner plates, 2 salad bowls, 2 coffee mugs and 2 soup spoons.  No dish towels, hot pads, other tableware, glassware, etc. etc. etc.+I did ask at the desk for two forks and knives and they happily provided them -- not even plastic ones!+Bathroom sufficient for the two of us, but small if you have a family--Bathtub quite obviously had been damaged at one time to the extent that either the floor of the tub cracked or something heavy fell in it and broke the bottom.  Instead of replacing the tub, somehow they managed to epoxy a large piece of something that reminded me of shelf lining paper over the hole+Decorative elements (bedspreads, draperies, carpet) were in good condition and seemed fairly new+Beds comfortable-Housekeeping so-so.  We stayed three nights; first day I had to call and ask for towels (was told the laundry was 'behind') and housekeepers didn't do anything with the paltry few dirty dishes we had in the sink.  (I'd have washed them, but again, no dishwashing detergent, etc)+Air conditioned-Window air conditioners are...More</t>
   </si>
   <si>
+    <t>Art R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r136304122-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1778,6 +2033,9 @@
     <t>In town for Restoring Love event. 5 night stay. Good news: Walking distance to Cowboys Stadium and some good restraurants. Bad news: Rooms reminient of concrete military barracks in mid 70's. (same decor)  2 queen beds were beyond worn out as they bowed in the middle and were about 18" from floor. Should have been replaced 5 yrs ago. Shower controls beyond comprehesion, always too hot. Breakfast, ah the hot breakfast... waffles, toast and coffee. Toaster burned the toast at lowest setting. Cold cereal, no fruit, no yogurt, no eggs (hard boiled or scrambled). (Waffle House across Collins St) Guest laundry (2  machines) but no soap available. Told by front desk it could be purchased at Walgreens (1/2 mi) or Walmart (1 mi). Note: Great coin op laundry behind Walmart. I would say this is the worse "Choice Hotel" in their system and should be dropped.More</t>
   </si>
   <si>
+    <t>RoyalMI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r136047600-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2051,9 @@
     <t>I was in town for Restoring Love and wanted a hotel with a good location and a lower price.  Well, the location was awesome, and the price was reasonable, but I have learned a valuable lesson.  You get what you pay for!  We were there for 3 nights.  The pillows were awful, the bed was not comfortable, the sofabed was dirty and stained so that I was afraid to leave anything sitting on it.  The toilet would not flush, the shower never got hot.  The carpet was dirty.  This hotel is old and out of date and needs refurbishing immediately!</t>
   </si>
   <si>
+    <t>Suprise3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r136010757-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1811,6 +2072,9 @@
     <t>Yes, it's cheaper and you know why? It's filthy, stinks, and got bugs. YES, BUGS. They had bed bugs and took matresses out to the dump and sprayed them and after two days...Put them back in the rooms. REALLY...The only reason it's cheaper is they cannot get people to pay more or they would bolt soon as they see the inside. I should have taken the hint when five people who checked in before me came to get a refund while I was checking in. This is no joke. I would have checked out but they would not give me a refund. I tried to check out with in 15 minutes of checking in and they would not give me a refund. They didn't give the 5 who tried to get a refund while I was in line either. The bedspreads are atleast 25 years old, the curtains have stains and torn, the carpet turns your feet black when when walked upon, sofa is stained and disqusting, and don't even look in the bathroom. If you book with them, you will loose your money and stay at a "Roach Motel". The only good reviews are written by the owner and it's staff. I heard them bragging about it when I was in line to get a refund. Which I never got...I had to complain to my charge card company and show supporting documents where I checked out less than 30...Yes, it's cheaper and you know why? It's filthy, stinks, and got bugs. YES, BUGS. They had bed bugs and took matresses out to the dump and sprayed them and after two days...Put them back in the rooms. REALLY...The only reason it's cheaper is they cannot get people to pay more or they would bolt soon as they see the inside. I should have taken the hint when five people who checked in before me came to get a refund while I was checking in. This is no joke. I would have checked out but they would not give me a refund. I tried to check out with in 15 minutes of checking in and they would not give me a refund. They didn't give the 5 who tried to get a refund while I was in line either. The bedspreads are atleast 25 years old, the curtains have stains and torn, the carpet turns your feet black when when walked upon, sofa is stained and disqusting, and don't even look in the bathroom. If you book with them, you will loose your money and stay at a "Roach Motel". The only good reviews are written by the owner and it's staff. I heard them bragging about it when I was in line to get a refund. Which I never got...I had to complain to my charge card company and show supporting documents where I checked out less than 30 minutes after I checked in and showed my new hotel bill where I stayed in that city. Stay at your own risk.More</t>
   </si>
   <si>
+    <t>Henson00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r134835302-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1829,6 +2093,9 @@
     <t>Trust me..stay somewhere else.  We checked in stayed one night.  The rooms are old and musty, the toilet would not flush, the shower would not drain, the beds are awful, lamps are barely hanging on the wall (sideways).  Looked like a great place to shoot a horror movie. As soon as we got into the room, my sons says "mom are we really staying here" he thought it was a prank.  Next day we moved down the street to the Crowne Plaza for about $25 more total for two nights.  But this is what angered me the most.  The girl at the desk tried to sell us trolley passes for $40 each.  Which we needed them, luckily I didnt by them from the Econo lodge.  The next day at crowne plaza they were given to us free....wow..So you mom's out there, from me to you do not take your family to this dump.More</t>
   </si>
   <si>
+    <t>amcool68</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r133876136-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1850,6 +2117,9 @@
     <t>The price was good. There was a lot of space.  We got a suite 2 queen beds with a pull out sofa. It was conveniently located. There is a smell when we went into the room. After being there for 15 minutes, we were sweating and realized the air was not working.  Not a good thing when it is 105 degrees outside. We requested another room and when we walked into the room there was a very very strong scent of cat urine.  It was overpowering.  We requested a 3rd room or a refund.  The 3rd room as average, had a moldy smell but tolerabe for 1 night.  The Rooms were outdated, the Sofas and beds looked hold. The floor had stains, the shower did not get hot.  We realized that this is a pet friendly hotel and there were many people who had their pets with them.  If you are not a pet person and/or does not like the smell of pet in your space then this hotel is not for you.  My daughter kept getting bit on her legs and had bite marks all over her legs in the morning (probably from fleas). For us, the price was not worth it. In the future I would rather pay a little more for a better more comfortable stay.  This hotel was horrible.  I would not recommend it! We were so disgusted by the rooms and the hotel that we...The price was good. There was a lot of space.  We got a suite 2 queen beds with a pull out sofa. It was conveniently located. There is a smell when we went into the room. After being there for 15 minutes, we were sweating and realized the air was not working.  Not a good thing when it is 105 degrees outside. We requested another room and when we walked into the room there was a very very strong scent of cat urine.  It was overpowering.  We requested a 3rd room or a refund.  The 3rd room as average, had a moldy smell but tolerabe for 1 night.  The Rooms were outdated, the Sofas and beds looked hold. The floor had stains, the shower did not get hot.  We realized that this is a pet friendly hotel and there were many people who had their pets with them.  If you are not a pet person and/or does not like the smell of pet in your space then this hotel is not for you.  My daughter kept getting bit on her legs and had bite marks all over her legs in the morning (probably from fleas). For us, the price was not worth it. In the future I would rather pay a little more for a better more comfortable stay.  This hotel was horrible.  I would not recommend it! We were so disgusted by the rooms and the hotel that we refused to take part in the free breakfast.More</t>
   </si>
   <si>
+    <t>jt_28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r133210580-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1865,6 +2135,9 @@
     <t xml:space="preserve">We stayed there on a Saturday for a Rangers game. We got a queen &amp; king for around $100 when most hotels in the area were a lot more. They have a free trolley that takes you to the ballpark. Our shower didn't work too good. There was a bad stain on the bed but the mattress covered it after I pushed it over. I felt like I was getting bit all night.  For the location &amp; price, it was ok. </t>
   </si>
   <si>
+    <t>Diana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r132236647-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1883,6 +2156,9 @@
     <t>The best thing that could happen here is to tear it down and start over.  Bathtub had a huge hole in it that the covered with a mat, ceiling was cracked and looked like it could fall in at anytime.  When we arrived one of the lamps had fallen off the wall and was hanging against the other one, my husband went to the front desk and reported,they were to send housekeeping, they never showed.  In fact the first night we stayed housekeeping NEVER showed up.  I called down to the front desk at 5:30 and ask if they could please send me some fresh towels, soap and shampoo, the lady said well you can come down and get them, I am the only one here.  I told her NO, you get someone to bring them to me, that is what I am paying for and if housekeeping had been here like they were suppose to I wouldn't be calling.  Housekeeping came the next day and we got fresh towels, but NOT fresh sheets.  They put the same ones back on our beds.  My 18 month old had spilled red juice on the sheets and that night when I pulled back the blanet there it was the same stain.  WOW...the next day I went to iron my pants and the iron fell apart in my hand.  I took pictures of everything but they don't tell the real story.  The grass...The best thing that could happen here is to tear it down and start over.  Bathtub had a huge hole in it that the covered with a mat, ceiling was cracked and looked like it could fall in at anytime.  When we arrived one of the lamps had fallen off the wall and was hanging against the other one, my husband went to the front desk and reported,they were to send housekeeping, they never showed.  In fact the first night we stayed housekeeping NEVER showed up.  I called down to the front desk at 5:30 and ask if they could please send me some fresh towels, soap and shampoo, the lady said well you can come down and get them, I am the only one here.  I told her NO, you get someone to bring them to me, that is what I am paying for and if housekeeping had been here like they were suppose to I wouldn't be calling.  Housekeeping came the next day and we got fresh towels, but NOT fresh sheets.  They put the same ones back on our beds.  My 18 month old had spilled red juice on the sheets and that night when I pulled back the blanet there it was the same stain.  WOW...the next day I went to iron my pants and the iron fell apart in my hand.  I took pictures of everything but they don't tell the real story.  The grass was high and there were beer bottles throw around, just plain nasty.   Ice maker didn't work, breakfast was horrible and the staff working the breakfast was even worse.  I have stayed at a lot of hotels in my days and I can truely say this was the WORST!!!  Run, Run, as fast as you can to another place, don't stay here!More</t>
   </si>
   <si>
+    <t>Charla H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r131798912-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1901,6 +2177,9 @@
     <t>There for a concert at Cowboys Stadium. The room had a funky smell to it.  The bottom of the refrigerator door was filthy (we had a deluxe room).  We saw a Brown German Cockroach crawling on the ceiling over the bed as we were getting ready to leave. Room next to us was getting redone and I saw a HUGE bottle of bug spray in there - now I know why that bug was in our room!!  The closet door wouldn't open and the mirrors on it were cracked in 3+ places.  There were no dish towels or paper towels for the kitchenette.  The door to the room had a huge gap between it and the floor - a mouse could have easily made his way in.  There was only one ice machine for the entire hotel and it was on the 3rd floor close to the office *we were on the backside on the 1st floor*  The breakfast was 'ok' - Belgian waffles, bananas, muffins, bagels, bread for toast, two kinds of cereal, orange and apple juice.  It was a good thing we were there for only one night.  Will not stay there again.  I believe we were overcharged.  Will stay at Comfort Inn and Suites next time.More</t>
   </si>
   <si>
+    <t>Adasha K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r126542212-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1922,6 +2201,9 @@
     <t>I asked for a downstairs room, handicapped accessible.  The desk clerk felt our room would be ok on the third floor because they have an elevator.  Well, it's all outside and our room was at the complete opposite side of the hotel as the elevator.  Our ice machine on our floor did not work.  We asked for more pillows and were told they had no one to get them out for us.  They were so small that one of theirs equalled 1/3 of a normal one.  The a/c cover blew off while there.  The morning of check out we were harassed first by cleaning staff, then by the office calling over and over until we could get all of our things downstairs.  They only made one bed while there.  Not a good location.  Not a good experience...More</t>
   </si>
   <si>
+    <t>Beth M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r122091786-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1940,6 +2222,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>WestTxSkeptic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r118324566-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1958,6 +2243,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Rastadog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r117802758-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1973,6 +2261,9 @@
     <t>This one of the many hotels near Cowboys Stadium and from what I can tell one of the worst. The staff was nice, but frankly they don't have much to work with. So, unless you're desperate, keep looking. You'll do better this."</t>
   </si>
   <si>
+    <t>MetheDuck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r117720907-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1986,6 +2277,9 @@
   </si>
   <si>
     <t>This is the worst motel we've stayed in in 20 years. No hot water, door locks are iffy and sofa sleeper is old and uncomfortable. We had to fetch our own towels and get in their face to get a blanket. Post-game partying went on, unimpeded, until 3 am. The only thing this place has going for it is proximity to Cowboys Stadium. And it's not all that close either. A miserable experience.</t>
+  </si>
+  <si>
+    <t>Texasgirl2001</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r116043167-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -2013,6 +2307,9 @@
  The mattresses are awful and very old and it leaned to one side.  Sheets and comforter were old, stained and felt like they weren't cleaned.  The pull out bed was falling apart.  My young sons whose combined weight is less than 80 pounds made the pull out mattress sag.  They didn't get pillows  or addition blankets (beside sheets) because the...The only good thing about this place is the pool &amp; location.  When we were at the hotel we spend most of the time at the nicely shaded pool and out of our room.Stayed here in the 2 room suite (if you would call it that).  It's 2 bedrooms and 1 kitchen/living area.  The rooms overall have a very used/ rough look to it.  Banged/ busted up old furniture.   There is no a/c in 1 room. They have an exhaust fan to blow air into the bedroom.  The other bedroom with its own a/c barely kept the room cool. Lobby is nice and renovated and rooms are very old and disgusting! Carpet was stained and nasty.  My 11 month old did not touch the floor at all there. No exhaust fan in bathroom- so the steam gets bad when you shower and yes we did run out of hot water quick.  1 toilet ran the whole time.  Shower was nasty and small.  We didn't have enough towels for all of us and neither did the front desk when asked. The mattresses are awful and very old and it leaned to one side.  Sheets and comforter were old, stained and felt like they weren't cleaned.  The pull out bed was falling apart.  My young sons whose combined weight is less than 80 pounds made the pull out mattress sag.  They didn't get pillows  or addition blankets (beside sheets) because the hotel ran out!?!  Walkways around are dirty and have very dark places- I would never venture out after dark on those grounds.  I always kept the door locked.  There were some pretty seedy guests staying in hotel.Will never stay there again.  I was so temped to sleep in my minivan- it would have been much more comfortable and cleaner.More</t>
   </si>
   <si>
+    <t>fshg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r115731860-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2034,6 +2331,9 @@
     <t>I rang this hotel and told them I had read bad reviews and they assured me that they were under new management and things were better.  REALLY.  2 high lights, Leanord and Melissa.  Manager did her duty....There was nothing to cook with when we got there...OK we can get some stuff.  Luckily we took paper plates with us so we had something to eat off.  The A/C in one room was working the other A/C...not so good.  The toilet in one bathroom kept running.  It is an older hotel (at least I think it is) so I can forgive some of the faults.  The fact that the Fire alarm went off and no one seemed the least bit worried was unbelivable.  But above all, and this I know is our own fault but good grief, a plush rose of my daughters was taken.  To top it off her DSI which was in a drawer covered with clothing was STOLEN too.  If it had been out on view I would take full responsibilty for the loss but it was in a drawer under clothing...Maybe thats why they didn't make up one of the rooms the day before we left...too busy searching for things to steal!  I would not recommend this hotel, not to anyone.More</t>
   </si>
   <si>
+    <t>Charlotte K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r110956144-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2052,6 +2352,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>SMiller78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r100999494-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2073,6 +2376,9 @@
     <t>Stayed here for the superbowl.  Withing walking distance of the stadium plus an enormous amount of restaurants and shops in Lincoln Square.  Free shuttle service to and from the airport and anywhere within a 5 mile radius.  The staff was excellent and accomodating.  The free continental breakfast was great plus they have a social hour weeknights (they had it on the weekend too, for the superbowl) with free beer and wine, and snacks and hors d'oervres.  Our suite was very nice (full kitchen), and I had the best nights sleep on one of the most comfortable king size beds ever.  I highly recommend this hotel and would stay here again when visiting Arlington.More</t>
   </si>
   <si>
+    <t>txcharm71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r100997463-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2091,6 +2397,9 @@
     <t>We checked in on Thur. and had asked for 2 rooms next to each other since our children were staying in their own room.  The rooms were on opposite sides of the building !  My son found a crack pipe in his room on the floor and had a couch bed with yellow sheets, the room was so filthy our feet were black from walking on it barefooted.  There was no hot water in either room.   I contacted the front desk about the finding and was told " We can put you in another room"  No biggy right?  We left and spent the day at 6 Flags and after returning, still had not been contacted about our findings or concerns.  Friday night, we spoke with another family who stated they had found marijuana in their room and they did not have hot water either, another family also had black feet from the carpet and the cleaning staff had left their room wide open after cleaning it, they were gone all day at Six Flags and did not know their room was left open.  Upon check out, I called the front desk again and asked about contacting mangement, I was told by the staff " How do we know it's not your pipe, how do we know you didnt bring it with you" and was rudely hung up on.  After fighting with the staff and speaking to a "manager"  we were...We checked in on Thur. and had asked for 2 rooms next to each other since our children were staying in their own room.  The rooms were on opposite sides of the building !  My son found a crack pipe in his room on the floor and had a couch bed with yellow sheets, the room was so filthy our feet were black from walking on it barefooted.  There was no hot water in either room.   I contacted the front desk about the finding and was told " We can put you in another room"  No biggy right?  We left and spent the day at 6 Flags and after returning, still had not been contacted about our findings or concerns.  Friday night, we spoke with another family who stated they had found marijuana in their room and they did not have hot water either, another family also had black feet from the carpet and the cleaning staff had left their room wide open after cleaning it, they were gone all day at Six Flags and did not know their room was left open.  Upon check out, I called the front desk again and asked about contacting mangement, I was told by the staff " How do we know it's not your pipe, how do we know you didnt bring it with you" and was rudely hung up on.  After fighting with the staff and speaking to a "manager"  we were paid back for 1 room at 2 nights pay but the other families had not be refunded as of Monday after our stay.  The trolly did not  come on time and over all, the trip was a total loss!More</t>
   </si>
   <si>
+    <t>seraina11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r98462994-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2112,6 +2421,9 @@
     <t>My school booked me at Econo Lodge for 5 Weeks. Staff was very friendly  - sometimes pick up from / to school was "challenging" because other students (the last two weeks) stayed at the same place and we have taken privat car to drive to school because of missing space. Larry was very kind - thanks a lot! The Gym was (for my opinion) not very clean. Towels were not replaced and it took some minutes to open the door! The Pool area was great just in front of my room.In the room were some "smokers hole" in the table, otherwise the room was good. Sometimes just very hot water for 10mins because the  boiler was closed to the room.Thanks to all staff to support me during my  learning phase.Kind regards from Switzerland, SerainaMore</t>
   </si>
   <si>
+    <t>DavidCThompson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r92430070-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2130,6 +2442,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>KQManagement</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r84770917-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2157,6 +2472,9 @@
     <t>Stayed Saturday night to go to Ranger Baseball Game with New York Yankess, Paid $151+ for suite plus $10.00 to check in at 1:00 instead of 3:00 (Ranger game started at 3:00).  I was okay with those charges but there was a pending charge for over a week of $5.00 on my debit card.  So I called the motel and was told it was because 1 medium towel was damaged.  Ladies I suggest you wash your face and eyes with your own towel.  Or go to the local Dollar Tree and buy one for $1.00.  I will not be using this motel chain again.  That is ridiculous!!!!!!!!More</t>
   </si>
   <si>
+    <t>bsjg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r83034235-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2175,6 +2493,9 @@
     <t>Complete DUMP ! $169 for a suite that was suppose to have two queen beds and a sleeper sofa. I got two double beds and a sleeper sofa from the 80 s ! Took about ten times of trying the lock to get in the room. Once I got in I got stained and torn carpet, noisy a/c, patched holes in the walls, hole in the bathroom door, small OLD tv's one only got static ! Here is the best part....the fire alarm goes off at 3:37 a.m. in the room ! I only stayed here because my daughter and I went to SixFlags and every hotel in the area was sold out ! NEVER AGAIN ! More</t>
   </si>
   <si>
+    <t>Bliles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r75463239-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2196,6 +2517,9 @@
     <t>We were in town for a getaway weekend and a Rangers game.  This hotel had a shuttle to and from the ballpark and was very nearby, and the rates were good, so we stayed here.  The room was very outdated and everything in it was old - didn't want to touch anything.  The sheets on the bed were threadbare, although the bed itself was quite comfortable.  There was a long black hair on the coffee pot.  The exposed side of the refrigerator was covered with rusty spots.  When we returned from the ballgame (after waiting nearly an hour for the shuttle on a 106 degree day), the ONE ice machine for the entire building was empty.  The front desk said we would just have to wait.  They serve breakfast and have ice in the kitchen, but they were unwilling to let us have any of that ice when we asked.If all you need is a bed to sleep in and can ignore your surroundings, this place is OK.  If you expect things to be clean and nice, or courtesy from the desk staff, forget it.  I have stayed in budget hotels before, and they can be nice with courteous staff, but not here.More</t>
   </si>
   <si>
+    <t>Msnadia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r75344404-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2214,6 +2538,9 @@
     <t>We arrived at this hotel,around 3 if we came before then it would be an extra 20$ finally got into the room the boys bathroom had no towels,our bathroom shower knob was broken,the toilet would'nt hardly flush...that was only the beginning.The hotel offers a trolley to take us to various sites around Arlington,we stayed on the trolley for an hour with no air!!! So we decided to come back and take our car,after having a bad experience,we get back to our hotel take a shower..pull back the covers they had a flat sheet on our King Size bed.my daughters pull out sofa bed had holes in her fitted sheet. I would not recommend this hotel to a cat,this was the worst experience i've ever had.More</t>
   </si>
   <si>
+    <t>10Mickey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r66778148-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2232,6 +2559,9 @@
     <t>Upon arrival the lobby was nice and clean but rather warm I thought "OMG, I sure hope that the A/C in the rooms are working".  The staff at the front desk was friendly.  So now we are all checked in, have our key cards and what's next.  I entered my room, it was nice and clean but it wasn't even warm in there it was HOT.  We all got settled in and as we were leaving I informed the front desk of the A/C and when we returned it was working but guess what it wasn't working in what I guess was the master bedroom and the A/C setting was 60 degrees.  The poor iron, Lord I had to keep plugging and unplugging it for it to work.  The kitchen wasn't equipped for cooking.  Grant it the kitchen was nice, it has a stove, sink, refrigerator and a microwave but where's the utensils, pots and pans.  Who travels with pots and pans unless you have an RV.  If they were were available upon request we did know about it.  The party traveling with me also had complaints.  One had no microwave, an iron with no ironing board, the other one had major A/C problems.  When she reported it maintenance came with a flashlight shined it on the A/C said it was fine and left, evendentually her definition of cold and his definition of cold was different .  The next morning...Upon arrival the lobby was nice and clean but rather warm I thought "OMG, I sure hope that the A/C in the rooms are working".  The staff at the front desk was friendly.  So now we are all checked in, have our key cards and what's next.  I entered my room, it was nice and clean but it wasn't even warm in there it was HOT.  We all got settled in and as we were leaving I informed the front desk of the A/C and when we returned it was working but guess what it wasn't working in what I guess was the master bedroom and the A/C setting was 60 degrees.  The poor iron, Lord I had to keep plugging and unplugging it for it to work.  The kitchen wasn't equipped for cooking.  Grant it the kitchen was nice, it has a stove, sink, refrigerator and a microwave but where's the utensils, pots and pans.  Who travels with pots and pans unless you have an RV.  If they were were available upon request we did know about it.  The party traveling with me also had complaints.  One had no microwave, an iron with no ironing board, the other one had major A/C problems.  When she reported it maintenance came with a flashlight shined it on the A/C said it was fine and left, evendentually her definition of cold and his definition of cold was different .  The next morning she was told that they have had problems with the A/C in that room and moved her to another room.  "Hello" fix the A/C or don't assign the room.  I guess there is a shortage of tissue and towels.  We asked for tissue, didn't get it.  I call for towels a little after 6 pm didn't get them.  I call for towels again after 12 am and was told that housekeeping wasn't there and I would have to come and get them myself yet and still they did not have all of what I asked for.  The carpet was stained, not an issue for me.  The sheet on the twin sleep sofa was torn was an issue for me.  At check out their was a misunderstanding.  I didn't think the clerk explain all the information clearly enough.  Not only was their one with me but one with the gentlemen ahead of me.  Overall I would say that this hotel was descent, would I recommend it, NO.  The location was good, the price was good and we got what we paid for.More</t>
   </si>
   <si>
+    <t>snuggles64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r58656058-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2253,6 +2583,9 @@
     <t>My family and I went for a family function. We got to the room and the door was easy to open without the room key. We didnt have hot water, and other guests were complaining about the hot water. We left for the day and when we returned at 11:00 p.m. our room was not cleaned. Our used towels were nicely piled up under the sink. There aren't any ice machines so you will journey through the maze to the front office to obtain ice. You will also need to have your own container. This was my worst Econolodge stay that I've ever encountered. I was told several times that the manager would see me but he never came or emailed me as promised.More</t>
   </si>
   <si>
+    <t>drywalsman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r51913563-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2607,9 @@
     <t>Started out bad as with all the new construction in the area for the new Cowboys' stadium and the upcoming super bowl in a couple years, place was almost impossible to get to.  Had to call for directions even though i could see it a few hundred yards away.  Front desk service was bad.  It took almost 20 minutes just to check into room that I had already reserved.  I was the only person at the front desk.  Asked for a shuttle to pick us up for six flags an hour after we got to hotel.  When we came back to front for pick up, driver/manager was at front desk chilling.  The front desk clerk had not let him know that we needed shuttle service.  Shuttle driver/manager was nice, but scary driver.  Room was old, one of the main locks was broken on the door.  Bed was so old and non comfortable.  We were on first floor and our sliding window wouldn't lock.  I could go on and on, but we left the next day (two days early) for a hilton garden inn.  Price was nice, but nothing else was.  We were told that people had just bought hotel a couple months earlier and were working hard to get it together.  They have a lot of work to do.  Don't be fooled if it says its walking distance to six flags.  If you call two miles walking distance, then more...Started out bad as with all the new construction in the area for the new Cowboys' stadium and the upcoming super bowl in a couple years, place was almost impossible to get to.  Had to call for directions even though i could see it a few hundred yards away.  Front desk service was bad.  It took almost 20 minutes just to check into room that I had already reserved.  I was the only person at the front desk.  Asked for a shuttle to pick us up for six flags an hour after we got to hotel.  When we came back to front for pick up, driver/manager was at front desk chilling.  The front desk clerk had not let him know that we needed shuttle service.  Shuttle driver/manager was nice, but scary driver.  Room was old, one of the main locks was broken on the door.  Bed was so old and non comfortable.  We were on first floor and our sliding window wouldn't lock.  I could go on and on, but we left the next day (two days early) for a hilton garden inn.  Price was nice, but nothing else was.  We were told that people had just bought hotel a couple months earlier and were working hard to get it together.  They have a lot of work to do.  Don't be fooled if it says its walking distance to six flags.  If you call two miles walking distance, then more power to you.  We did get a complimentary shuttle that was very nice and came back to pick us up on time.  e-mail if you want to know anything else.More</t>
   </si>
   <si>
+    <t>dblum69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r50826482-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2292,6 +2628,9 @@
     <t>Stayed there for the Big 12 Football Championship.  The price we paid was resonable but probably wasn't the way I'd go if I had it to do over.  The room was extremely old and outdated...hole in the couch, no blanket or pillows for the guy stuck on the pullout bed (Me), lock was broken on the door, old tv's, old everything.  It's one of those places you just don't really want to touch anything or even sit on the couch.  They claim it's in walking distance to Cowboy's Stadium but with the interstate, heavy traffic and the mess of road construction going on around there...I wasn't going to risk my life walking.  I'd advise looking elsewhere if you're looking for a place in this area.More</t>
   </si>
   <si>
+    <t>jungrach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r46273942-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2308,6 +2647,9 @@
   </si>
   <si>
     <t>October 2009</t>
+  </si>
+  <si>
+    <t>nikkidussere</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r38383679-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -2833,43 +3175,47 @@
       <c r="A2" t="n">
         <v>19034</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>124218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2887,50 +3233,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19034</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>124219</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2944,50 +3294,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19034</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>124220</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3001,50 +3355,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19034</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>124221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3058,50 +3416,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19034</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>37176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3119,50 +3481,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19034</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>124222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3176,50 +3542,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19034</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>15931</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3233,50 +3603,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19034</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>124223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3290,50 +3664,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19034</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>124224</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>97</v>
       </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3347,50 +3725,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19034</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>124225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3404,50 +3786,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19034</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>124226</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3461,50 +3847,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19034</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>124227</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3518,41 +3908,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>19034</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>124228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
@@ -3571,50 +3965,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>19034</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>124229</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3632,50 +4030,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>19034</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>3612</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3693,41 +4095,45 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>19034</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>124230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -3746,50 +4152,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19034</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>124231</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3803,50 +4213,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>19034</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>124232</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3864,50 +4278,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19034</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>124233</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3927,50 +4345,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19034</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>2695</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3984,50 +4406,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19034</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>561</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4047,50 +4473,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>19034</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>124234</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -4110,50 +4540,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>19034</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>124235</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="O24" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4171,50 +4605,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>19034</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>25715</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4234,50 +4672,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>19034</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>124236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4291,35 +4733,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>19034</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>2559</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -4335,9 +4781,6 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4349,37 +4792,37 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K28" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4393,50 +4836,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>19034</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>124237</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="J29" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4454,50 +4901,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>19034</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>18396</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4517,50 +4968,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>19034</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>124238</v>
+      </c>
+      <c r="C31" t="s">
+        <v>239</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4580,50 +5035,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>19034</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>20523</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="J32" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -4643,50 +5102,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>19034</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>43995</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J33" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O33" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4704,50 +5167,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>19034</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>124239</v>
+      </c>
+      <c r="C34" t="s">
+        <v>258</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4767,50 +5234,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>19034</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>124240</v>
+      </c>
+      <c r="C35" t="s">
+        <v>265</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4828,50 +5299,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>19034</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>18677</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4891,50 +5366,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>19034</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>124241</v>
+      </c>
+      <c r="C37" t="s">
+        <v>279</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="J37" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4948,50 +5427,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>19034</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>124242</v>
+      </c>
+      <c r="C38" t="s">
+        <v>285</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="J38" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -5011,50 +5494,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>19034</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>49133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>293</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="J39" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="O39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5068,50 +5555,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>19034</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>124243</v>
+      </c>
+      <c r="C40" t="s">
+        <v>300</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="J40" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5129,50 +5620,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>19034</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>124244</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="J41" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -5192,50 +5687,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>19034</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C42" t="s">
+        <v>316</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="J42" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="K42" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5259,41 +5758,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>19034</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>31891</v>
+      </c>
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="J43" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="K43" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -5322,50 +5825,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>19034</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>124245</v>
+      </c>
+      <c r="C44" t="s">
+        <v>330</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="J44" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="K44" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5379,7 +5886,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45">
@@ -5392,37 +5899,37 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="K45" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5440,50 +5947,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>19034</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7521</v>
+      </c>
+      <c r="C46" t="s">
+        <v>344</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="J46" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="K46" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5503,50 +6014,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>19034</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>124246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>350</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="J47" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5560,50 +6075,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>19034</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>124247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>357</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="J48" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5623,41 +6142,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>19034</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>124248</v>
+      </c>
+      <c r="C49" t="s">
+        <v>364</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="J49" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="K49" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
@@ -5686,50 +6209,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>19034</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>124249</v>
+      </c>
+      <c r="C50" t="s">
+        <v>371</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="J50" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="K50" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5747,48 +6274,52 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>19034</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>124250</v>
+      </c>
+      <c r="C51" t="s">
+        <v>379</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5812,7 +6343,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52">
@@ -5825,37 +6356,37 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="J52" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="K52" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5873,50 +6404,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>19034</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>124251</v>
+      </c>
+      <c r="C53" t="s">
+        <v>391</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="J53" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="K53" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="L53" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="O53" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -5936,41 +6471,45 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>19034</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>124252</v>
+      </c>
+      <c r="C54" t="s">
+        <v>398</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="J54" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="L54" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -5989,41 +6528,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>19034</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>46587</v>
+      </c>
+      <c r="C55" t="s">
+        <v>405</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="J55" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="K55" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="L55" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -6042,50 +6585,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>19034</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>6579</v>
+      </c>
+      <c r="C56" t="s">
+        <v>411</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J56" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="O56" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6107,50 +6654,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>19034</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>124253</v>
+      </c>
+      <c r="C57" t="s">
+        <v>418</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="J57" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="K57" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6174,50 +6725,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>19034</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>6270</v>
+      </c>
+      <c r="C58" t="s">
+        <v>424</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J58" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="K58" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="L58" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="O58" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6241,50 +6796,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>19034</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C59" t="s">
+        <v>431</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="J59" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="K59" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="L59" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="O59" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -6308,50 +6867,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>19034</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>124254</v>
+      </c>
+      <c r="C60" t="s">
+        <v>437</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="J60" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="K60" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="O60" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6375,50 +6938,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>19034</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>124255</v>
+      </c>
+      <c r="C61" t="s">
+        <v>443</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="J61" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="K61" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6442,50 +7009,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>19034</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>53171</v>
+      </c>
+      <c r="C62" t="s">
+        <v>450</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>394</v>
+        <v>452</v>
       </c>
       <c r="J62" t="s">
-        <v>395</v>
+        <v>453</v>
       </c>
       <c r="K62" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -6507,7 +7078,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63">
@@ -6520,37 +7091,37 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="J63" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="K63" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6574,50 +7145,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>404</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>19034</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>124256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>463</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="J64" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="K64" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="L64" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="O64" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6641,50 +7216,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>19034</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>124257</v>
+      </c>
+      <c r="C65" t="s">
+        <v>470</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="J65" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="K65" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="L65" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="O65" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6708,41 +7287,45 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>19034</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>74702</v>
+      </c>
+      <c r="C66" t="s">
+        <v>477</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="J66" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="K66" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="L66" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
@@ -6771,50 +7354,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>19034</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>124258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>483</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="J67" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="K67" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="L67" t="s">
-        <v>426</v>
+        <v>488</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6838,50 +7425,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>19034</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>124259</v>
+      </c>
+      <c r="C68" t="s">
+        <v>491</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="J68" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="K68" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="L68" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6905,50 +7496,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>19034</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>3019</v>
+      </c>
+      <c r="C69" t="s">
+        <v>498</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="J69" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="K69" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="L69" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>427</v>
+        <v>489</v>
       </c>
       <c r="O69" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6972,50 +7567,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>19034</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>124260</v>
+      </c>
+      <c r="C70" t="s">
+        <v>505</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="J70" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="K70" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="L70" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="O70" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -7039,50 +7638,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>19034</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>124261</v>
+      </c>
+      <c r="C71" t="s">
+        <v>512</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="J71" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
       <c r="K71" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
       <c r="L71" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="O71" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7106,50 +7709,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>19034</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>124262</v>
+      </c>
+      <c r="C72" t="s">
+        <v>518</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="J72" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
       <c r="K72" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
       <c r="L72" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7173,50 +7780,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>19034</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>124263</v>
+      </c>
+      <c r="C73" t="s">
+        <v>526</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="J73" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="K73" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="L73" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="O73" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7238,56 +7849,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="X73" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="Y73" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>19034</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>124264</v>
+      </c>
+      <c r="C74" t="s">
+        <v>536</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="J74" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="K74" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="L74" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="O74" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7309,56 +7924,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="X74" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="Y74" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>19034</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>124265</v>
+      </c>
+      <c r="C75" t="s">
+        <v>543</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="J75" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="K75" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="L75" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="O75" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7380,56 +7999,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="X75" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="Y75" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>19034</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>124266</v>
+      </c>
+      <c r="C76" t="s">
+        <v>550</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="J76" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="K76" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="L76" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="O76" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7451,47 +8074,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="X76" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="Y76" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>19034</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>124267</v>
+      </c>
+      <c r="C77" t="s">
+        <v>556</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="J77" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="K77" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="L77" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
@@ -7518,56 +8145,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="X77" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="Y77" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>19034</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>124268</v>
+      </c>
+      <c r="C78" t="s">
+        <v>563</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="J78" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="K78" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="L78" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
       <c r="O78" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7589,47 +8220,51 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="X78" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="Y78" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>19034</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>124269</v>
+      </c>
+      <c r="C79" t="s">
+        <v>570</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>497</v>
+        <v>571</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="J79" t="s">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="K79" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="L79" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
@@ -7656,56 +8291,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="X79" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="Y79" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>19034</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>124270</v>
+      </c>
+      <c r="C80" t="s">
+        <v>577</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>503</v>
+        <v>578</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>504</v>
+        <v>579</v>
       </c>
       <c r="J80" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="K80" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="L80" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7727,56 +8366,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="X80" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="Y80" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>19034</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>63593</v>
+      </c>
+      <c r="C81" t="s">
+        <v>585</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="J81" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="K81" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="L81" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -7798,50 +8441,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>19034</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>3949</v>
+      </c>
+      <c r="C82" t="s">
+        <v>593</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>517</v>
+        <v>594</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="J82" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="K82" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="L82" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7865,41 +8512,45 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>19034</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>124271</v>
+      </c>
+      <c r="C83" t="s">
+        <v>600</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="J83" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="K83" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="L83" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
@@ -7928,50 +8579,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>528</v>
+        <v>606</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>19034</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>124272</v>
+      </c>
+      <c r="C84" t="s">
+        <v>607</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>529</v>
+        <v>608</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="J84" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="K84" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="L84" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>534</v>
+        <v>613</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7995,50 +8650,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>535</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>19034</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>124273</v>
+      </c>
+      <c r="C85" t="s">
+        <v>615</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="J85" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
       <c r="K85" t="s">
-        <v>539</v>
+        <v>619</v>
       </c>
       <c r="L85" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -8062,50 +8721,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>19034</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>124274</v>
+      </c>
+      <c r="C86" t="s">
+        <v>622</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>542</v>
+        <v>623</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
       <c r="J86" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="K86" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
       <c r="L86" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8129,41 +8792,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>19034</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>124275</v>
+      </c>
+      <c r="C87" t="s">
+        <v>629</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="J87" t="s">
-        <v>550</v>
+        <v>632</v>
       </c>
       <c r="K87" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="L87" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
@@ -8192,50 +8859,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>19034</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>2537</v>
+      </c>
+      <c r="C88" t="s">
+        <v>634</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>552</v>
+        <v>635</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="J88" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
       <c r="K88" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="L88" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
       <c r="O88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8259,50 +8930,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>19034</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>124276</v>
+      </c>
+      <c r="C89" t="s">
+        <v>642</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="J89" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="K89" t="s">
-        <v>562</v>
+        <v>646</v>
       </c>
       <c r="L89" t="s">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8326,50 +9001,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>19034</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>69983</v>
+      </c>
+      <c r="C90" t="s">
+        <v>649</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="J90" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="K90" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
       <c r="L90" t="s">
-        <v>569</v>
+        <v>654</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -8393,50 +9072,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>19034</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>124277</v>
+      </c>
+      <c r="C91" t="s">
+        <v>657</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>572</v>
+        <v>658</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>573</v>
+        <v>659</v>
       </c>
       <c r="J91" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="K91" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="L91" t="s">
-        <v>576</v>
+        <v>662</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8460,50 +9143,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>576</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>19034</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>124278</v>
+      </c>
+      <c r="C92" t="s">
+        <v>663</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>577</v>
+        <v>664</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>578</v>
+        <v>665</v>
       </c>
       <c r="J92" t="s">
-        <v>579</v>
+        <v>666</v>
       </c>
       <c r="K92" t="s">
-        <v>580</v>
+        <v>667</v>
       </c>
       <c r="L92" t="s">
-        <v>581</v>
+        <v>668</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="O92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8527,50 +9214,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>19034</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>124279</v>
+      </c>
+      <c r="C93" t="s">
+        <v>670</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>583</v>
+        <v>671</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>584</v>
+        <v>672</v>
       </c>
       <c r="J93" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
       <c r="K93" t="s">
-        <v>586</v>
+        <v>674</v>
       </c>
       <c r="L93" t="s">
-        <v>587</v>
+        <v>675</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -8594,50 +9285,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>588</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>19034</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>124280</v>
+      </c>
+      <c r="C94" t="s">
+        <v>677</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>589</v>
+        <v>678</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="J94" t="s">
-        <v>591</v>
+        <v>680</v>
       </c>
       <c r="K94" t="s">
-        <v>592</v>
+        <v>681</v>
       </c>
       <c r="L94" t="s">
-        <v>593</v>
+        <v>682</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>594</v>
+        <v>683</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -8661,41 +9356,45 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>595</v>
+        <v>684</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>19034</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>69754</v>
+      </c>
+      <c r="C95" t="s">
+        <v>685</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>597</v>
+        <v>687</v>
       </c>
       <c r="J95" t="s">
-        <v>598</v>
+        <v>688</v>
       </c>
       <c r="K95" t="s">
-        <v>599</v>
+        <v>689</v>
       </c>
       <c r="L95" t="s">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
@@ -8724,50 +9423,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>600</v>
+        <v>690</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>19034</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C96" t="s">
+        <v>691</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>601</v>
+        <v>692</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>602</v>
+        <v>693</v>
       </c>
       <c r="J96" t="s">
-        <v>603</v>
+        <v>694</v>
       </c>
       <c r="K96" t="s">
-        <v>604</v>
+        <v>695</v>
       </c>
       <c r="L96" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>594</v>
+        <v>683</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -8791,50 +9494,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>606</v>
+        <v>697</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>19034</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>124281</v>
+      </c>
+      <c r="C97" t="s">
+        <v>698</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>608</v>
+        <v>700</v>
       </c>
       <c r="J97" t="s">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="K97" t="s">
-        <v>610</v>
+        <v>702</v>
       </c>
       <c r="L97" t="s">
-        <v>611</v>
+        <v>703</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>594</v>
+        <v>683</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -8858,50 +9565,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>612</v>
+        <v>704</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>19034</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>124282</v>
+      </c>
+      <c r="C98" t="s">
+        <v>705</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>613</v>
+        <v>706</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>614</v>
+        <v>707</v>
       </c>
       <c r="J98" t="s">
-        <v>615</v>
+        <v>708</v>
       </c>
       <c r="K98" t="s">
-        <v>616</v>
+        <v>709</v>
       </c>
       <c r="L98" t="s">
-        <v>617</v>
+        <v>710</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>618</v>
+        <v>711</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -8925,50 +9636,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>619</v>
+        <v>712</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>19034</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>8416</v>
+      </c>
+      <c r="C99" t="s">
+        <v>713</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>620</v>
+        <v>714</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>621</v>
+        <v>715</v>
       </c>
       <c r="J99" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="K99" t="s">
-        <v>623</v>
+        <v>717</v>
       </c>
       <c r="L99" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>625</v>
+        <v>719</v>
       </c>
       <c r="O99" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P99" t="n">
         <v>2</v>
@@ -8992,50 +9707,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>19034</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>124283</v>
+      </c>
+      <c r="C100" t="s">
+        <v>720</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>626</v>
+        <v>721</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
       <c r="J100" t="s">
-        <v>628</v>
+        <v>723</v>
       </c>
       <c r="K100" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
       <c r="L100" t="s">
-        <v>630</v>
+        <v>725</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>631</v>
+        <v>726</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9059,50 +9778,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>630</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>19034</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>124284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>727</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>632</v>
+        <v>728</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="J101" t="s">
-        <v>634</v>
+        <v>730</v>
       </c>
       <c r="K101" t="s">
-        <v>635</v>
+        <v>731</v>
       </c>
       <c r="L101" t="s">
-        <v>636</v>
+        <v>732</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>631</v>
+        <v>726</v>
       </c>
       <c r="O101" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -9122,41 +9845,45 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>636</v>
+        <v>732</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>19034</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>124285</v>
+      </c>
+      <c r="C102" t="s">
+        <v>733</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>637</v>
+        <v>734</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>638</v>
+        <v>735</v>
       </c>
       <c r="J102" t="s">
-        <v>639</v>
+        <v>736</v>
       </c>
       <c r="K102" t="s">
-        <v>640</v>
+        <v>737</v>
       </c>
       <c r="L102" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
@@ -9185,50 +9912,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>19034</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>124286</v>
+      </c>
+      <c r="C103" t="s">
+        <v>739</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="J103" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="K103" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
       <c r="L103" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>647</v>
+        <v>745</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -9248,50 +9979,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>648</v>
+        <v>746</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>19034</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>124287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>747</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>649</v>
+        <v>748</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="J104" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="K104" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="L104" t="s">
-        <v>653</v>
+        <v>752</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>1</v>
@@ -9311,50 +10046,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>19034</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>87111</v>
+      </c>
+      <c r="C105" t="s">
+        <v>755</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>657</v>
+        <v>757</v>
       </c>
       <c r="J105" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="K105" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
       <c r="L105" t="s">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>661</v>
+        <v>761</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -9374,50 +10113,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>660</v>
+        <v>760</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>19034</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>124288</v>
+      </c>
+      <c r="C106" t="s">
+        <v>762</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="J106" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="K106" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="L106" t="s">
-        <v>666</v>
+        <v>767</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="O106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9441,50 +10184,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>668</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>19034</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>124289</v>
+      </c>
+      <c r="C107" t="s">
+        <v>770</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
       <c r="J107" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="K107" t="s">
-        <v>671</v>
+        <v>773</v>
       </c>
       <c r="L107" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -9508,50 +10255,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>674</v>
+        <v>776</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>19034</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>124290</v>
+      </c>
+      <c r="C108" t="s">
+        <v>777</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>676</v>
+        <v>779</v>
       </c>
       <c r="J108" t="s">
-        <v>677</v>
+        <v>780</v>
       </c>
       <c r="K108" t="s">
-        <v>678</v>
+        <v>781</v>
       </c>
       <c r="L108" t="s">
-        <v>679</v>
+        <v>782</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>680</v>
+        <v>783</v>
       </c>
       <c r="O108" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="s"/>
@@ -9565,50 +10316,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>681</v>
+        <v>784</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>19034</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>124291</v>
+      </c>
+      <c r="C109" t="s">
+        <v>785</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>682</v>
+        <v>786</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>683</v>
+        <v>787</v>
       </c>
       <c r="J109" t="s">
-        <v>684</v>
+        <v>788</v>
       </c>
       <c r="K109" t="s">
-        <v>685</v>
+        <v>789</v>
       </c>
       <c r="L109" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>687</v>
+        <v>791</v>
       </c>
       <c r="O109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9632,50 +10387,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>19034</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>124292</v>
+      </c>
+      <c r="C110" t="s">
+        <v>792</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>688</v>
+        <v>793</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>689</v>
+        <v>794</v>
       </c>
       <c r="J110" t="s">
-        <v>690</v>
+        <v>795</v>
       </c>
       <c r="K110" t="s">
-        <v>691</v>
+        <v>796</v>
       </c>
       <c r="L110" t="s">
-        <v>692</v>
+        <v>797</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>693</v>
+        <v>798</v>
       </c>
       <c r="O110" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P110" t="n">
         <v>2</v>
@@ -9697,47 +10456,51 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>694</v>
+        <v>799</v>
       </c>
       <c r="X110" t="s">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="Y110" t="s">
-        <v>696</v>
+        <v>801</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>19034</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>124293</v>
+      </c>
+      <c r="C111" t="s">
+        <v>802</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>697</v>
+        <v>803</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>698</v>
+        <v>804</v>
       </c>
       <c r="J111" t="s">
-        <v>699</v>
+        <v>805</v>
       </c>
       <c r="K111" t="s">
-        <v>700</v>
+        <v>806</v>
       </c>
       <c r="L111" t="s">
-        <v>701</v>
+        <v>807</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
@@ -9764,56 +10527,60 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>694</v>
+        <v>799</v>
       </c>
       <c r="X111" t="s">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="Y111" t="s">
-        <v>702</v>
+        <v>808</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>19034</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>124294</v>
+      </c>
+      <c r="C112" t="s">
+        <v>809</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>703</v>
+        <v>810</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>704</v>
+        <v>811</v>
       </c>
       <c r="J112" t="s">
-        <v>705</v>
+        <v>812</v>
       </c>
       <c r="K112" t="s">
-        <v>706</v>
+        <v>813</v>
       </c>
       <c r="L112" t="s">
-        <v>707</v>
+        <v>814</v>
       </c>
       <c r="M112" t="n">
         <v>2</v>
       </c>
       <c r="N112" t="s">
-        <v>708</v>
+        <v>815</v>
       </c>
       <c r="O112" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -9837,50 +10604,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>709</v>
+        <v>816</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>19034</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>124295</v>
+      </c>
+      <c r="C113" t="s">
+        <v>817</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>710</v>
+        <v>818</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>711</v>
+        <v>819</v>
       </c>
       <c r="J113" t="s">
-        <v>712</v>
+        <v>820</v>
       </c>
       <c r="K113" t="s">
-        <v>713</v>
+        <v>821</v>
       </c>
       <c r="L113" t="s">
-        <v>714</v>
+        <v>822</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>708</v>
+        <v>815</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -9904,50 +10675,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>715</v>
+        <v>823</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>19034</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>124296</v>
+      </c>
+      <c r="C114" t="s">
+        <v>824</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>716</v>
+        <v>825</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>717</v>
+        <v>826</v>
       </c>
       <c r="J114" t="s">
-        <v>718</v>
+        <v>827</v>
       </c>
       <c r="K114" t="s">
-        <v>592</v>
+        <v>681</v>
       </c>
       <c r="L114" t="s">
-        <v>719</v>
+        <v>828</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>720</v>
+        <v>829</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>2</v>
@@ -9971,50 +10746,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>721</v>
+        <v>830</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>19034</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>124297</v>
+      </c>
+      <c r="C115" t="s">
+        <v>831</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>722</v>
+        <v>832</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>723</v>
+        <v>833</v>
       </c>
       <c r="J115" t="s">
-        <v>724</v>
+        <v>834</v>
       </c>
       <c r="K115" t="s">
-        <v>725</v>
+        <v>835</v>
       </c>
       <c r="L115" t="s">
-        <v>726</v>
+        <v>836</v>
       </c>
       <c r="M115" t="n">
         <v>2</v>
       </c>
       <c r="N115" t="s">
-        <v>727</v>
+        <v>837</v>
       </c>
       <c r="O115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P115" t="n">
         <v>2</v>
@@ -10038,50 +10817,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>728</v>
+        <v>838</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>19034</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>124298</v>
+      </c>
+      <c r="C116" t="s">
+        <v>839</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>729</v>
+        <v>840</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>730</v>
+        <v>841</v>
       </c>
       <c r="J116" t="s">
-        <v>731</v>
+        <v>842</v>
       </c>
       <c r="K116" t="s">
-        <v>732</v>
+        <v>843</v>
       </c>
       <c r="L116" t="s">
-        <v>733</v>
+        <v>844</v>
       </c>
       <c r="M116" t="n">
         <v>2</v>
       </c>
       <c r="N116" t="s">
-        <v>734</v>
+        <v>845</v>
       </c>
       <c r="O116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P116" t="n">
         <v>3</v>
@@ -10105,50 +10888,54 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>735</v>
+        <v>846</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>19034</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>124299</v>
+      </c>
+      <c r="C117" t="s">
+        <v>847</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>736</v>
+        <v>848</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>737</v>
+        <v>849</v>
       </c>
       <c r="J117" t="s">
-        <v>738</v>
+        <v>850</v>
       </c>
       <c r="K117" t="s">
-        <v>739</v>
+        <v>851</v>
       </c>
       <c r="L117" t="s">
-        <v>740</v>
+        <v>852</v>
       </c>
       <c r="M117" t="n">
         <v>2</v>
       </c>
       <c r="N117" t="s">
-        <v>734</v>
+        <v>845</v>
       </c>
       <c r="O117" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -10172,50 +10959,54 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>741</v>
+        <v>853</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>19034</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>124300</v>
+      </c>
+      <c r="C118" t="s">
+        <v>854</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>742</v>
+        <v>855</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>743</v>
+        <v>856</v>
       </c>
       <c r="J118" t="s">
-        <v>744</v>
+        <v>857</v>
       </c>
       <c r="K118" t="s">
-        <v>745</v>
+        <v>858</v>
       </c>
       <c r="L118" t="s">
-        <v>746</v>
+        <v>859</v>
       </c>
       <c r="M118" t="n">
         <v>2</v>
       </c>
       <c r="N118" t="s">
-        <v>747</v>
+        <v>860</v>
       </c>
       <c r="O118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P118" t="n">
         <v>3</v>
@@ -10239,50 +11030,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>746</v>
+        <v>859</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>19034</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>124301</v>
+      </c>
+      <c r="C119" t="s">
+        <v>861</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>748</v>
+        <v>862</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>749</v>
+        <v>863</v>
       </c>
       <c r="J119" t="s">
-        <v>750</v>
+        <v>864</v>
       </c>
       <c r="K119" t="s">
-        <v>751</v>
+        <v>865</v>
       </c>
       <c r="L119" t="s">
-        <v>752</v>
+        <v>866</v>
       </c>
       <c r="M119" t="n">
         <v>2</v>
       </c>
       <c r="N119" t="s">
-        <v>753</v>
+        <v>867</v>
       </c>
       <c r="O119" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P119" t="n">
         <v>3</v>
@@ -10306,7 +11101,7 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>754</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_67.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_67.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="758">
   <si>
     <t>STR#</t>
   </si>
@@ -150,10 +150,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>11juliomad</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r365840579-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -183,9 +180,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>teresa I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r356907434-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>KBreezyMofo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r351640081-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Cerra G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r333776034-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -252,9 +240,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Eileen F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r333579576-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>In my opinion the room was inadequate to qualify for a suite. Microwave had no swivel dish inside so could not be used. No plates or utensils to use in the dinette area. Shower head flooded bathroom leak at top of shower head went all over. There was no Senior discount. Presentation of pool was not welcoming. It was dirty and full of leaves. The hot tub was not hot!! The breakfast selection was not as plentiful as we had hoped. No yogurt or eggs waffle iron was hardly operable, minimal fruit and what fruit was there was over ripe. The staff and manager were very nice and accommodating when asked. They were the main reason we stayed our entire 5 nights. The air conditioning did not reach the 2nd room so we froze in main area and boiled in the bedroom. Be aware do not use hotel towels to remove makeup or you may be charged.More</t>
   </si>
   <si>
-    <t>wackyweavers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r330685348-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -291,9 +273,6 @@
     <t xml:space="preserve">I had multiple people arriving different days and arrival times. When I went to the office to see if I could make the arrivals as smooth as possible, Jasmine who was working reception, went over and beyond in helping us get settled. She impressed me with her gentle approach yet asking perfect clarifying questions. She remained calm and patient and was able to work with me. I highly recommend this hotel due to Jasmine's  professionalism and character. Thank you Econo lodge! </t>
   </si>
   <si>
-    <t>Mark V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r325906449-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -312,9 +291,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>Jazmine V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r325238851-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -330,9 +306,6 @@
     <t>It was a great hotel room. It was a good price for what we got, and in fact we received a little more than what we expected and to top it off great view of the stadium and not to mention we were within walking distance of the stadium. staff members are very helpful and patient miss jasmine the front reception was awsome. i strongly recommend this establishment and will definitely be returning for future stays. I enjoyed my stay at Econo Lodge.</t>
   </si>
   <si>
-    <t>Karen239</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r323775089-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -351,9 +324,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Travelingrid</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r322282262-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -372,9 +342,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Alandra S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r322205814-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -390,9 +357,6 @@
     <t>Staff were polite and Attentive. Really loved Jasmine. She put a smile on my face. Room was clean and smelled nice. Recommend continental breakfast. Close to theme parks. As well as cowboys stadium and rangers ballpark.</t>
   </si>
   <si>
-    <t>Sheneia Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r321958178-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -405,9 +369,6 @@
     <t xml:space="preserve">I just love this hotel I visit often I really love the staff especially jasmine and kandy they always make my stay a great keep up the great work I look forward to always comin to stay let's not forget housekeeping they do a great job as well </t>
   </si>
   <si>
-    <t>zetagirl2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r320798416-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -426,9 +387,6 @@
     <t>The room was pleasant smelling, that is a big plus.  The microwave and fridge were clean and working, another big plus.  The bed was comfortable and my only complaint there was the bed-skirt was nasty as if it hadn't been cleaned in quite some time.  The room was clean overall but the tub has permanent stains and a ripple in the permanent mat.  The chair in the room had multiple stains which caused me not to sit on it.  For the money it was fine and I booked it for a week after my initial stay of 4 days so it definitely has not been a bad experience.  The location off a major highway, can't be beat, right near major attractions - Six Flags, Globe Life Ball Park, AT&amp;T stadium, Wet n' Wild water park, DFW Airport, Lone Star race track, Ripley's Wax Museum - all these attractions and shopping venues are within a 1-10 mile radius.  The TV's were outdated and not enough good channels, this could be improved upon as well.More</t>
   </si>
   <si>
-    <t>Sgarcia7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r320182942-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -444,9 +402,6 @@
     <t>Worst motel I have ever stayed at!! Sheets had hair and bugs, no comforter, blanket had cigarette holes when it was a non-smoking room. I went and asked for more sheets, staff member said they did not have any. Mold around bathtub, no hot water had to take cold shower! Please save your money go somewhere else.</t>
   </si>
   <si>
-    <t>Jan B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r318633156-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -462,9 +417,6 @@
     <t>Candy and the staff at the Econo Lodge couldn't have been more helpful.  Really nice.  The hotel itself needs some help.  There was a cockroach in our room and there was some kind of biting bug in our beds.  The pool and hot tub were not cleaned appropriately so by the end of our stay (which was four days), there was a light green algae tinge to the water.  The hotel was so close to the stadium so it fit our needs for our trip.  We had read reviews about the hotel that were not complimentary but we booked it anyway.</t>
   </si>
   <si>
-    <t>Toby D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r318001298-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -480,9 +432,6 @@
     <t>WE HAD A BLAST AT THE ECONO LODGE!!  Candy made everything perfect for our stay.  Pick up and drop off's to the airport and shuttled us around, even to the game at AT&amp;T Stadium.  Friendly and made us feel welcomed at all times.  Candy was up for accommodating all of our needs throughout our stay!!  Thanks so much!! ~The Fab5</t>
   </si>
   <si>
-    <t>alaguirre</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r316740330-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -501,9 +450,6 @@
     <t>It was about what we expected. The rooms were set up very strangly. We had a main living area with small kitchen and nothing in it but appliances. There was not a tv on the tv stand in the "living space", only in the bedrooms and ,no way to remove them(we tried). Only one sleeping room had an a.c the other was in the living room so it got very hot in one room. The a.c. sucked and only worked when set on low fan.. The other only had buttons with no words next to them to figure out what the heck setting it was on. Was screwing around with it half asleep when I woke up in a "68 degree" hot room. So I turned it to 63 and it got freakin cold. There was a roach on the floor running around right before bed. Gross!!Bed was not bad,shower was fine with good pressure, and we made some descent coffee in the morning. Then paid 5 bucks each for them to shuttle us to the game and then we walked back(long,hot walk for us, should just take a cab). Breakfast was mediocre. I had a bagel with cream cheese and juice. They had a waffle maker that wasn't beeping when ready(we had to guess). They also had cereal and some sweet bread that were delicious. Overall not too bad for last minute hotel for the game for less than...It was about what we expected. The rooms were set up very strangly. We had a main living area with small kitchen and nothing in it but appliances. There was not a tv on the tv stand in the "living space", only in the bedrooms and ,no way to remove them(we tried). Only one sleeping room had an a.c the other was in the living room so it got very hot in one room. The a.c. sucked and only worked when set on low fan.. The other only had buttons with no words next to them to figure out what the heck setting it was on. Was screwing around with it half asleep when I woke up in a "68 degree" hot room. So I turned it to 63 and it got freakin cold. There was a roach on the floor running around right before bed. Gross!!Bed was not bad,shower was fine with good pressure, and we made some descent coffee in the morning. Then paid 5 bucks each for them to shuttle us to the game and then we walked back(long,hot walk for us, should just take a cab). Breakfast was mediocre. I had a bagel with cream cheese and juice. They had a waffle maker that wasn't beeping when ready(we had to guess). They also had cereal and some sweet bread that were delicious. Overall not too bad for last minute hotel for the game for less than 200 bucks and shuttle to game(parking is ridiculously expensive for the games).If your not too picky and easy going and not expecting a four star hotel this place is ok. Could use some major updating but you can tell they are trying. I'd probably stay again.More</t>
   </si>
   <si>
-    <t>rvfdchief923</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r314630231-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -528,9 +474,6 @@
     <t>i made reservation with their main reservation line i asked if they had 24hr shuttle from DFW airport the lady said yes,so i booked it she also said they were only 3.2 miles from airport. so i called hotel next day they had my reservation an i asked again about shuttle she said we run all the time just call three hours in advance,an told her my plane would be in at 10:10pm she said ok.. So that night of my stay i called three hours before plane came in,the lady then told me that their shuttle stopped running at 10:00pm i told them a few choice words an said well you r only 3.2miles away so i will get a taxi, she said No they were 20miles away. so still waiting on my refund of $87.00 an their dumb moron manager said since i was a no sho she cant refund anything.but the whole conversations that i had with all of them was recorded,an have turned over to the choice hotels chain.as well as morgan law firm,an sffma goverment association  for firefighters. More</t>
   </si>
   <si>
-    <t>Kaytrana W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r314284936-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -546,9 +489,6 @@
     <t>the staff was friendly, the room was clean, the price was great! I was very pleased with the level of care given at the econo lodge inn &amp; suites. The hotel staff gave me a level of care that was excellent. I will be back.</t>
   </si>
   <si>
-    <t>Cynthia F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r314013373-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -567,9 +507,6 @@
     <t>Came to watch our football team play. Great front view of AT&amp;T stadium.  Location was great. BUT let me start my saying its one of the worst hotels we have ever stayed in. So out dated, dirty blankets, roaches, mold around the shower, couldn't sit in the little sofa it was too sticky we had to use a sheet to sit on it. Door keys did not work had to take them several times to the front desk to reset them. Wall fan did not work. The topping of our stay was when we found condom wrappers under the bed and a big bigger on the wall by the kitchen sink..thia is a SIGN that your custodian staff does not clean!!!  Your hotel is not up to code, or  hotel regulations, its not a safe place for anyone to stay.  The price we paid was ridiculous.  I would never recommend anyone to stay at your hotel.More</t>
   </si>
   <si>
-    <t>Larry M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r313654952-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -585,9 +522,6 @@
     <t>The Room is not bad. Its older hotel and the rooms need updated. Good Shampoo of carpet and couch. did have a kitchen in the room, Very low end. Lobby is nice and staff is friendly I checked in with (Melissa). This hotel is very close to everything. Every good location!</t>
   </si>
   <si>
-    <t>tayl0r27</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r312515206-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -606,9 +540,6 @@
     <t>False advertisement on the shuttle service because the guy had no clue what I was talking about when we wanted to go to hurricane harbor. Both of the two rooms I have stayed in had an odor, and cold water. We paid the $25 the next morning actually the same morning we were checking out for a dog that was in our room for 40 minutes. My brother-n-law had just dropped her off so we could take her home with us. Well I guess the lady we paid must have left or her shift was over, and the manager charged our card $150 for our dog. Still haven't been paid back for it either.More</t>
   </si>
   <si>
-    <t>davyd83</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r310754199-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -624,9 +555,6 @@
     <t>This property has recently come under new management. Yes, it has a few bumps and bruises and some things that need fixing. But the room was very clean and the staff was incredibly friendly. One thing to note, however. The website says they have a complimentary airport shuttle. This does not operate on Sunday. That being said, the hotel met or even exceeded my expectations for the price I paid and its location. I would stay here again.</t>
   </si>
   <si>
-    <t>Amy C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r303597730-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -645,9 +573,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>maribel a</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r292275626-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -669,16 +594,22 @@
     <t>I stay here since March 19th. I have stayed in so many hotels but this one is by far the worst. First of all the customer service is horrible and the manager tends to ignore any complaints. I had my daughters dog stay with me for a couple days so I gave the pet deposit and everything was fine till the manager came to my room and told me I had to get rid of the dog or move out because dogs were not allowed, when says pets allowed with a deposit. I was upset but I got rid of him like his said. After that I noticed that whenever we would leave and noone would be home, when I would get home the manager would come search my room, stating that the housekeeper saw the dog and each time, again he never saw the dog there. The whole time I stayed there not once did housekeeper clean my room, so they had no business in my room. Thru out the whole time I kept getting moved rooms till the last two is when I had enough and moved out because they had bedbugs and even thou I told the manager he didn't care so I moved out. I ended up owing a balance so he locked me out and didn't let me take my belongings till I paid, so I did. When I got to the room my room...I stay here since March 19th. I have stayed in so many hotels but this one is by far the worst. First of all the customer service is horrible and the manager tends to ignore any complaints. I had my daughters dog stay with me for a couple days so I gave the pet deposit and everything was fine till the manager came to my room and told me I had to get rid of the dog or move out because dogs were not allowed, when says pets allowed with a deposit. I was upset but I got rid of him like his said. After that I noticed that whenever we would leave and noone would be home, when I would get home the manager would come search my room, stating that the housekeeper saw the dog and each time, again he never saw the dog there. The whole time I stayed there not once did housekeeper clean my room, so they had no business in my room. Thru out the whole time I kept getting moved rooms till the last two is when I had enough and moved out because they had bedbugs and even thou I told the manager he didn't care so I moved out. I ended up owing a balance so he locked me out and didn't let me take my belongings till I paid, so I did. When I got to the room my room had been flip up side down and my stuff had been searched and some of my stuff was missing. There was no forced entry or unlocked windows so the only people with a key were people from the office. Even thou I complained to the office the manager again didn't care so im filing a police report. Please do yourself a favor and do not stay here.More</t>
   </si>
   <si>
-    <t>Stephanie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r286685417-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
     <t>286685417</t>
   </si>
   <si>
-    <t>July 8, 2015</t>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Don't waist your time, stay somewhere else!!!</t>
+  </si>
+  <si>
+    <t>First room I was given wasn't clean and appeared that people were still staying in the room. The second room I was given incorrect keys to open door. Third trip to the desk to get correct keys, the supervisor or manager went to "show you how to open the door" after he walked in he turned me around immediately. The fourth room, there was hunks of food in the freezer, toothpaste on the mirror and pubic hair in the shower. The complementary pen the hotel provides you had a chewed pen cap! None of the drawers were clean, some didn't even open. The fifth room was directly in front of the pool where children are screaming, I am staying at the hotel for a advanced school program and when I asked to be moved they waited two full days saying that the housekeepers left early both day. There are NO pots and pans. NOTHING to eat from, no plates, cups. NOTHING! So the kitchen your paying for is pretty much unsualble. Go the the dollar store!Place is a joke! Rooms are damp and smell. Gross!MoreShow less</t>
+  </si>
+  <si>
+    <t>First room I was given wasn't clean and appeared that people were still staying in the room. The second room I was given incorrect keys to open door. Third trip to the desk to get correct keys, the supervisor or manager went to "show you how to open the door" after he walked in he turned me around immediately. The fourth room, there was hunks of food in the freezer, toothpaste on the mirror and pubic hair in the shower. The complementary pen the hotel provides you had a chewed pen cap! None of the drawers were clean, some didn't even open. The fifth room was directly in front of the pool where children are screaming, I am staying at the hotel for a advanced school program and when I asked to be moved they waited two full days saying that the housekeepers left early both day. There are NO pots and pans. NOTHING to eat from, no plates, cups. NOTHING! So the kitchen your paying for is pretty much unsualble. Go the the dollar store!Place is a joke! Rooms are damp and smell. Gross!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r286237421-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -699,9 +630,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>burnsfamily123</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r286080329-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -714,9 +642,6 @@
     <t>My family and I have stayed at this motel numerous times over the years. It has slowly gone done hill. This will be our last time staying here. When we arrived (late at night) our beds weren't even made. The room and the bathroom weren't clean, the carpet was disgusting.  The breakfast wasn't worth the walk. It was terrible. There are shady people hanging outside. I was scared to walk outside alone. On a positive note it is very close to Six Flags and Hurricane Harbor, but I would spend a few extra bucks and go somewhere else.</t>
   </si>
   <si>
-    <t>Charles J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r281715907-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -735,9 +660,6 @@
     <t>I know you get what you pay for but this place should give you money to stay there. I am only giving this place two stars due to how close they are to major attractions in Arlington and for the trolley service they offer to the attractions. Me and my family stayed there for 5 night and the minute we walked into the door we should have run. First off the first room we were given still had someone in it. I went back to the office and the desk clerk gave me another room, which when we went in the A/C didn't work. I went back to the office and the desk clerk tells me to open a window and he would have someone fix it in the morning. After arguing with him for 20 min he finally gave us another room which was right next to the first one!!! When we finally got into this room the TV cable line was broken which I had to fix myself and then I pulled the extra blanket out of the closet for my son to sleep on the pull out couch, it had rips and tears in it and looked like it had been burnt by someone smoking which should be impossible because its a non smoking hotel. I went down and requested a new blanket which I was told would be delivered in the morning by the maid. FYI...I know you get what you pay for but this place should give you money to stay there. I am only giving this place two stars due to how close they are to major attractions in Arlington and for the trolley service they offer to the attractions. Me and my family stayed there for 5 night and the minute we walked into the door we should have run. First off the first room we were given still had someone in it. I went back to the office and the desk clerk gave me another room, which when we went in the A/C didn't work. I went back to the office and the desk clerk tells me to open a window and he would have someone fix it in the morning. After arguing with him for 20 min he finally gave us another room which was right next to the first one!!! When we finally got into this room the TV cable line was broken which I had to fix myself and then I pulled the extra blanket out of the closet for my son to sleep on the pull out couch, it had rips and tears in it and looked like it had been burnt by someone smoking which should be impossible because its a non smoking hotel. I went down and requested a new blanket which I was told would be delivered in the morning by the maid. FYI the maid never came in the 5 days we were there, also never saw the guy to fix the cable line. I asked ever night but was told the same thing. We will never every stay here again.More</t>
   </si>
   <si>
-    <t>KimC007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r280003178-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -753,9 +675,6 @@
     <t>The staff was very friendly.  The beds and bathrooms were clean.  There is an IHOP within walking distance.  The hotel provided transportation to the stadium for a small fee.  Daniel our driver was great !!</t>
   </si>
   <si>
-    <t>Victor S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r274271241-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -774,9 +693,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Yantisguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r274214753-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -792,9 +708,6 @@
     <t>Just stayed here for three nights and a when we walked through the door the first time our immediate instincts were to run. Only trouble was there were no other hotels with openings in the immediate area and due to the event we were there for we had to deal with this. The carpets were filthy with stains, mildew smell throughout the room, kitchen was dirty and out-dated and just filthy. Bathroom had a broken toilet seat and burn marks on it. Even the countertop had burns in it and the side of it were falling off. The one tiny dresser they had was falling apart on the bottom and the drawer could not be used. Left out clothes in the suitcases. Bath towels had holes in them and the last ones came with paint on them like they had been used for painter rags. Wifi never worked either. Asked for extra pillows and after waiting two hours we called back only to get told they had no extras. Just feel we paid for something we were totally misled by on the photos they presented online via Expedia and we should have at least been granted a refund for such a disgusting place. The lobby and cafteria area was the only thing there that appeared to look like the photos. The ones of the rooms we have no idea where they came from but believe us it was not from...Just stayed here for three nights and a when we walked through the door the first time our immediate instincts were to run. Only trouble was there were no other hotels with openings in the immediate area and due to the event we were there for we had to deal with this. The carpets were filthy with stains, mildew smell throughout the room, kitchen was dirty and out-dated and just filthy. Bathroom had a broken toilet seat and burn marks on it. Even the countertop had burns in it and the side of it were falling off. The one tiny dresser they had was falling apart on the bottom and the drawer could not be used. Left out clothes in the suitcases. Bath towels had holes in them and the last ones came with paint on them like they had been used for painter rags. Wifi never worked either. Asked for extra pillows and after waiting two hours we called back only to get told they had no extras. Just feel we paid for something we were totally misled by on the photos they presented online via Expedia and we should have at least been granted a refund for such a disgusting place. The lobby and cafteria area was the only thing there that appeared to look like the photos. The ones of the rooms we have no idea where they came from but believe us it was not from this hotel. We even had to take the bedspread to put over the sofa to feel comfortable enough to sit on it and then it was so old that you basically sunk so far in it was very difficult to get out of and it was ripped too. Also the maid service only cleaned up in the bathroom and made a bed, Never touched the floors to vacuumn or even wipe down countertops the entire time we were there,  This morning when we left very early to get away there was a large half dead cockroach on the floor in the kitchen area.More</t>
   </si>
   <si>
-    <t>11camaro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r273858202-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -813,9 +726,6 @@
     <t>Gonna try to put this in short version. Called hotel before booking because I seen they have on their website free shuttle to anywhere &amp; wanted to ask if they are able to pick us from the concert afterwards. Was told we can take you there, but on the way back you have to pay $5 for ride back. Well come time for concert had to pay $5 to get to concert &amp; no shuttle available for return. Was told it was only 1 mile to walk back. My husband has had 3 back &amp; neck surgeries. So guess what this wasnt good for him at all. 1st impression for this hotel was yuck for me, nasty &amp; moldy looking. Checked in at 2 &amp; was told to come back at 3 where room could be ready. Keep in mind concert started at 5pm. get back about 310 &amp; still being told room wasnt cleaned yet. told guy concert starts at 5 &amp; we needed to get ready. he called &amp; told them to get it cleaned got in room about 345. Had to rush to shower &amp; get ready to leave by 430. Had not one towel or wash clothes at all. They left 2 bottles of lotion for shampoo. Husband asked housekeeper for some towels &amp; she told him there was no more &amp; she speaked no english. Called desk to bring us at least the towels. never...Gonna try to put this in short version. Called hotel before booking because I seen they have on their website free shuttle to anywhere &amp; wanted to ask if they are able to pick us from the concert afterwards. Was told we can take you there, but on the way back you have to pay $5 for ride back. Well come time for concert had to pay $5 to get to concert &amp; no shuttle available for return. Was told it was only 1 mile to walk back. My husband has had 3 back &amp; neck surgeries. So guess what this wasnt good for him at all. 1st impression for this hotel was yuck for me, nasty &amp; moldy looking. Checked in at 2 &amp; was told to come back at 3 where room could be ready. Keep in mind concert started at 5pm. get back about 310 &amp; still being told room wasnt cleaned yet. told guy concert starts at 5 &amp; we needed to get ready. he called &amp; told them to get it cleaned got in room about 345. Had to rush to shower &amp; get ready to leave by 430. Had not one towel or wash clothes at all. They left 2 bottles of lotion for shampoo. Husband asked housekeeper for some towels &amp; she told him there was no more &amp; she speaked no english. Called desk to bring us at least the towels. never seen them until we returned from concert. Notice one towel had black all on it. Had to use my t-shirt to dry off with. Shower was worn out looking, roof of building had a large area of shingle ripped off. Flooring felt damp &amp; sticky, wore shoes at all times. Neither TV remote worked. House keeping told us there was place to get ice. Didnt see any signage about vending area's. I took several pictures &amp; plan on sending the to the corp office. We normally do not stay in a place that looks like this. But we wanted something with a shuttle &amp; close to the concert. Someone needs to put uin about 3-4 new hotels in the land next to them. We spent $148 on this room &amp; feel it was a total ripe off cause I put in down to a Motel 6 or lower grade. This place was terrible. Oh too let me mention we had people fighting up until about 130am not far from us. We didnt hear them any longer after we heard some sirens that were close. Not sure if it was for them. I DO NOT RECOMMEND THIS PLACE AT ALL!!More</t>
   </si>
   <si>
-    <t>Shamry G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r270713182-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -834,9 +744,6 @@
     <t>Ok, first off, the woman over charged me and my brother for a room. We were told it was on the 3rd floor. We drive to the back where room is located, and there was a group of like 12 guys drunk and smoking pot by the stairs and would not move. Broken glass was all in the parking lot. We get to our room, and there was a man hiding in it, he was also drinking. At first he held the door shut so we could not get in!! Alarmed and appalled at this point i checked to look at the room number assigned. it was right, but there was a man in there. And on top of the strange drunk man in the room, there was nothing in it at all. the whole room was gutted out. the bed and couch were lying on the ground. The building walking up to the room smelled like urine. DO NOT STAY HERE!!! IT IS NOT SAFE AT ALL!!!!More</t>
   </si>
   <si>
-    <t>Greg W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r268739125-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -855,9 +762,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Terri Q</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r267733537-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -873,9 +777,6 @@
     <t>I've been in several hotels for the past month and I must admit, this is one of the best. Upon arriving, I felt very welcome after battling this Texas rain (THANKS AGAIN MARTHA), my room was ready, very clean and stocked with clean linens. My room had a full size stove and fridge so I was able to cook a home cooked meal (what a break from road food). There are several hotel options in this area. Let me say that the Econo Lodge has moved to the top of my list.</t>
   </si>
   <si>
-    <t>Irene B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r257896815-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -897,9 +798,6 @@
     <t>There were no towels. We were told to wait until the morning when housekeeping came in to their shift. MAYBE they would have towels by then. Front desk had no sense of urgency or customer service.  House Keeping did come and left 3 wash clothes no Bath towels. Had to go and try and communicate to her we needed large towels.  She finally understood and handed me some. Which made me think, she had them and didn’t think to leave us any??  Roaches all over the place. It was 3 of us and they demanded we all leave a credit card. Even if the rooms were charged only on one.  After these reviews will keep a close eye on my statements.  How are they licensed?  Why have they been allowed to continue to operate under such conditions.  Not only bad but dangerous with the amount of roaches in the roomsMore</t>
   </si>
   <si>
-    <t>Pantsaggin416</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r254265178-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -916,9 +814,6 @@
   </si>
   <si>
     <t>February 2015</t>
-  </si>
-  <si>
-    <t>Unique D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r249774376-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -944,9 +839,6 @@
 We have been here since November. The manager said, that the owner said, that the housekeeping staff said, that there was a bunch of traffic coming in and out of our room...Like I said, we are residents here and my child is here....I do not have anyone here we don't know. My boyfriend and I work mostly from home. We have paid them over $2700 since November to stay here and they give us less than 24 hours notice to be out...for a bogus, untrue reason...and after asking us to move rooms just...After a 3 - month extended stay at this hotel, my boyfriend, my son and I were suddenly and unjustly kicked out on of the hotel by the owner after I complained to Choice Hotels corp guest relations about $162 in unauthorized fraudulent charges occurring on my card from this hotel. I told them 2 days before, the front desk called and asked us to switch rooms unexpectedly (they said it was due to renovations). We spent our whole day off from work, moving and after one night in the new room, my son and I were broken out in bumps (pictures attached). I talked to the manager about it and they said they would come the next day to fumigate....the next day came and the manager comes and says we have to leave....that day! I was getting ready to take my son to his basketball game! We have been here since November. The manager said, that the owner said, that the housekeeping staff said, that there was a bunch of traffic coming in and out of our room...Like I said, we are residents here and my child is here....I do not have anyone here we don't know. My boyfriend and I work mostly from home. We have paid them over $2700 since November to stay here and they give us less than 24 hours notice to be out...for a bogus, untrue reason...and after asking us to move rooms just 2 days before!!!In the time we have been here, we have had a mouse in our room, broken appliances and dealt with rude breakfast housekeeping staff (we were told long-term guests could no longer eat breakfast) plus the fraudulent charges made me have to get a new debit card....which I'm still waiting on...while being kicked out..I hadn't really made a fuss to corporate until the third unauthorized charge and how interesting it is the next day the owner shows up and has the manager kick us out...The people who own this place have no heart, and definitely have no concept HOSPITALITY. They have pretty much put us at risk of homelessness, especially since I have no debit card thanks to their unauthorized charges. If you want to stay here and give your money to the type of people who would do this to a young family, and get ate on by whatever may be living in the mattress and carpet and take the risk of waking up to a surprise debit taken out your bank account by the hotel...then by all means this is the perfect place to stay....you may want to PAY CASH!More</t>
   </si>
   <si>
-    <t>Jana B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r245650995-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -968,9 +860,6 @@
     <t>I booked this hotel due to its proximity to AT&amp;T Stadium since I was attending the Cowboys/Colts game. The free hotel shuttle picked me up from DFW, I arrived at the hotel around 1030am and my room wasn't ready yet, so I waited in the lobby. While I waited, I looked up the hotel's reviews on Trip Advisor (backwards, I know) and was petrified to actually get to a guest room based on what I was reading. Due to my plans changing abruptly, I ended up not checking in until the second night of my reservation and the front desk agent, Melissa, was great in helping me work things out. She knew I was attending the game, so we discussed and I booked myself the $5 shuttle ride to the stadium. They only take you, they don't bring you back - which was ok because it's not that far of a walk and there is plenty of pedestrian traffic, so no worries about walking alone (like I was). The next day, I returned to the hotel and checked in prior to leaving for the game. The facilities were clean, a bit outdated and the desk chair seemed like it would break upon any weight being placed on it. They could stand to resurface the tub, deep steam clean/shampoo the carpet and recliner chair, but it was ok for one night. My major issue was being across from the ice maker...talk...I booked this hotel due to its proximity to AT&amp;T Stadium since I was attending the Cowboys/Colts game. The free hotel shuttle picked me up from DFW, I arrived at the hotel around 1030am and my room wasn't ready yet, so I waited in the lobby. While I waited, I looked up the hotel's reviews on Trip Advisor (backwards, I know) and was petrified to actually get to a guest room based on what I was reading. Due to my plans changing abruptly, I ended up not checking in until the second night of my reservation and the front desk agent, Melissa, was great in helping me work things out. She knew I was attending the game, so we discussed and I booked myself the $5 shuttle ride to the stadium. They only take you, they don't bring you back - which was ok because it's not that far of a walk and there is plenty of pedestrian traffic, so no worries about walking alone (like I was). The next day, I returned to the hotel and checked in prior to leaving for the game. The facilities were clean, a bit outdated and the desk chair seemed like it would break upon any weight being placed on it. They could stand to resurface the tub, deep steam clean/shampoo the carpet and recliner chair, but it was ok for one night. My major issue was being across from the ice maker...talk about noisy! Also, I'm not used to staying in places where people come and go all night (that I know of), so the bottom floor, near the parking lot, the ice maker and with luggage rolling past the door at all hours was a bit much for me, but I was so tired that I slept through most of that. The overhead noise was bad the next morning, so I suggest staying in a higher floor. The shuttle driver, Daniel, was great! He offered to take me wherever I needed to go prior to getting to the hotel (upon arrival in Dallas) and also while I was there. I did arrange a pick-up with him post-game, which he was happy to accommodate...as long as you tipped him! He ended up being like a personal driver! Overall, I'm sure people have had worse experiences; however, for one night, it was ok. Safe travels!More</t>
   </si>
   <si>
-    <t>Bill S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r242260100-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -989,9 +878,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Bobbie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r238952078-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1008,9 +894,6 @@
   </si>
   <si>
     <t>We stayed here for our recent trip to six flags, we arrived late, was told there was no rooms so I booked the room through hotels.com where of course there was a room, once inside he said it had booked us in the wrong room so he had to move us to a suite (upsale). 3rd floor 3 tired kids, no elevator to their back 3rd building, need I say more! Now all of that was deal able I'm pretty easy going....the rest is deal breakers...beds were cardboard covered with a sheet, the walkways were all slanted and needing major repair, 1 stair wobbled so bad when you stepped on it that I honestly that it was going to break, a cockroach fell out the shower curtain, the shower went from burning hot to freezing cold every few mins which meant no shower for 3 kids :( there was hardly anything out for breakfast except toast, waffle mix, and frosted flakes......I could go on but I don't think it's needed spend the extra 10 bucks and go to the holiday inn directly across the street from 6 flags!More</t>
-  </si>
-  <si>
-    <t>Briget S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r233710036-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1048,7 +931,7 @@
     <t>What a Massive mistake. Originally I was looking for a clean, reasonable place for me and the wife to stay during the Dallas Cowboys game on Oct 3, 2014. We didn't need much just a clean room with no frills to in sleep during our 3 night stay. We knew we would be going a lot during the day so little was needed at night. And this place is close enough to walk to the stadium. 
 I read some reviews on another hotel booking site,  and this place just might fit the bill. Boy was I WRONG. I booked the trip in May, and there is no way this place went downhill between now and then. The place looks OK from the outside, but inside the room it was another matter altogether. 
 The place was probably built in the 70's and it appears that they have hardly done any upkeep what so ever.  Carpet was filthy with what appears to be blood stains on it, holes in every door. Couch is scary looking, we covered it before sitting on it. The bed had one paper thin blanket on it. The walls were in need of paint, BAD. There wasn’t even a roller in the toilet paper roll. It was just a used roll lying on the bathroom counter. Super thin, worn out towels. Shower handle will not adjust....NO cold water in the shower, just super warm, hot and hotter.   
-Then...What a Massive mistake. Originally I was looking for a clean, reasonable place for me and the wife to stay during the Dallas Cowboys game on Oct 3, 2014. We didn't need much just a clean room with no frills to in sleep during our 3 night stay. We knew we would be going a lot during the day so little was needed at night. And this place is close enough to walk to the stadium.  I read some reviews on another hotel booking site,  and this place just might fit the bill. Boy was I WRONG. I booked the trip in May, and there is no way this place went downhill between now and then. The place looks OK from the outside, but inside the room it was another matter altogether. The place was probably built in the 70's and it appears that they have hardly done any upkeep what so ever.  Carpet was filthy with what appears to be blood stains on it, holes in every door. Couch is scary looking, we covered it before sitting on it. The bed had one paper thin blanket on it. The walls were in need of paint, BAD. There wasn’t even a roller in the toilet paper roll. It was just a used roll lying on the bathroom counter. Super thin, worn out towels. Shower handle will not adjust....NO cold water in the shower, just super warm, hot and hotter.   Then the fun began. Day 1, no maid service, on one cleaned the room, bed not made - towels not replaced - small 1 cup coffee maker not cleaned, which by the way, no coffee cups at all, no Styrofoam or anything. We asked for another blanket and pillows, I had to get them from the front desk. The blanket was stained, my wife thought it was blood stained as well. We left it out the next day for the maids to see, and they just folded it and put it back on the bed. While I was in the lobby picking up the blanket I saw a new sign that said “all cars in the parking lot on Sunday without a parking permit will be towed”. When I asked about guests like myself who had paid for 3 nights  I was informed that we would still have to pay an additional $5 for parking or our car would be towed on Sunday / Gameday,  no exceptions! When I pointed out that the sign was not up the day before, and what if I hadn't come in and seen it, would they still have towed my car?  the answer was sorry, "everyone needs a permit or they get towed" ! Needless to say I paid the extra $5.Next, My wife  was at the front desk asking for another box of Kleenex and they informed her that they were out! While she was there, the lady in the room next to us was demanding her...MoreShow less</t>
+Then...What a Massive mistake. Originally I was looking for a clean, reasonable place for me and the wife to stay during the Dallas Cowboys game on Oct 3, 2014. We didn't need much just a clean room with no frills to in sleep during our 3 night stay. We knew we would be going a lot during the day so little was needed at night. And this place is close enough to walk to the stadium.  I read some reviews on another hotel booking site,  and this place just might fit the bill. Boy was I WRONG. I booked the trip in May, and there is no way this place went downhill between now and then. The place looks OK from the outside, but inside the room it was another matter altogether. The place was probably built in the 70's and it appears that they have hardly done any upkeep what so ever.  Carpet was filthy with what appears to be blood stains on it, holes in every door. Couch is scary looking, we covered it before sitting on it. The bed had one paper thin blanket on it. The walls were in need of paint, BAD. There wasn’t even a roller in the toilet paper roll. It was just a used roll lying on the bathroom counter. Super thin, worn out towels. Shower handle will not adjust....NO cold water in the shower, just super warm, hot and hotter.   Then the fun began. Day 1, no maid service, on one cleaned the room, bed not made - towels not replaced - small 1 cup coffee maker not cleaned, which by the way, no coffee cups at all, no Styrofoam or anything. We asked for another blanket and pillows, I had to get them from the front desk. The blanket was stained, my wife thought it was blood stained as well. We left it out the next day for the maids to see, and they just folded it and put it back on the bed. While I was in the lobby picking up the blanket I saw a new sign that said “all cars in the parking lot on Sunday without a parking permit will be towed”. When I asked about guests like myself who had paid for 3 nights  I was informed that we would still have to pay an additional $5 for parking or our car would be towed on Sunday / Gameday,  no exceptions! When I pointed out that the sign was not up the day before, and what if I hadn't come in and seen it, would they still have towed my car?  the answer was sorry, "everyone needs a permit or they get towed" ! Needless to say I paid the extra $5.Next, My wife  was at the front desk asking for another box of Kleenex and they informed her that they were out! While she was there, the lady in the room next to us was demanding her money back for her room which was infested with ROACHES! They over book! There were 3 different irate groups of people trying to check in Saturday night and somehow their rooms were already full. Also Late Saturday night / Sunday morning, we heard what sounded like gunshots around 4 AM. Also Sunday morning there were pieces of the 2nd floor handrailing which had fallen off from above, laying by our door.   It is clear that this place is doing very well, making a profit off of AT&amp;T / Cowboys Stadium and they do not care very much about repeat business or service. Econo Lodge should pull their name, and the place should be leveled.MoreShow less</t>
   </si>
   <si>
     <t>October 2014</t>
@@ -1057,10 +940,7 @@
     <t>What a Massive mistake. Originally I was looking for a clean, reasonable place for me and the wife to stay during the Dallas Cowboys game on Oct 3, 2014. We didn't need much just a clean room with no frills to in sleep during our 3 night stay. We knew we would be going a lot during the day so little was needed at night. And this place is close enough to walk to the stadium. 
 I read some reviews on another hotel booking site,  and this place just might fit the bill. Boy was I WRONG. I booked the trip in May, and there is no way this place went downhill between now and then. The place looks OK from the outside, but inside the room it was another matter altogether. 
 The place was probably built in the 70's and it appears that they have hardly done any upkeep what so ever.  Carpet was filthy with what appears to be blood stains on it, holes in every door. Couch is scary looking, we covered it before sitting on it. The bed had one paper thin blanket on it. The walls were in need of paint, BAD. There wasn’t even a roller in the toilet paper roll. It was just a used roll lying on the bathroom counter. Super thin, worn out towels. Shower handle will not adjust....NO cold water in the shower, just super warm, hot and hotter.   
-Then...What a Massive mistake. Originally I was looking for a clean, reasonable place for me and the wife to stay during the Dallas Cowboys game on Oct 3, 2014. We didn't need much just a clean room with no frills to in sleep during our 3 night stay. We knew we would be going a lot during the day so little was needed at night. And this place is close enough to walk to the stadium.  I read some reviews on another hotel booking site,  and this place just might fit the bill. Boy was I WRONG. I booked the trip in May, and there is no way this place went downhill between now and then. The place looks OK from the outside, but inside the room it was another matter altogether. The place was probably built in the 70's and it appears that they have hardly done any upkeep what so ever.  Carpet was filthy with what appears to be blood stains on it, holes in every door. Couch is scary looking, we covered it before sitting on it. The bed had one paper thin blanket on it. The walls were in need of paint, BAD. There wasn’t even a roller in the toilet paper roll. It was just a used roll lying on the bathroom counter. Super thin, worn out towels. Shower handle will not adjust....NO cold water in the shower, just super warm, hot and hotter.   Then the fun began. Day 1, no maid service, on one cleaned the room, bed not made - towels not replaced - small 1 cup coffee maker not cleaned, which by the way, no coffee cups at all, no Styrofoam or anything. We asked for another blanket and pillows, I had to get them from the front desk. The blanket was stained, my wife thought it was blood stained as well. We left it out the next day for the maids to see, and they just folded it and put it back on the bed. While I was in the lobby picking up the blanket I saw a new sign that said “all cars in the parking lot on Sunday without a parking permit will be towed”. When I asked about guests like myself who had paid for 3 nights  I was informed that we would still have to pay an additional $5 for parking or our car would be towed on Sunday / Gameday,  no exceptions! When I pointed out that the sign was not up the day before, and what if I hadn't come in and seen it, would they still have towed my car?  the answer was sorry, "everyone needs a permit or they get towed" ! Needless to say I paid the extra $5.Next, My wife  was at the front desk asking for another box of Kleenex and they informed her that they were out! While she was there, the lady in the room next to us was demanding her...More</t>
-  </si>
-  <si>
-    <t>Teresa B</t>
+Then...What a Massive mistake. Originally I was looking for a clean, reasonable place for me and the wife to stay during the Dallas Cowboys game on Oct 3, 2014. We didn't need much just a clean room with no frills to in sleep during our 3 night stay. We knew we would be going a lot during the day so little was needed at night. And this place is close enough to walk to the stadium.  I read some reviews on another hotel booking site,  and this place just might fit the bill. Boy was I WRONG. I booked the trip in May, and there is no way this place went downhill between now and then. The place looks OK from the outside, but inside the room it was another matter altogether. The place was probably built in the 70's and it appears that they have hardly done any upkeep what so ever.  Carpet was filthy with what appears to be blood stains on it, holes in every door. Couch is scary looking, we covered it before sitting on it. The bed had one paper thin blanket on it. The walls were in need of paint, BAD. There wasn’t even a roller in the toilet paper roll. It was just a used roll lying on the bathroom counter. Super thin, worn out towels. Shower handle will not adjust....NO cold water in the shower, just super warm, hot and hotter.   Then the fun began. Day 1, no maid service, on one cleaned the room, bed not made - towels not replaced - small 1 cup coffee maker not cleaned, which by the way, no coffee cups at all, no Styrofoam or anything. We asked for another blanket and pillows, I had to get them from the front desk. The blanket was stained, my wife thought it was blood stained as well. We left it out the next day for the maids to see, and they just folded it and put it back on the bed. While I was in the lobby picking up the blanket I saw a new sign that said “all cars in the parking lot on Sunday without a parking permit will be towed”. When I asked about guests like myself who had paid for 3 nights  I was informed that we would still have to pay an additional $5 for parking or our car would be towed on Sunday / Gameday,  no exceptions! When I pointed out that the sign was not up the day before, and what if I hadn't come in and seen it, would they still have towed my car?  the answer was sorry, "everyone needs a permit or they get towed" ! Needless to say I paid the extra $5.Next, My wife  was at the front desk asking for another box of Kleenex and they informed her that they were out! While she was there, the lady in the room next to us was demanding her money back for her room which was infested with ROACHES! They over book! There were 3 different irate groups of people trying to check in Saturday night and somehow their rooms were already full. Also Late Saturday night / Sunday morning, we heard what sounded like gunshots around 4 AM. Also Sunday morning there were pieces of the 2nd floor handrailing which had fallen off from above, laying by our door.   It is clear that this place is doing very well, making a profit off of AT&amp;T / Cowboys Stadium and they do not care very much about repeat business or service. Econo Lodge should pull their name, and the place should be leveled.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r232937189-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1078,9 +958,6 @@
     <t>Booked this hotel when my husband and I ran the Biggestlooserrunwalk 5K because it had a cheaper rate for just a one night stay. It is an older hotel so don't have any big expectations when staying here. The room was clean and bed comfortable and close to our venue. Would recommend to anyone for an overnight stay.</t>
   </si>
   <si>
-    <t>Lwomack</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r230451594-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1093,13 +970,10 @@
     <t>There are issues but the location is good</t>
   </si>
   <si>
-    <t>When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign...When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign like this. The smaller bedroom's bath had a hair dryer but the plug was burnt and so were both wall sockets. I brought my own dryer so I didn't try theirs. In the other bath, I tried drying my hair. The dryer sounded like it was getting high and low peaks of current so I unplugged it. When I did, the dryer plug was extremely hot and in the process I blistered (not just hot, yes blistered!) my finger. I had to use another wall socket. The beds are not comfortable and we both had two rough nights in that room. We slept on the first bed the first night and tried the other the next night. Both were bad. The pillows on one were like rocks and the other were on the thin side. There was an iron and blankets in the closet but no ironing board and both closets had doors that were off the tracks and hard to open. There were cosmetic issues all around the rooms since this is an older place. I felt safe walking around there. It was quiet and easily within walking distance of the Cowboys Stadium and plenty of good restaurants within walking distance. I heard one guest ask about an ice bucket and the clerk told him the rooms didn't have them but ours did. Don't rely on signs or the map from the office to find the vending machines either. That didn't work. I finally walked to the front desk and...MoreShow less</t>
-  </si>
-  <si>
-    <t>When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign...When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign like this. The smaller bedroom's bath had a hair dryer but the plug was burnt and so were both wall sockets. I brought my own dryer so I didn't try theirs. In the other bath, I tried drying my hair. The dryer sounded like it was getting high and low peaks of current so I unplugged it. When I did, the dryer plug was extremely hot and in the process I blistered (not just hot, yes blistered!) my finger. I had to use another wall socket. The beds are not comfortable and we both had two rough nights in that room. We slept on the first bed the first night and tried the other the next night. Both were bad. The pillows on one were like rocks and the other were on the thin side. There was an iron and blankets in the closet but no ironing board and both closets had doors that were off the tracks and hard to open. There were cosmetic issues all around the rooms since this is an older place. I felt safe walking around there. It was quiet and easily within walking distance of the Cowboys Stadium and plenty of good restaurants within walking distance. I heard one guest ask about an ice bucket and the clerk told him the rooms didn't have them but ours did. Don't rely on signs or the map from the office to find the vending machines either. That didn't work. I finally walked to the front desk and...More</t>
-  </si>
-  <si>
-    <t>MayraSegura</t>
+    <t>When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign...When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign like this. The smaller bedroom's bath had a hair dryer but the plug was burnt and so were both wall sockets. I brought my own dryer so I didn't try theirs. In the other bath, I tried drying my hair. The dryer sounded like it was getting high and low peaks of current so I unplugged it. When I did, the dryer plug was extremely hot and in the process I blistered (not just hot, yes blistered!) my finger. I had to use another wall socket. The beds are not comfortable and we both had two rough nights in that room. We slept on the first bed the first night and tried the other the next night. Both were bad. The pillows on one were like rocks and the other were on the thin side. There was an iron and blankets in the closet but no ironing board and both closets had doors that were off the tracks and hard to open. There were cosmetic issues all around the rooms since this is an older place. I felt safe walking around there. It was quiet and easily within walking distance of the Cowboys Stadium and plenty of good restaurants within walking distance. I heard one guest ask about an ice bucket and the clerk told him the rooms didn't have them but ours did. Don't rely on signs or the map from the office to find the vending machines either. That didn't work. I finally walked to the front desk and asked and was told there was one right by the office. There were several selections but all but one was sold out. So good and bad but be careful and don't blister your finger. MoreShow less</t>
+  </si>
+  <si>
+    <t>When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign...When we got there, the clerk at the desk was not welcoming. He had a bad attitude like he wished he was anywhere else. We got to the room and couldn't get in the door. The lights flashed when we inserted the key card but we couldn't get in. We were on the third floor and finding a convenient elevator wasn't easy. I got back to the office and the clerk did his thing with the cards and I returned to the third floor room. We still couldn't get in. My husband was quite upset by now so he went to the office. He returned and said he got us an upgrade. We had a two bedroom, two bath suite. Sounds good, right? Well, we finally figured out to push down on the door handle very fast(not up like we had tried) and we were in the door. This suite had a kitchen area but only one fork, two spoons, one knife, and one plate. There was not a do not disturb sign or anything about wifi password. This meant a call and a trip back to the office. We were in the very back corner of a large complex. Sigh!  There is a sign in one of the bathrooms about how they inventory the linens so please don't take them. Really! I've stayed at some ritzy places and some that aren't so great but I've never seen a sign like this. The smaller bedroom's bath had a hair dryer but the plug was burnt and so were both wall sockets. I brought my own dryer so I didn't try theirs. In the other bath, I tried drying my hair. The dryer sounded like it was getting high and low peaks of current so I unplugged it. When I did, the dryer plug was extremely hot and in the process I blistered (not just hot, yes blistered!) my finger. I had to use another wall socket. The beds are not comfortable and we both had two rough nights in that room. We slept on the first bed the first night and tried the other the next night. Both were bad. The pillows on one were like rocks and the other were on the thin side. There was an iron and blankets in the closet but no ironing board and both closets had doors that were off the tracks and hard to open. There were cosmetic issues all around the rooms since this is an older place. I felt safe walking around there. It was quiet and easily within walking distance of the Cowboys Stadium and plenty of good restaurants within walking distance. I heard one guest ask about an ice bucket and the clerk told him the rooms didn't have them but ours did. Don't rely on signs or the map from the office to find the vending machines either. That didn't work. I finally walked to the front desk and asked and was told there was one right by the office. There were several selections but all but one was sold out. So good and bad but be careful and don't blister your finger. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r228328405-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1120,9 +994,6 @@
     <t>WILL NEVER EVER EVER AGAIN!  The outside of the rooms had The rooms are gross and smell like ash trays, even though I had a non smoking room. The carpet was gross and the bed looked the same. I went to Walmart and purchased sheets and slept on the new sheets with my own pillow and was covered from head to toe. I didn't dare step on the floor bare foot either. The breakfast was nasty! The lady would clean the trash can and then the counter with the same rag!!! Close to the stadium and restaurants but would rather pay more and stay further away than stay in a room like that again!!!!More</t>
   </si>
   <si>
-    <t>Xxxjaxsxxx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r221675010-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1141,9 +1012,6 @@
     <t>I reserved 2 rooms for 2 nights. Online it only showed king suites with sleeper sofas. I called to see if we could get the rooms close together. The man said he could upgrade us at no charge to a 2 bed and we could be right next to each other. When we arrived the front office gave off a great impression. The night lady was wonderful. The rooms ended up being on different floors and different buildings. Both rooms needed extreme cleaning and lots of maintenance. I was fine until I went to pack up the kitchen to go home. The cabinet under the sink had mold. The bottom was caved in from the pipes leaking. The pool was really nice they even let us stay a little longer. Only downside was the hot tub wasn't very hot. Again great staff got my six flags tickets super cheap as well. Just needs deep cleaning and lots of maintenance.More</t>
   </si>
   <si>
-    <t>BobVMemphis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r218951888-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1165,9 +1033,6 @@
     <t>We stayed at this hotel to attend a concert at the nearby AT&amp;T Stadium.  The hotel is certainly within easy walking distance of the stadium.  I found the room to be comfortable, quiet, and clean.  The driver picked us up shortly after we called to hotel from the DFW airport.  In the immediate area of the hotel are a multitude of great restaurants and shops, and even a WalMart near the stadium.  The only drawback was that the airport shuttle does not run 24 hours nor early AM.  I had an early flight out of DFW and had to get a paid shuttle and it was what I consider somewhat expensive.  Otherwise a great stay.  I would certainly stay at this hotel again.More</t>
   </si>
   <si>
-    <t>Fidel P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r218434860-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1201,9 +1066,6 @@
     <t>Don't let the past reveiws you read intimidate you. This is an awesome hotel. The water was HOT, the pool was cold, the service was amazing and it was clean. Yes, it is an older hotel, but it is very well kept. We had an issue with the TV in the living room, it was fixed before we can back from our activies for the day. The location of this hotel is so close to shopping, resturants and of course Six Flags. We stayed in the two bedroom suite and it was just the right size for our family of 5. Our kids loved the waffles for breakfast, we enjoyed bagels and cereal. If you are looking for an economical place to stay with lots of room, free breakfast and shuttle and friendly staff, this is your hotel. We will stay here again!!!More</t>
   </si>
   <si>
-    <t>Takeshia V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r217325213-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1222,9 +1084,6 @@
     <t>My friends and I were in town for a concert. We stayed at this location due to being close to the AT&amp;T Stadium. The room was just average nothing spectacular about it. There was a shuttle driver who took us to around town, but only on his terms. As long as it was convenient for him. He made sure he told us about people who didn't tip. I guess this was to ensure we tipped him or else he wouldn't drive us around. The day of the concert we made a reservation with the shuttle to be picked up after the concert. The shuttle driver had us write our name, number and how many people were in our party on a list. After the concert we met our driver at the location he told us he would meet us at. We were extremely disappointed to find that the van was full of people already and no where for my party to sit.  Needless to say, 2 people in my party were able to ride home and myself and 2 other people where left standing in a parking lot until the shuttle driving came to pick us back up only he never returned and we had to find another ride home.More</t>
   </si>
   <si>
-    <t>rmdev83</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r214491335-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1243,9 +1102,6 @@
     <t>We are actually here now and this place is awful! We are a family of four with 10 and 8 years old children. We have stayed at various types of lodging (value and premium) so we'd figure for a short trip to Six Flags that this place would do. Wrong! Breakfast is terrible (waffles taste salty and the orange juice tastes watered down) and the breakfast area reeks of body odor. The rooms are dated with signs of dilapidation. Also, we called for extra towels as they only supplied us with three bath towels (should have accommodated for four as booking clearly showed) and they never brought them up. After 45 minutes, I called down and they asked me to go down and get them. As I mentioned before, we have stayed in many different types of lodging but this place is by far the worst we have ever visited! It's so sad to see the nicer Holiday Inn down the road while we are stuck at this dump!! Don't be cheap like we tried to be and stay away from this place!!More</t>
   </si>
   <si>
-    <t>Danny F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r204891840-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1261,9 +1117,6 @@
     <t xml:space="preserve">I just want to say how much I enjoyed stay in Arlington.  Your Motel was very clean and your friendly staff made our stay even better. I am a regular and stay often. I'm very impressed with Juan who works the desk. He even recognizes my voice when I call for reservations. Thanks for your service. Your motel is a great value. </t>
   </si>
   <si>
-    <t>Brian B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r204270447-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1282,9 +1135,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>kanreki66</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r201754180-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1300,9 +1150,6 @@
     <t>Front desk do not consider use of the bus other than check-in. when I had business at an airport and used a shuttle bus, he picked up. when I asked shuttle bus at check-out but shuttle bus is busy time, he drove himself for me.I was helped very much by him.</t>
   </si>
   <si>
-    <t>Tricia B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r200532704-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1321,9 +1168,6 @@
     <t>We stayed at this hotel recently.  It is an old property, but for the price I was not surprised.  What did surprise me was the support of the hotel staff.  We flew into town for games at AT&amp;T stadium, planning to walk to the games.  Unfortunately the weather didn't agree with us, and the front desk organized a shuttle to get us down to the stadium. They were willing to help us out with anything while we were staying, even getting us back to the airport when our taxi didn't show up.  Don't expect brand new rooms, but you can expect a NYC sized apartment for a room and a helpful staff.More</t>
   </si>
   <si>
-    <t>Bridget B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r200490378-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1339,9 +1183,6 @@
     <t>Let's put it this way, I've stayed in hostels in Asia that are better than this place.  The two stars I am giving are simply for the location (walking distance to AT&amp;T stadium).  If location is all that matters to you, and you don't mind sleeping in a run down hotel with extremely uncomfortable beds and no hot water, then this place is for you.The beds/pillows were extremely uncomfortable.  The hot tub had brown water.  Front desk would not give us another blanket when asked.  The shower handle was semi-broken and no matter which way we turned it, we could not get hot water for more than a few minutes.  So we took freezing cold showers every day.  The towels had holes in them and when we requested new/extra ones, the front desk said it would be a 30 minute wait.  We called the front desk to order us a cab and they never did.  When we were leaving, the front desk person said he would bring us where we wanted to go for $30 which was a complete rip off.  Do not stay here unless you absolutely cannot afford anything else.  Even then, I would recommend a campground over this placeMore</t>
   </si>
   <si>
-    <t>jeffreyjfred</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r200470892-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1357,9 +1198,6 @@
     <t>Stayed here for 4 nights.  This is not an expensive hotel but some things just "weren't right".  Lock on door broke (when we were on the outside), a bug crawled up from the sink drain, towels are very thin, there was tissue or toilet paper under the bath mat, the pool chairs were hand painted (and the paint did not stick well so it is all flaked), the televisions are older than I can date, one phone in the room had both cords broken...and some more but you get the idea.  We were at the reception desk when someone asked where the fitness center was and the receptionist said there wasn't one - well we found one the next day.  Seems like a safe place.More</t>
   </si>
   <si>
-    <t>JOSEPH R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r200252675-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1378,9 +1216,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Diana V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r198418199-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1417,9 +1252,6 @@
     <t>I read all of these reviews and some of the ones that are so old need to be ignored. I have stayed at this location multiple times. And when you need an affordable place to stay and you have 4 teenagers, this is the place. If you are someone who is accustomed to staying at exclusive 4-star hotels, then you will not be happy. But we are more than satisfied. Our kids love the pool. Especially the "waterfall" part. The buffet can fill all of them up without costing us a penny. They love to make the homemade waffles. And eat as much cereal and OJ as they want. My husband and I love that the shuttle runs non-stop back and forth from Six Flags and we can come back when we are done and the kids can stay as long as they want and we know they have a safe ride back to the hotel. (Keep in mind all four of our kids are from 16 to 19 years old). The set up of the room is like an apartment. We get a room with a door we can close if we want to sleep while they stay up to watch TV or play X-Box. And we can have extra snacks and drinks for them because there is a fridge and microwave. Sure it is dated and the towels are not pristine. But if everything was beautiful and brand...I read all of these reviews and some of the ones that are so old need to be ignored. I have stayed at this location multiple times. And when you need an affordable place to stay and you have 4 teenagers, this is the place. If you are someone who is accustomed to staying at exclusive 4-star hotels, then you will not be happy. But we are more than satisfied. Our kids love the pool. Especially the "waterfall" part. The buffet can fill all of them up without costing us a penny. They love to make the homemade waffles. And eat as much cereal and OJ as they want. My husband and I love that the shuttle runs non-stop back and forth from Six Flags and we can come back when we are done and the kids can stay as long as they want and we know they have a safe ride back to the hotel. (Keep in mind all four of our kids are from 16 to 19 years old). The set up of the room is like an apartment. We get a room with a door we can close if we want to sleep while they stay up to watch TV or play X-Box. And we can have extra snacks and drinks for them because there is a fridge and microwave. Sure it is dated and the towels are not pristine. But if everything was beautiful and brand new and shiny, it would not be as affordable as it is. We have been in multiple rooms on multiple stays and have never seen a bed bug. Go stay somewhere else if you are expecting perfection, but if you want a fun stay with nice employees and a fun shuttle driver, then this is the place for you.More</t>
   </si>
   <si>
-    <t>charles o</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r195678186-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1438,9 +1270,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>SweetSholly</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r192029450-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1459,9 +1288,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Houldie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r189893366-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1477,9 +1303,6 @@
     <t>Price was great and location w/ in walking distance of dome and restaurants...We stayed three days and our room was not vacuumed once..The layout was nice, but couch had no springs.. Could be a super place if it was updated. Shuttle to game was dirty, had no seat belts , and was overcrowded!!!</t>
   </si>
   <si>
-    <t>Joe_and_Katrina</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r189776661-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1501,9 +1324,6 @@
     <t>We were not expecting the Ritz when we made our reservation here.  I read several reviews and determined that this hotel was old, but fairly clean and in a good location to get to AT&amp;T Stadium.  Good location, yes; everything else, no.  The room was outdated, kind of clean, and had strange "solutions" to dilemmas, such as a fan in the wall between the "living room" and the bedroom to get the heat or air conditioning in from the "living room," as that is the only place they had an air conditioner/heater.  We woke up the first morning in the hotel to NO hot water and towels that were either stained or had 2-inch diameter holes in them.  When my husband went to talk to the staff about this, they offered to send someone from maintenance for the water problem (and no one ever came,) and handed him a pile of towels, of which ONE has neither stains or holes.  After we got back to the room that night, we checked the hot water again.  This time we did have hot water, but it was scalding, and there was no in-between.  Freeze or be scalded.  Those are your choices.  Then dry off with a stained and/or holey towel.  It is in a good location, but I would suggest spending a little more and staying in one of the other hotels that are in this area.More</t>
   </si>
   <si>
-    <t>Ellyn S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r189015593-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1520,9 +1340,6 @@
   </si>
   <si>
     <t>For the price we paid, I expected more. Yes it's only a 1.1 mile walk to Cowboy stadium and they have a shuttle (they charge $5/person) and then charged me ($10 for a parking permit) but the rooms leave a lot to be desired especially for the price I paid. We stayed in a 2 bedroom suite and the beds were fine but the linens had holes in them. We told them that 5 people were sleeping and there were only 4 towels. The towels had holes in them. The rooms are old and in need of updating. The seal on the exterior door was bad and let in the cold air. The staff was nice enough. Good thing our family pretty much was exhausted so we got back from the game and went to bed. Woke up to barely any hot water in the shower. Called down and no one from maintenance came up.More</t>
-  </si>
-  <si>
-    <t>Dave B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r187988595-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1539,15 +1356,12 @@
   <si>
     <t>Where to begin, the trip to Arlington.  Nine of us flew to Arlington for a football game.  One of the nine booked the trip through Priceline.com and in an attempt to save us all some cash and get us closer to AT &amp; T Stadium, we chose an Econolodge. 
 When we arrived at the airport and called for the promised shuttle, we were put on hold and hung-up on for approximately 25 minutes.  Realizing what we were dealing with, we flagged down a private shuttle and rode to the hotel.  Check-in was average.  Arriving at the rooms, you could see the age of the hotel and the lack of maintenance that has occurred over the years.  Getting into the room was a challenge.  Over the three day stay, I would estimate that it took an average of 6-8 tries to get the access card to open the door.  
-The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said...Where to begin, the trip to Arlington.  Nine of us flew to Arlington for a football game.  One of the nine booked the trip through Priceline.com and in an attempt to save us all some cash and get us closer to AT &amp; T Stadium, we chose an Econolodge.  When we arrived at the airport and called for the promised shuttle, we were put on hold and hung-up on for approximately 25 minutes.  Realizing what we were dealing with, we flagged down a private shuttle and rode to the hotel.  Check-in was average.  Arriving at the rooms, you could see the age of the hotel and the lack of maintenance that has occurred over the years.  Getting into the room was a challenge.  Over the three day stay, I would estimate that it took an average of 6-8 tries to get the access card to open the door.  The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said we don’t have any.  We were directed to the only vending machine at this fairly large property.  Imagine our surprise to learn that it was completely empty, except for the red cream soda, not exactly a great thirst quencher.  We were then directed by the front desk staff to a convenience store just around the corner.  We walked just around the corner and found nothing so called it a night, a thirsty night.  (We did find out from the shuttle driver the next day that there is no convenience store around the corner with the nearest being about .5 miles away across a freeway.)The maid service was interesting and half hearted to say the least.  Half-hearted in the fact that they made up one bed and left the other un-touched and un-made.  Half-hearted in the fact that they took the damp towels and left no fresh towels.  And half-hearted in the face that when we moved a small sofa we found a lot of dust and stuff clearly indicating that it had been vacuumed for months if not years.  Blech.Breakfast was very carb-heavy and after a quick taste of the bland orange juice, we decided to avail ourselves of the great breakfast buffet at the Holiday Inn next door.  Highly recommend that...MoreShow less</t>
+The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said...Where to begin, the trip to Arlington.  Nine of us flew to Arlington for a football game.  One of the nine booked the trip through Priceline.com and in an attempt to save us all some cash and get us closer to AT &amp; T Stadium, we chose an Econolodge.  When we arrived at the airport and called for the promised shuttle, we were put on hold and hung-up on for approximately 25 minutes.  Realizing what we were dealing with, we flagged down a private shuttle and rode to the hotel.  Check-in was average.  Arriving at the rooms, you could see the age of the hotel and the lack of maintenance that has occurred over the years.  Getting into the room was a challenge.  Over the three day stay, I would estimate that it took an average of 6-8 tries to get the access card to open the door.  The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said we don’t have any.  We were directed to the only vending machine at this fairly large property.  Imagine our surprise to learn that it was completely empty, except for the red cream soda, not exactly a great thirst quencher.  We were then directed by the front desk staff to a convenience store just around the corner.  We walked just around the corner and found nothing so called it a night, a thirsty night.  (We did find out from the shuttle driver the next day that there is no convenience store around the corner with the nearest being about .5 miles away across a freeway.)The maid service was interesting and half hearted to say the least.  Half-hearted in the fact that they made up one bed and left the other un-touched and un-made.  Half-hearted in the fact that they took the damp towels and left no fresh towels.  And half-hearted in the face that when we moved a small sofa we found a lot of dust and stuff clearly indicating that it had been vacuumed for months if not years.  Blech.Breakfast was very carb-heavy and after a quick taste of the bland orange juice, we decided to avail ourselves of the great breakfast buffet at the Holiday Inn next door.  Highly recommend that.  We went to the lobby to check in for our flights and print boarding passes, a fairly simple and routine hotel lobby activity.  Upon completing the online check in process, I hit print only to discover no ink in the printer thus defeating the purpose of a printer.  When I asked the front desk to replace the ink cartridge so that I could print our boarding passes, I was told they could not.  Surprise.  To make up for the inconvenience, they allowed me to use their desktop computer to complete the check in process one more time and to print the boarding passes.  The only hitch in this giddy-up was that I had to stand on the customer side of the counter to do it.  So………to reach the keyboard and mouse I had to stand on one foot, leaning across the front desk like a height challenged pool shark attempting to make that one last shot.  Perhaps the only upside of our involvement with the Arlington Econolodge was the shuttle driver who went out of his was to be hospitable.  (No involvement with the trip from the airport as he never got the message because the desk clerk kept hanging up on us.)  Luis is top notch and reliable.  We asked him to pick us up at a certain time and place and he was there early and ready to go.  Luis told us that he was a contract employee and not an actual Econolodge employee.  I would suspect that explains the good customer service.  Kudos to Luis.MoreShow less</t>
   </si>
   <si>
     <t>Where to begin, the trip to Arlington.  Nine of us flew to Arlington for a football game.  One of the nine booked the trip through Priceline.com and in an attempt to save us all some cash and get us closer to AT &amp; T Stadium, we chose an Econolodge. 
 When we arrived at the airport and called for the promised shuttle, we were put on hold and hung-up on for approximately 25 minutes.  Realizing what we were dealing with, we flagged down a private shuttle and rode to the hotel.  Check-in was average.  Arriving at the rooms, you could see the age of the hotel and the lack of maintenance that has occurred over the years.  Getting into the room was a challenge.  Over the three day stay, I would estimate that it took an average of 6-8 tries to get the access card to open the door.  
-The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said...Where to begin, the trip to Arlington.  Nine of us flew to Arlington for a football game.  One of the nine booked the trip through Priceline.com and in an attempt to save us all some cash and get us closer to AT &amp; T Stadium, we chose an Econolodge.  When we arrived at the airport and called for the promised shuttle, we were put on hold and hung-up on for approximately 25 minutes.  Realizing what we were dealing with, we flagged down a private shuttle and rode to the hotel.  Check-in was average.  Arriving at the rooms, you could see the age of the hotel and the lack of maintenance that has occurred over the years.  Getting into the room was a challenge.  Over the three day stay, I would estimate that it took an average of 6-8 tries to get the access card to open the door.  The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said we don’t have any.  We were directed to the only vending machine at this fairly large property.  Imagine our surprise to learn that it was completely empty, except for the red cream soda, not exactly a great thirst quencher.  We were then directed by the front desk staff to a convenience store just around the corner.  We walked just around the corner and found nothing so called it a night, a thirsty night.  (We did find out from the shuttle driver the next day that there is no convenience store around the corner with the nearest being about .5 miles away across a freeway.)The maid service was interesting and half hearted to say the least.  Half-hearted in the fact that they made up one bed and left the other un-touched and un-made.  Half-hearted in the fact that they took the damp towels and left no fresh towels.  And half-hearted in the face that when we moved a small sofa we found a lot of dust and stuff clearly indicating that it had been vacuumed for months if not years.  Blech.Breakfast was very carb-heavy and after a quick taste of the bland orange juice, we decided to avail ourselves of the great breakfast buffet at the Holiday Inn next door.  Highly recommend that...More</t>
-  </si>
-  <si>
-    <t>SDTravelerGirl</t>
+The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said...Where to begin, the trip to Arlington.  Nine of us flew to Arlington for a football game.  One of the nine booked the trip through Priceline.com and in an attempt to save us all some cash and get us closer to AT &amp; T Stadium, we chose an Econolodge.  When we arrived at the airport and called for the promised shuttle, we were put on hold and hung-up on for approximately 25 minutes.  Realizing what we were dealing with, we flagged down a private shuttle and rode to the hotel.  Check-in was average.  Arriving at the rooms, you could see the age of the hotel and the lack of maintenance that has occurred over the years.  Getting into the room was a challenge.  Over the three day stay, I would estimate that it took an average of 6-8 tries to get the access card to open the door.  The interior of the rooms were very basic.  Two beds in ours, two 1990’s era televisions, the basics.  The rooms were really the least of the trouble.  The shower has a mat in it covering large cracks which I can only assume leak to the subfloor below.  The water in the shower was quite odorific and the drinking water had a very distinct and unpleasant taste.  This led us to ask at the desk about complimentary bottled water.  The desk clerk actually looked to his left and then his right and said we don’t have any.  We were directed to the only vending machine at this fairly large property.  Imagine our surprise to learn that it was completely empty, except for the red cream soda, not exactly a great thirst quencher.  We were then directed by the front desk staff to a convenience store just around the corner.  We walked just around the corner and found nothing so called it a night, a thirsty night.  (We did find out from the shuttle driver the next day that there is no convenience store around the corner with the nearest being about .5 miles away across a freeway.)The maid service was interesting and half hearted to say the least.  Half-hearted in the fact that they made up one bed and left the other un-touched and un-made.  Half-hearted in the fact that they took the damp towels and left no fresh towels.  And half-hearted in the face that when we moved a small sofa we found a lot of dust and stuff clearly indicating that it had been vacuumed for months if not years.  Blech.Breakfast was very carb-heavy and after a quick taste of the bland orange juice, we decided to avail ourselves of the great breakfast buffet at the Holiday Inn next door.  Highly recommend that.  We went to the lobby to check in for our flights and print boarding passes, a fairly simple and routine hotel lobby activity.  Upon completing the online check in process, I hit print only to discover no ink in the printer thus defeating the purpose of a printer.  When I asked the front desk to replace the ink cartridge so that I could print our boarding passes, I was told they could not.  Surprise.  To make up for the inconvenience, they allowed me to use their desktop computer to complete the check in process one more time and to print the boarding passes.  The only hitch in this giddy-up was that I had to stand on the customer side of the counter to do it.  So………to reach the keyboard and mouse I had to stand on one foot, leaning across the front desk like a height challenged pool shark attempting to make that one last shot.  Perhaps the only upside of our involvement with the Arlington Econolodge was the shuttle driver who went out of his was to be hospitable.  (No involvement with the trip from the airport as he never got the message because the desk clerk kept hanging up on us.)  Luis is top notch and reliable.  We asked him to pick us up at a certain time and place and he was there early and ready to go.  Luis told us that he was a contract employee and not an actual Econolodge employee.  I would suspect that explains the good customer service.  Kudos to Luis.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r187816776-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1568,9 +1382,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Adetecar</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r186960305-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1586,9 +1397,6 @@
     <t>We stayed at this Hotel on Thanksgiving for the Cowboy's game. It is in a really good location, however, they take advantage of this location giving you a terrible service and high rates.The hotel is old, dirty, uncomfortable and we never got hot water!If you are going to the AT&amp;T Stadium in Arlington, TX, keep looking for a better option.</t>
   </si>
   <si>
-    <t>EnviableRegent</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r183081899-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1610,9 +1418,6 @@
     <t>We only stayed 1 night to hit Six Flags and it was like a mini apartment. The front desk staff was friendly and helpful. There was a kitchen with a full size fridge and a microwave and even a few plates, a cup and 2 knives. Odd quantity but at least they were there. Its a standard room on the bottom floor. The only noise I heard was from the maids who got to our room just after 9a.m.  The bed was comfy...not really firm but not exactly soft. I need a relatively firm bed but this worked just fine. I slept very well on it. The shower was a little odd but we got told that was just how the knobs were in Arlington. It is very close to Six Flags and gas stations if needed. It was a quiet road but only one entrance/exit. I would stay there again if I'm ever in that area.More</t>
   </si>
   <si>
-    <t>Dominick C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r182866311-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1640,9 +1445,6 @@
     <t>I recently went to the Premier Pigments School located in Arlington, The Staff at the Econo Lodge  hotel went above and beyond there jobs to make me and the other tenants comfortable!!!!!!! The shuttle was GREAT!!!!!! This man seemed to always be working???? Great guy!!!! So I want to say some things . They were OUT of everything!!!!!!!!!! COME ON HELP THESE GUYS OUT!!!!!!!! and your place would be 100 times better!!! TREAT YOUR WORKERS RIGHT!!!!!!!!More</t>
   </si>
   <si>
-    <t>Enjoli K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r182713964-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1661,9 +1463,6 @@
     <t>3 three friends &amp; I stayed at the Econo lodge for one nite. Our was roomy for 4 adults.  It even had a kitchen complete with large fridge, stove, sink, microwave, coffee maker, and bar with seats.  Our room also had a sofa that made into a bed although we did not use it.  There were 2 tvs. one in our bed room; the other in the living room.  the bathroom was standard hotel.  The breakfast was cereal, bagels with regular cream cheese, toast with butter and your choice of jellies, but the best part was the waffles.  The waffle batter was portioned into cups that were poured into waffle pan.  One word-- Yummy.  They sure do beat the frozen ones. Maple syrup and butter are offered to top your waffle.  The staff were extra helpful in helping us find activities in the area and even providing us with phone numbers and addresses.  The hotel has an indoor pool that we did not see or use, but I figure we will see that next time.  The ice machine was down but the staff gave me ice from the kitchen.  The staff were very friendly and quick to help.  I would recommend staying at Econo Lodge.More</t>
   </si>
   <si>
-    <t>anujm03</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r181944620-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1682,9 +1481,6 @@
     <t>I was quite impressed by the hotel. As a member of Choice Priveleges, I was looking for a hotel that would give me points that was near the Cowboys stadium. I made the reservation the night before and showed up at 11 AM, even though check in time was not until 3 PM. The management was very friendly and let me check in at 11.The hotel was also quite comfortable and reasonably priced with 2 beds and a couch. I will try to stay there everytime I go to a Cowboys game.More</t>
   </si>
   <si>
-    <t>iwillnotdoit2000</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r181927769-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1700,9 +1496,6 @@
     <t>It's not the St. Regis, nor should anyone make that comparison.  It's suitable for a one night stand.  It's an easy walking distance to the stadium, safe, clean and had free parking.That's all I needed it for.More</t>
   </si>
   <si>
-    <t>bkasunset</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r180984901-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1721,9 +1514,6 @@
     <t>I stayed for 3 nights and I was very happy with my room, considering the price. And it's in a great location.  The best part is the great shuttle service and the manager goes out of his way to provide excellent service.More</t>
   </si>
   <si>
-    <t>GrahamHouseInn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r180868457-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1742,9 +1532,6 @@
     <t>1- guests noisy into wee am hours2- blood spot on pillow3- twin blanket on king bed4- twin blanket used as mattress pad5- no hot water in shower6- kitchenette missing: silverware, cooking utensils, pots and skillets, basic kitchen amenities - this was a totally unusable "amenity"7- complaints to front desk not effective8- carpet so filthy that your feet made a dark footprint in the tub9- "breakfast" was a cruel trick fit for the halloween season - no treats hereMore</t>
   </si>
   <si>
-    <t>carmendmartin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r175578925-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1763,9 +1550,6 @@
     <t>I was satisfied with the stay. Our last night staying some teenagers were knocking on the doors and running. This happened around 12 am. Called front desk and they was quick to address the problem. We was there with a large group on a business trip. When we had arrived to check in, we were upgraded to a different room because somehow the confirmation was never sent. Liked the fact the room  was set up like a 2 bedroom apartment. Hardbto find hotels that provide a full working kitchen, king size bed and a pull out sofa. And two separate tvs. Plan on using again in the future.More</t>
   </si>
   <si>
-    <t>greengirl15</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r172842657-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1787,9 +1571,6 @@
     <t>We booked this hotel through Priceline's name your price tool. Was never asked about smoking or non smoking and when we got there we were booked into a smoking room. The manager was very kind and said even though there only a few rooms left and it was considered an upgrade he would be able to switch us to a nonsmoking room. The room we had was clean and the A/C was ice cold. This make not be a first choice but the great customer service of the new manager was very appreciated. It is very convenient to Cowboys stadium or to catch a Rangers game. While this is not a luxury hotel by any means it was comfortable for a budget friendly quick trip.More</t>
   </si>
   <si>
-    <t>jason m</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r170231887-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1811,9 +1592,6 @@
     <t>I understood that this was a budget motel but oh my god. wanted two kitchens first night got none, second night got one kitchen, then threatened by night guy to kick us out for leaking tub when the tub had a crack in it. had to change room again, into another room that will be three rooms in two days, when asking for manager only one guy can help and he gets there  between eight and nine in the morning sometimes, that is what we were told. so no costumer service, at one point there were some young men trying all the car doors in the parking lot to find a open one and when confronted said they were not worried about the police, told front desk and the guy up front said things like that happen all the time no big deal, actual comment. finally upon checkout we were overcharged and told they would contact us that was almost a month ago. also, i cannot say for sure but i think they back part of the motel was used for a prostitution ring with men coming and going all night in and out of may rooms. told front deck about it and were told no big deal. unbelievable and the worst part we were on a budget  and were kinda stuck with the situation. this is the worst stay i have ever had anywhere and beg people to avoid...I understood that this was a budget motel but oh my god. wanted two kitchens first night got none, second night got one kitchen, then threatened by night guy to kick us out for leaking tub when the tub had a crack in it. had to change room again, into another room that will be three rooms in two days, when asking for manager only one guy can help and he gets there  between eight and nine in the morning sometimes, that is what we were told. so no costumer service, at one point there were some young men trying all the car doors in the parking lot to find a open one and when confronted said they were not worried about the police, told front desk and the guy up front said things like that happen all the time no big deal, actual comment. finally upon checkout we were overcharged and told they would contact us that was almost a month ago. also, i cannot say for sure but i think they back part of the motel was used for a prostitution ring with men coming and going all night in and out of may rooms. told front deck about it and were told no big deal. unbelievable and the worst part we were on a budget  and were kinda stuck with the situation. this is the worst stay i have ever had anywhere and beg people to avoid this place at all costs there is a holiday inn next door stay there please stay away i do not want any other vacations to be ruined by this horrible place.More</t>
   </si>
   <si>
-    <t>Mark A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r169912569-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1832,9 +1610,6 @@
     <t>I checked in at 10:30pm and checked out at 2:00am.  My wife woke me because there was a bug crawling on the baby's blanket.  When I lifted the untucked part of the bed there were 50 more tick sized what I thought to be baby roaches.  My good friend is an exterminator and informed me that roaches dont infest beds, BED BUGS do.  They are so disgusting (more so than roaches he says) that he no longer takes BED BUG jobs.  The only reason we were at this hotel is because our softball team sponser had provided us with these rooms.  My wife and I were so disgusted by the fact that one probably crawled on our four month old baby we will never stay in a hotel room again unless we take our own beds.  I know its convenient for those who bring their families to parks nearby but unless you want to carry these small friends back home with you I highly suggest staying somewhere miles and miles away.  A couple of words to describe this place and I'll end this review, BIOHAZARD (harvest blood similar to a mosquito), INFESTATION, DEPLORABLE, REVOLTING.........More</t>
   </si>
   <si>
-    <t>ShadowLightning</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r168346172-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1851,9 +1626,6 @@
   </si>
   <si>
     <t>This place has to be the worst hotel I have ever stayed, and I've stayed at a lot if hotels. We left our room for about 5 1/2 hours to go swimming at Hurricane Harbor, the weather was bad and even though they have two shuttles, they wouldn't pick up 9 people((3 Adults and 6 calm kids)). We had to call a different hotel to pick us up. We were hoping to come back to clean room but it looked the same as we left. We were gone for 5 1/2 hours. The beds wasn't made, floor wasn't vacuumed, or anything. We called the front desk and all he did was make sorry excuses for himself. I am never staying here again. It sucks. More</t>
-  </si>
-  <si>
-    <t>McJayhawk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r157936233-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1881,9 +1653,6 @@
 We were there for NCAA basketball and it was about a 15-20 minute walk over to Cowboys Stadium.  On the way you pass Wendy's TGI Friday's, Hooters, Walgreens and a bunch of other resturants.  Parking ranged from...Wow.  Maybe they have remodeled or maybe we got a different room or maybe it is the off season, but this place is fine. I've stayed at 20 or 30 rooms just about like it over the years and a lot that were not as nice.  I was super concerned reading the reviews, but it is just a standard motel that has not recently been remodeled.  The front desk was friendly and got us right to our room.  The room was fine, with a small extra room that had an additional TV and a small love seat, refridgerator and microwave.  We didn't watch much TV but the reception was good. They weren't flat screens or super big, but again, at a Motel 6 or EconoLodge I don't expect that.    The shower was a little tricky to figure out how to operate but it worked.  The beds were compfortable.  The curtains didn't match the bed spread but I guess I sleep with my eyes closed so that didn't bother me, it might bother some.The breakfast room had recently been remodeled and has a tile floor and was nice.  Basic breakfast about like what I eat at home, cold cereal, milk, juice, toast, waffles.We were there for NCAA basketball and it was about a 15-20 minute walk over to Cowboys Stadium.  On the way you pass Wendy's TGI Friday's, Hooters, Walgreens and a bunch of other resturants.  Parking ranged from $20 up $40 so paying $65 or $70 for this motel makes it an even better deal.     I would definately stay there again.More</t>
   </si>
   <si>
-    <t>N2Whales</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r147968478-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1902,9 +1671,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>rcsone</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r141113790-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1923,9 +1689,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Huffyboy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r140957862-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1936,9 +1699,6 @@
   </si>
   <si>
     <t>Front desk understaffed. Unable to suggest somewhere to go for night life (were from out of town). We're told there was shuttle service from airport was not told "not from love field" found that out the hard way after a $50 cab ride. Rooms are old, dirty , and outdated. I'm watching the smallest tv ive ever seen right now while I'm looking at this brown stain on my comforter wondering what it could be. For location give it thumbs up but thats about it. The shuttle driver by the way is awesome. Another thumbs up.</t>
-  </si>
-  <si>
-    <t>Mark W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r139352112-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1964,9 +1724,6 @@
     <t>I booked this hotel at a very cheap rate for the cowboy classic at Dallas Stadium.  After reading all the reviews I was terrified that I had made a mistake.  Let me just say, I did not.  This hotel was exactly what I expected.  I mean it's an Econo Lodge for pete sake.  Were you expecting some beautiful suite?  We stayed in room 309.  It was worn but clean.  Everything worked.  Shower was fine, we had hot water, toilet flushed, all the lights worked, television was fine, bed was comfortable and no bed bugs, both the fridge and the microwave were clean and worked, the air conditioning kept up and wasn't loud.  The cleaning staff did a great job with our room everyday.  The front desk was friendly and helpful.  I was so relieved that the hotel snobs didn't keep me from rebooking a new hotel which would have cost a lot more.
 Now having said all that, It certainly wasn't perfect.  Our room was near a lobby area which at times was very loud.  The ice machine was near our door and was loud as well.  The room does have a very distinct cleaning smell, but you get used to it after you have been in the room for a while.  We did not go the the pool, but it looks very small.  The free breakfast is a joke - skip it.
 As I said before, the room is...I booked this hotel at a very cheap rate for the cowboy classic at Dallas Stadium.  After reading all the reviews I was terrified that I had made a mistake.  Let me just say, I did not.  This hotel was exactly what I expected.  I mean it's an Econo Lodge for pete sake.  Were you expecting some beautiful suite?  We stayed in room 309.  It was worn but clean.  Everything worked.  Shower was fine, we had hot water, toilet flushed, all the lights worked, television was fine, bed was comfortable and no bed bugs, both the fridge and the microwave were clean and worked, the air conditioning kept up and wasn't loud.  The cleaning staff did a great job with our room everyday.  The front desk was friendly and helpful.  I was so relieved that the hotel snobs didn't keep me from rebooking a new hotel which would have cost a lot more.Now having said all that, It certainly wasn't perfect.  Our room was near a lobby area which at times was very loud.  The ice machine was near our door and was loud as well.  The room does have a very distinct cleaning smell, but you get used to it after you have been in the room for a while.  We did not go the the pool, but it looks very small.  The free breakfast is a joke - skip it.As I said before, the room is worn.  The furniture is old, the carpet needs to be replaced and it has more of a cabin feel than a hotel.  But it was CLEAN!If you are looking for a luxury suite, this is not it.  But if you are looking for a reasonably priced hotel within walking distance to just about everything then this hotel would work for you.More</t>
-  </si>
-  <si>
-    <t>Keyboardlady</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r139308033-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -1992,7 +1749,7 @@
 +hotel lobby seems recently redecorated and the breakfast room area was as well
 ROOM:
 +Two double beds and a fold out love seat for a great price
-+Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired...My husband (63) and I (58) spent Labor Day weekend at this hotel; we attended an event at Dallas Cowboy Stadium.  We are not (obviously) high-end travelers and chose this primarily for its location and that we are Choice Privileges members and have generally been comfortable with their line of acccommodations.LOCATION:+EXTREMELY easy-on, easy-off of I-30.+FREE hotel shuttle runs to/from DFW Int'l airport (we didn't use it so cannot comment on it other than it exists)-Hotel shuttle DOES NOT run to Dallas Love Field (where we flew into)+++If you are attending an event at Cowboy Stadium or the Texas Rangers field, you can easily WALK THERE.  In fact, it cost us less for one night lodging and a place to park the rental car than some of the signs I saw for parking.  The walk is &lt;one mile and it is safe, easy and you pass many restaurants if you want to eat in the vicinity as wellPHYSICAL PLANT:-this is an older property in much need of a facelift; outdoor railings needed paint; it looks a little sad+hotel lobby seems recently redecorated and the breakfast room area was as wellROOM:+Two double beds and a fold out love seat for a great price+Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired for the amenities of a restaurant meal-Kitchen is stocked with virtually nothing;  we had 2 dinner plates, 2 salad bowls, 2 coffee mugs and 2 soup spoons.  No dish towels, hot pads, other tableware, glassware, etc. etc. etc.+I did ask at the desk for two forks and knives and they happily provided them -- not even plastic ones!+Bathroom sufficient for the two of us, but small if you have a family--Bathtub quite obviously had been damaged at one time to the extent that either the floor of the tub cracked or something heavy fell in it and broke the bottom.  Instead of replacing the tub, somehow they managed to epoxy a large piece of something that reminded me of shelf lining paper over the hole+Decorative elements (bedspreads, draperies, carpet) were in good condition and seemed fairly new+Beds comfortable-Housekeeping so-so.  We stayed three nights; first day I had to call and ask for towels (was told the laundry was 'behind') and housekeepers didn't do anything with the paltry few dirty dishes we had in the sink.  (I'd have washed them, but again, no dishwashing detergent, etc)+Air conditioned-Window air conditioners are...MoreShow less</t>
++Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired...My husband (63) and I (58) spent Labor Day weekend at this hotel; we attended an event at Dallas Cowboy Stadium.  We are not (obviously) high-end travelers and chose this primarily for its location and that we are Choice Privileges members and have generally been comfortable with their line of acccommodations.LOCATION:+EXTREMELY easy-on, easy-off of I-30.+FREE hotel shuttle runs to/from DFW Int'l airport (we didn't use it so cannot comment on it other than it exists)-Hotel shuttle DOES NOT run to Dallas Love Field (where we flew into)+++If you are attending an event at Cowboy Stadium or the Texas Rangers field, you can easily WALK THERE.  In fact, it cost us less for one night lodging and a place to park the rental car than some of the signs I saw for parking.  The walk is &lt;one mile and it is safe, easy and you pass many restaurants if you want to eat in the vicinity as wellPHYSICAL PLANT:-this is an older property in much need of a facelift; outdoor railings needed paint; it looks a little sad+hotel lobby seems recently redecorated and the breakfast room area was as wellROOM:+Two double beds and a fold out love seat for a great price+Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired for the amenities of a restaurant meal-Kitchen is stocked with virtually nothing;  we had 2 dinner plates, 2 salad bowls, 2 coffee mugs and 2 soup spoons.  No dish towels, hot pads, other tableware, glassware, etc. etc. etc.+I did ask at the desk for two forks and knives and they happily provided them -- not even plastic ones!+Bathroom sufficient for the two of us, but small if you have a family--Bathtub quite obviously had been damaged at one time to the extent that either the floor of the tub cracked or something heavy fell in it and broke the bottom.  Instead of replacing the tub, somehow they managed to epoxy a large piece of something that reminded me of shelf lining paper over the hole+Decorative elements (bedspreads, draperies, carpet) were in good condition and seemed fairly new+Beds comfortable-Housekeeping so-so.  We stayed three nights; first day I had to call and ask for towels (was told the laundry was 'behind') and housekeepers didn't do anything with the paltry few dirty dishes we had in the sink.  (I'd have washed them, but again, no dishwashing detergent, etc)+Air conditioned-Window air conditioners are always loud in my opinion and this was no exceptionPOOL AREA:+That this is an older property means the foliage in this area is large enough to make shady spots.  A real plus when it was 100 degrees plus!+A covered patio is adjacent to pool area-Two vending machines in this patio area were out of order and/or empty+Pool itself is small, but nice.  One area is only 3 feet deep; another ranges from 4-5 feet.  The larger pool has a common, tiled wall with the shallower pool and the outdoor spa.  Kind of interesting in that one pool 'spills over' into the next-Pool towels nearly nonexistantBREAKFAST:+Breakfast room seemed newly renovated, very neat, clean airy-contintental breakfas merely ho-hum.  Coffee freshly brewed and good; two kinds of cold cereal, bananas only fruit; bagels, bread (white only) for toast and run-of-the-mill muffins.  You can make your own waffle, though.  OJ seemed watered down too much.MISCELLANEOUS:+Hotel offered an event shuttle to Cowboy Stadium; one-way only for $5.  They'd take us there, but we'd walk back.-Chose not to do the shuttle as first one was only one hour before our event time.  Given the long lines we encountered at the stadium, had we taken the shuttle from the hotel we'd have missed the beginning of our event+A computer in the lobby with printer made it convenient to print our boarding passes-Ice machine on our floor broken+++Staff extremely friendly and helpful.Overall, this worked for us for the price we paid.  BTW -- I booked this room one year in advance of knowing we'd be at the stadium when we were.If you are headed to Cowboy Stadium and want the leisure of walking there and back and/or walking to several area restaurants without fear of crime, traffic, etc. this is a great location.  I'd go back IF attending an event there.  If not, for a few more bucks I think I may have been able to find something a wee bit better.KUDOS to the staff for being extra courteous, helpful and making the best of what they're working in.MoreShow less</t>
   </si>
   <si>
     <t>My husband (63) and I (58) spent Labor Day weekend at this hotel; we attended an event at Dallas Cowboy Stadium.  We are not (obviously) high-end travelers and chose this primarily for its location and that we are Choice Privileges members and have generally been comfortable with their line of acccommodations.
@@ -2006,10 +1763,7 @@
 +hotel lobby seems recently redecorated and the breakfast room area was as well
 ROOM:
 +Two double beds and a fold out love seat for a great price
-+Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired...My husband (63) and I (58) spent Labor Day weekend at this hotel; we attended an event at Dallas Cowboy Stadium.  We are not (obviously) high-end travelers and chose this primarily for its location and that we are Choice Privileges members and have generally been comfortable with their line of acccommodations.LOCATION:+EXTREMELY easy-on, easy-off of I-30.+FREE hotel shuttle runs to/from DFW Int'l airport (we didn't use it so cannot comment on it other than it exists)-Hotel shuttle DOES NOT run to Dallas Love Field (where we flew into)+++If you are attending an event at Cowboy Stadium or the Texas Rangers field, you can easily WALK THERE.  In fact, it cost us less for one night lodging and a place to park the rental car than some of the signs I saw for parking.  The walk is &lt;one mile and it is safe, easy and you pass many restaurants if you want to eat in the vicinity as wellPHYSICAL PLANT:-this is an older property in much need of a facelift; outdoor railings needed paint; it looks a little sad+hotel lobby seems recently redecorated and the breakfast room area was as wellROOM:+Two double beds and a fold out love seat for a great price+Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired for the amenities of a restaurant meal-Kitchen is stocked with virtually nothing;  we had 2 dinner plates, 2 salad bowls, 2 coffee mugs and 2 soup spoons.  No dish towels, hot pads, other tableware, glassware, etc. etc. etc.+I did ask at the desk for two forks and knives and they happily provided them -- not even plastic ones!+Bathroom sufficient for the two of us, but small if you have a family--Bathtub quite obviously had been damaged at one time to the extent that either the floor of the tub cracked or something heavy fell in it and broke the bottom.  Instead of replacing the tub, somehow they managed to epoxy a large piece of something that reminded me of shelf lining paper over the hole+Decorative elements (bedspreads, draperies, carpet) were in good condition and seemed fairly new+Beds comfortable-Housekeeping so-so.  We stayed three nights; first day I had to call and ask for towels (was told the laundry was 'behind') and housekeepers didn't do anything with the paltry few dirty dishes we had in the sink.  (I'd have washed them, but again, no dishwashing detergent, etc)+Air conditioned-Window air conditioners are...More</t>
-  </si>
-  <si>
-    <t>Art R</t>
++Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired...My husband (63) and I (58) spent Labor Day weekend at this hotel; we attended an event at Dallas Cowboy Stadium.  We are not (obviously) high-end travelers and chose this primarily for its location and that we are Choice Privileges members and have generally been comfortable with their line of acccommodations.LOCATION:+EXTREMELY easy-on, easy-off of I-30.+FREE hotel shuttle runs to/from DFW Int'l airport (we didn't use it so cannot comment on it other than it exists)-Hotel shuttle DOES NOT run to Dallas Love Field (where we flew into)+++If you are attending an event at Cowboy Stadium or the Texas Rangers field, you can easily WALK THERE.  In fact, it cost us less for one night lodging and a place to park the rental car than some of the signs I saw for parking.  The walk is &lt;one mile and it is safe, easy and you pass many restaurants if you want to eat in the vicinity as wellPHYSICAL PLANT:-this is an older property in much need of a facelift; outdoor railings needed paint; it looks a little sad+hotel lobby seems recently redecorated and the breakfast room area was as wellROOM:+Two double beds and a fold out love seat for a great price+Full size fridge, range, microwave and double sink was handy for keeping drinks and food cool; baking a 'take and bake' pizza our first night when were too tired for the amenities of a restaurant meal-Kitchen is stocked with virtually nothing;  we had 2 dinner plates, 2 salad bowls, 2 coffee mugs and 2 soup spoons.  No dish towels, hot pads, other tableware, glassware, etc. etc. etc.+I did ask at the desk for two forks and knives and they happily provided them -- not even plastic ones!+Bathroom sufficient for the two of us, but small if you have a family--Bathtub quite obviously had been damaged at one time to the extent that either the floor of the tub cracked or something heavy fell in it and broke the bottom.  Instead of replacing the tub, somehow they managed to epoxy a large piece of something that reminded me of shelf lining paper over the hole+Decorative elements (bedspreads, draperies, carpet) were in good condition and seemed fairly new+Beds comfortable-Housekeeping so-so.  We stayed three nights; first day I had to call and ask for towels (was told the laundry was 'behind') and housekeepers didn't do anything with the paltry few dirty dishes we had in the sink.  (I'd have washed them, but again, no dishwashing detergent, etc)+Air conditioned-Window air conditioners are always loud in my opinion and this was no exceptionPOOL AREA:+That this is an older property means the foliage in this area is large enough to make shady spots.  A real plus when it was 100 degrees plus!+A covered patio is adjacent to pool area-Two vending machines in this patio area were out of order and/or empty+Pool itself is small, but nice.  One area is only 3 feet deep; another ranges from 4-5 feet.  The larger pool has a common, tiled wall with the shallower pool and the outdoor spa.  Kind of interesting in that one pool 'spills over' into the next-Pool towels nearly nonexistantBREAKFAST:+Breakfast room seemed newly renovated, very neat, clean airy-contintental breakfas merely ho-hum.  Coffee freshly brewed and good; two kinds of cold cereal, bananas only fruit; bagels, bread (white only) for toast and run-of-the-mill muffins.  You can make your own waffle, though.  OJ seemed watered down too much.MISCELLANEOUS:+Hotel offered an event shuttle to Cowboy Stadium; one-way only for $5.  They'd take us there, but we'd walk back.-Chose not to do the shuttle as first one was only one hour before our event time.  Given the long lines we encountered at the stadium, had we taken the shuttle from the hotel we'd have missed the beginning of our event+A computer in the lobby with printer made it convenient to print our boarding passes-Ice machine on our floor broken+++Staff extremely friendly and helpful.Overall, this worked for us for the price we paid.  BTW -- I booked this room one year in advance of knowing we'd be at the stadium when we were.If you are headed to Cowboy Stadium and want the leisure of walking there and back and/or walking to several area restaurants without fear of crime, traffic, etc. this is a great location.  I'd go back IF attending an event there.  If not, for a few more bucks I think I may have been able to find something a wee bit better.KUDOS to the staff for being extra courteous, helpful and making the best of what they're working in.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r136304122-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -2033,9 +1787,6 @@
     <t>In town for Restoring Love event. 5 night stay. Good news: Walking distance to Cowboys Stadium and some good restraurants. Bad news: Rooms reminient of concrete military barracks in mid 70's. (same decor)  2 queen beds were beyond worn out as they bowed in the middle and were about 18" from floor. Should have been replaced 5 yrs ago. Shower controls beyond comprehesion, always too hot. Breakfast, ah the hot breakfast... waffles, toast and coffee. Toaster burned the toast at lowest setting. Cold cereal, no fruit, no yogurt, no eggs (hard boiled or scrambled). (Waffle House across Collins St) Guest laundry (2  machines) but no soap available. Told by front desk it could be purchased at Walgreens (1/2 mi) or Walmart (1 mi). Note: Great coin op laundry behind Walmart. I would say this is the worse "Choice Hotel" in their system and should be dropped.More</t>
   </si>
   <si>
-    <t>RoyalMI</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r136047600-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2051,9 +1802,6 @@
     <t>I was in town for Restoring Love and wanted a hotel with a good location and a lower price.  Well, the location was awesome, and the price was reasonable, but I have learned a valuable lesson.  You get what you pay for!  We were there for 3 nights.  The pillows were awful, the bed was not comfortable, the sofabed was dirty and stained so that I was afraid to leave anything sitting on it.  The toilet would not flush, the shower never got hot.  The carpet was dirty.  This hotel is old and out of date and needs refurbishing immediately!</t>
   </si>
   <si>
-    <t>Suprise3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r136010757-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2072,9 +1820,6 @@
     <t>Yes, it's cheaper and you know why? It's filthy, stinks, and got bugs. YES, BUGS. They had bed bugs and took matresses out to the dump and sprayed them and after two days...Put them back in the rooms. REALLY...The only reason it's cheaper is they cannot get people to pay more or they would bolt soon as they see the inside. I should have taken the hint when five people who checked in before me came to get a refund while I was checking in. This is no joke. I would have checked out but they would not give me a refund. I tried to check out with in 15 minutes of checking in and they would not give me a refund. They didn't give the 5 who tried to get a refund while I was in line either. The bedspreads are atleast 25 years old, the curtains have stains and torn, the carpet turns your feet black when when walked upon, sofa is stained and disqusting, and don't even look in the bathroom. If you book with them, you will loose your money and stay at a "Roach Motel". The only good reviews are written by the owner and it's staff. I heard them bragging about it when I was in line to get a refund. Which I never got...I had to complain to my charge card company and show supporting documents where I checked out less than 30...Yes, it's cheaper and you know why? It's filthy, stinks, and got bugs. YES, BUGS. They had bed bugs and took matresses out to the dump and sprayed them and after two days...Put them back in the rooms. REALLY...The only reason it's cheaper is they cannot get people to pay more or they would bolt soon as they see the inside. I should have taken the hint when five people who checked in before me came to get a refund while I was checking in. This is no joke. I would have checked out but they would not give me a refund. I tried to check out with in 15 minutes of checking in and they would not give me a refund. They didn't give the 5 who tried to get a refund while I was in line either. The bedspreads are atleast 25 years old, the curtains have stains and torn, the carpet turns your feet black when when walked upon, sofa is stained and disqusting, and don't even look in the bathroom. If you book with them, you will loose your money and stay at a "Roach Motel". The only good reviews are written by the owner and it's staff. I heard them bragging about it when I was in line to get a refund. Which I never got...I had to complain to my charge card company and show supporting documents where I checked out less than 30 minutes after I checked in and showed my new hotel bill where I stayed in that city. Stay at your own risk.More</t>
   </si>
   <si>
-    <t>Henson00</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r134835302-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2093,9 +1838,6 @@
     <t>Trust me..stay somewhere else.  We checked in stayed one night.  The rooms are old and musty, the toilet would not flush, the shower would not drain, the beds are awful, lamps are barely hanging on the wall (sideways).  Looked like a great place to shoot a horror movie. As soon as we got into the room, my sons says "mom are we really staying here" he thought it was a prank.  Next day we moved down the street to the Crowne Plaza for about $25 more total for two nights.  But this is what angered me the most.  The girl at the desk tried to sell us trolley passes for $40 each.  Which we needed them, luckily I didnt by them from the Econo lodge.  The next day at crowne plaza they were given to us free....wow..So you mom's out there, from me to you do not take your family to this dump.More</t>
   </si>
   <si>
-    <t>amcool68</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r133876136-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2117,9 +1859,6 @@
     <t>The price was good. There was a lot of space.  We got a suite 2 queen beds with a pull out sofa. It was conveniently located. There is a smell when we went into the room. After being there for 15 minutes, we were sweating and realized the air was not working.  Not a good thing when it is 105 degrees outside. We requested another room and when we walked into the room there was a very very strong scent of cat urine.  It was overpowering.  We requested a 3rd room or a refund.  The 3rd room as average, had a moldy smell but tolerabe for 1 night.  The Rooms were outdated, the Sofas and beds looked hold. The floor had stains, the shower did not get hot.  We realized that this is a pet friendly hotel and there were many people who had their pets with them.  If you are not a pet person and/or does not like the smell of pet in your space then this hotel is not for you.  My daughter kept getting bit on her legs and had bite marks all over her legs in the morning (probably from fleas). For us, the price was not worth it. In the future I would rather pay a little more for a better more comfortable stay.  This hotel was horrible.  I would not recommend it! We were so disgusted by the rooms and the hotel that we...The price was good. There was a lot of space.  We got a suite 2 queen beds with a pull out sofa. It was conveniently located. There is a smell when we went into the room. After being there for 15 minutes, we were sweating and realized the air was not working.  Not a good thing when it is 105 degrees outside. We requested another room and when we walked into the room there was a very very strong scent of cat urine.  It was overpowering.  We requested a 3rd room or a refund.  The 3rd room as average, had a moldy smell but tolerabe for 1 night.  The Rooms were outdated, the Sofas and beds looked hold. The floor had stains, the shower did not get hot.  We realized that this is a pet friendly hotel and there were many people who had their pets with them.  If you are not a pet person and/or does not like the smell of pet in your space then this hotel is not for you.  My daughter kept getting bit on her legs and had bite marks all over her legs in the morning (probably from fleas). For us, the price was not worth it. In the future I would rather pay a little more for a better more comfortable stay.  This hotel was horrible.  I would not recommend it! We were so disgusted by the rooms and the hotel that we refused to take part in the free breakfast.More</t>
   </si>
   <si>
-    <t>jt_28</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r133210580-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2135,9 +1874,6 @@
     <t xml:space="preserve">We stayed there on a Saturday for a Rangers game. We got a queen &amp; king for around $100 when most hotels in the area were a lot more. They have a free trolley that takes you to the ballpark. Our shower didn't work too good. There was a bad stain on the bed but the mattress covered it after I pushed it over. I felt like I was getting bit all night.  For the location &amp; price, it was ok. </t>
   </si>
   <si>
-    <t>Diana G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r132236647-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2156,9 +1892,6 @@
     <t>The best thing that could happen here is to tear it down and start over.  Bathtub had a huge hole in it that the covered with a mat, ceiling was cracked and looked like it could fall in at anytime.  When we arrived one of the lamps had fallen off the wall and was hanging against the other one, my husband went to the front desk and reported,they were to send housekeeping, they never showed.  In fact the first night we stayed housekeeping NEVER showed up.  I called down to the front desk at 5:30 and ask if they could please send me some fresh towels, soap and shampoo, the lady said well you can come down and get them, I am the only one here.  I told her NO, you get someone to bring them to me, that is what I am paying for and if housekeeping had been here like they were suppose to I wouldn't be calling.  Housekeeping came the next day and we got fresh towels, but NOT fresh sheets.  They put the same ones back on our beds.  My 18 month old had spilled red juice on the sheets and that night when I pulled back the blanet there it was the same stain.  WOW...the next day I went to iron my pants and the iron fell apart in my hand.  I took pictures of everything but they don't tell the real story.  The grass...The best thing that could happen here is to tear it down and start over.  Bathtub had a huge hole in it that the covered with a mat, ceiling was cracked and looked like it could fall in at anytime.  When we arrived one of the lamps had fallen off the wall and was hanging against the other one, my husband went to the front desk and reported,they were to send housekeeping, they never showed.  In fact the first night we stayed housekeeping NEVER showed up.  I called down to the front desk at 5:30 and ask if they could please send me some fresh towels, soap and shampoo, the lady said well you can come down and get them, I am the only one here.  I told her NO, you get someone to bring them to me, that is what I am paying for and if housekeeping had been here like they were suppose to I wouldn't be calling.  Housekeeping came the next day and we got fresh towels, but NOT fresh sheets.  They put the same ones back on our beds.  My 18 month old had spilled red juice on the sheets and that night when I pulled back the blanet there it was the same stain.  WOW...the next day I went to iron my pants and the iron fell apart in my hand.  I took pictures of everything but they don't tell the real story.  The grass was high and there were beer bottles throw around, just plain nasty.   Ice maker didn't work, breakfast was horrible and the staff working the breakfast was even worse.  I have stayed at a lot of hotels in my days and I can truely say this was the WORST!!!  Run, Run, as fast as you can to another place, don't stay here!More</t>
   </si>
   <si>
-    <t>Charla H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r131798912-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2177,9 +1910,6 @@
     <t>There for a concert at Cowboys Stadium. The room had a funky smell to it.  The bottom of the refrigerator door was filthy (we had a deluxe room).  We saw a Brown German Cockroach crawling on the ceiling over the bed as we were getting ready to leave. Room next to us was getting redone and I saw a HUGE bottle of bug spray in there - now I know why that bug was in our room!!  The closet door wouldn't open and the mirrors on it were cracked in 3+ places.  There were no dish towels or paper towels for the kitchenette.  The door to the room had a huge gap between it and the floor - a mouse could have easily made his way in.  There was only one ice machine for the entire hotel and it was on the 3rd floor close to the office *we were on the backside on the 1st floor*  The breakfast was 'ok' - Belgian waffles, bananas, muffins, bagels, bread for toast, two kinds of cereal, orange and apple juice.  It was a good thing we were there for only one night.  Will not stay there again.  I believe we were overcharged.  Will stay at Comfort Inn and Suites next time.More</t>
   </si>
   <si>
-    <t>Adasha K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r126542212-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2201,9 +1931,6 @@
     <t>I asked for a downstairs room, handicapped accessible.  The desk clerk felt our room would be ok on the third floor because they have an elevator.  Well, it's all outside and our room was at the complete opposite side of the hotel as the elevator.  Our ice machine on our floor did not work.  We asked for more pillows and were told they had no one to get them out for us.  They were so small that one of theirs equalled 1/3 of a normal one.  The a/c cover blew off while there.  The morning of check out we were harassed first by cleaning staff, then by the office calling over and over until we could get all of our things downstairs.  They only made one bed while there.  Not a good location.  Not a good experience...More</t>
   </si>
   <si>
-    <t>Beth M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r122091786-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2222,9 +1949,6 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>WestTxSkeptic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r118324566-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2243,9 +1967,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Rastadog</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r117802758-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2261,9 +1982,6 @@
     <t>This one of the many hotels near Cowboys Stadium and from what I can tell one of the worst. The staff was nice, but frankly they don't have much to work with. So, unless you're desperate, keep looking. You'll do better this."</t>
   </si>
   <si>
-    <t>MetheDuck</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r117720907-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2277,9 +1995,6 @@
   </si>
   <si>
     <t>This is the worst motel we've stayed in in 20 years. No hot water, door locks are iffy and sofa sleeper is old and uncomfortable. We had to fetch our own towels and get in their face to get a blanket. Post-game partying went on, unimpeded, until 3 am. The only thing this place has going for it is proximity to Cowboys Stadium. And it's not all that close either. A miserable experience.</t>
-  </si>
-  <si>
-    <t>Texasgirl2001</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r116043167-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -2307,9 +2022,6 @@
  The mattresses are awful and very old and it leaned to one side.  Sheets and comforter were old, stained and felt like they weren't cleaned.  The pull out bed was falling apart.  My young sons whose combined weight is less than 80 pounds made the pull out mattress sag.  They didn't get pillows  or addition blankets (beside sheets) because the...The only good thing about this place is the pool &amp; location.  When we were at the hotel we spend most of the time at the nicely shaded pool and out of our room.Stayed here in the 2 room suite (if you would call it that).  It's 2 bedrooms and 1 kitchen/living area.  The rooms overall have a very used/ rough look to it.  Banged/ busted up old furniture.   There is no a/c in 1 room. They have an exhaust fan to blow air into the bedroom.  The other bedroom with its own a/c barely kept the room cool. Lobby is nice and renovated and rooms are very old and disgusting! Carpet was stained and nasty.  My 11 month old did not touch the floor at all there. No exhaust fan in bathroom- so the steam gets bad when you shower and yes we did run out of hot water quick.  1 toilet ran the whole time.  Shower was nasty and small.  We didn't have enough towels for all of us and neither did the front desk when asked. The mattresses are awful and very old and it leaned to one side.  Sheets and comforter were old, stained and felt like they weren't cleaned.  The pull out bed was falling apart.  My young sons whose combined weight is less than 80 pounds made the pull out mattress sag.  They didn't get pillows  or addition blankets (beside sheets) because the hotel ran out!?!  Walkways around are dirty and have very dark places- I would never venture out after dark on those grounds.  I always kept the door locked.  There were some pretty seedy guests staying in hotel.Will never stay there again.  I was so temped to sleep in my minivan- it would have been much more comfortable and cleaner.More</t>
   </si>
   <si>
-    <t>fshg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r115731860-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2331,9 +2043,6 @@
     <t>I rang this hotel and told them I had read bad reviews and they assured me that they were under new management and things were better.  REALLY.  2 high lights, Leanord and Melissa.  Manager did her duty....There was nothing to cook with when we got there...OK we can get some stuff.  Luckily we took paper plates with us so we had something to eat off.  The A/C in one room was working the other A/C...not so good.  The toilet in one bathroom kept running.  It is an older hotel (at least I think it is) so I can forgive some of the faults.  The fact that the Fire alarm went off and no one seemed the least bit worried was unbelivable.  But above all, and this I know is our own fault but good grief, a plush rose of my daughters was taken.  To top it off her DSI which was in a drawer covered with clothing was STOLEN too.  If it had been out on view I would take full responsibilty for the loss but it was in a drawer under clothing...Maybe thats why they didn't make up one of the rooms the day before we left...too busy searching for things to steal!  I would not recommend this hotel, not to anyone.More</t>
   </si>
   <si>
-    <t>Charlotte K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r110956144-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2352,9 +2061,6 @@
     <t>May 2011</t>
   </si>
   <si>
-    <t>SMiller78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r100999494-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2376,9 +2082,6 @@
     <t>Stayed here for the superbowl.  Withing walking distance of the stadium plus an enormous amount of restaurants and shops in Lincoln Square.  Free shuttle service to and from the airport and anywhere within a 5 mile radius.  The staff was excellent and accomodating.  The free continental breakfast was great plus they have a social hour weeknights (they had it on the weekend too, for the superbowl) with free beer and wine, and snacks and hors d'oervres.  Our suite was very nice (full kitchen), and I had the best nights sleep on one of the most comfortable king size beds ever.  I highly recommend this hotel and would stay here again when visiting Arlington.More</t>
   </si>
   <si>
-    <t>txcharm71</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r100997463-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2397,9 +2100,6 @@
     <t>We checked in on Thur. and had asked for 2 rooms next to each other since our children were staying in their own room.  The rooms were on opposite sides of the building !  My son found a crack pipe in his room on the floor and had a couch bed with yellow sheets, the room was so filthy our feet were black from walking on it barefooted.  There was no hot water in either room.   I contacted the front desk about the finding and was told " We can put you in another room"  No biggy right?  We left and spent the day at 6 Flags and after returning, still had not been contacted about our findings or concerns.  Friday night, we spoke with another family who stated they had found marijuana in their room and they did not have hot water either, another family also had black feet from the carpet and the cleaning staff had left their room wide open after cleaning it, they were gone all day at Six Flags and did not know their room was left open.  Upon check out, I called the front desk again and asked about contacting mangement, I was told by the staff " How do we know it's not your pipe, how do we know you didnt bring it with you" and was rudely hung up on.  After fighting with the staff and speaking to a "manager"  we were...We checked in on Thur. and had asked for 2 rooms next to each other since our children were staying in their own room.  The rooms were on opposite sides of the building !  My son found a crack pipe in his room on the floor and had a couch bed with yellow sheets, the room was so filthy our feet were black from walking on it barefooted.  There was no hot water in either room.   I contacted the front desk about the finding and was told " We can put you in another room"  No biggy right?  We left and spent the day at 6 Flags and after returning, still had not been contacted about our findings or concerns.  Friday night, we spoke with another family who stated they had found marijuana in their room and they did not have hot water either, another family also had black feet from the carpet and the cleaning staff had left their room wide open after cleaning it, they were gone all day at Six Flags and did not know their room was left open.  Upon check out, I called the front desk again and asked about contacting mangement, I was told by the staff " How do we know it's not your pipe, how do we know you didnt bring it with you" and was rudely hung up on.  After fighting with the staff and speaking to a "manager"  we were paid back for 1 room at 2 nights pay but the other families had not be refunded as of Monday after our stay.  The trolly did not  come on time and over all, the trip was a total loss!More</t>
   </si>
   <si>
-    <t>seraina11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r98462994-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2421,9 +2121,6 @@
     <t>My school booked me at Econo Lodge for 5 Weeks. Staff was very friendly  - sometimes pick up from / to school was "challenging" because other students (the last two weeks) stayed at the same place and we have taken privat car to drive to school because of missing space. Larry was very kind - thanks a lot! The Gym was (for my opinion) not very clean. Towels were not replaced and it took some minutes to open the door! The Pool area was great just in front of my room.In the room were some "smokers hole" in the table, otherwise the room was good. Sometimes just very hot water for 10mins because the  boiler was closed to the room.Thanks to all staff to support me during my  learning phase.Kind regards from Switzerland, SerainaMore</t>
   </si>
   <si>
-    <t>DavidCThompson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r92430070-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2442,9 +2139,6 @@
     <t>January 2011</t>
   </si>
   <si>
-    <t>KQManagement</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r84770917-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2472,9 +2166,6 @@
     <t>Stayed Saturday night to go to Ranger Baseball Game with New York Yankess, Paid $151+ for suite plus $10.00 to check in at 1:00 instead of 3:00 (Ranger game started at 3:00).  I was okay with those charges but there was a pending charge for over a week of $5.00 on my debit card.  So I called the motel and was told it was because 1 medium towel was damaged.  Ladies I suggest you wash your face and eyes with your own towel.  Or go to the local Dollar Tree and buy one for $1.00.  I will not be using this motel chain again.  That is ridiculous!!!!!!!!More</t>
   </si>
   <si>
-    <t>bsjg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r83034235-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2493,9 +2184,6 @@
     <t>Complete DUMP ! $169 for a suite that was suppose to have two queen beds and a sleeper sofa. I got two double beds and a sleeper sofa from the 80 s ! Took about ten times of trying the lock to get in the room. Once I got in I got stained and torn carpet, noisy a/c, patched holes in the walls, hole in the bathroom door, small OLD tv's one only got static ! Here is the best part....the fire alarm goes off at 3:37 a.m. in the room ! I only stayed here because my daughter and I went to SixFlags and every hotel in the area was sold out ! NEVER AGAIN ! More</t>
   </si>
   <si>
-    <t>Bliles</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r75463239-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2517,9 +2205,6 @@
     <t>We were in town for a getaway weekend and a Rangers game.  This hotel had a shuttle to and from the ballpark and was very nearby, and the rates were good, so we stayed here.  The room was very outdated and everything in it was old - didn't want to touch anything.  The sheets on the bed were threadbare, although the bed itself was quite comfortable.  There was a long black hair on the coffee pot.  The exposed side of the refrigerator was covered with rusty spots.  When we returned from the ballgame (after waiting nearly an hour for the shuttle on a 106 degree day), the ONE ice machine for the entire building was empty.  The front desk said we would just have to wait.  They serve breakfast and have ice in the kitchen, but they were unwilling to let us have any of that ice when we asked.If all you need is a bed to sleep in and can ignore your surroundings, this place is OK.  If you expect things to be clean and nice, or courtesy from the desk staff, forget it.  I have stayed in budget hotels before, and they can be nice with courteous staff, but not here.More</t>
   </si>
   <si>
-    <t>Msnadia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r75344404-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2538,9 +2223,6 @@
     <t>We arrived at this hotel,around 3 if we came before then it would be an extra 20$ finally got into the room the boys bathroom had no towels,our bathroom shower knob was broken,the toilet would'nt hardly flush...that was only the beginning.The hotel offers a trolley to take us to various sites around Arlington,we stayed on the trolley for an hour with no air!!! So we decided to come back and take our car,after having a bad experience,we get back to our hotel take a shower..pull back the covers they had a flat sheet on our King Size bed.my daughters pull out sofa bed had holes in her fitted sheet. I would not recommend this hotel to a cat,this was the worst experience i've ever had.More</t>
   </si>
   <si>
-    <t>10Mickey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r66778148-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2559,9 +2241,6 @@
     <t>Upon arrival the lobby was nice and clean but rather warm I thought "OMG, I sure hope that the A/C in the rooms are working".  The staff at the front desk was friendly.  So now we are all checked in, have our key cards and what's next.  I entered my room, it was nice and clean but it wasn't even warm in there it was HOT.  We all got settled in and as we were leaving I informed the front desk of the A/C and when we returned it was working but guess what it wasn't working in what I guess was the master bedroom and the A/C setting was 60 degrees.  The poor iron, Lord I had to keep plugging and unplugging it for it to work.  The kitchen wasn't equipped for cooking.  Grant it the kitchen was nice, it has a stove, sink, refrigerator and a microwave but where's the utensils, pots and pans.  Who travels with pots and pans unless you have an RV.  If they were were available upon request we did know about it.  The party traveling with me also had complaints.  One had no microwave, an iron with no ironing board, the other one had major A/C problems.  When she reported it maintenance came with a flashlight shined it on the A/C said it was fine and left, evendentually her definition of cold and his definition of cold was different .  The next morning...Upon arrival the lobby was nice and clean but rather warm I thought "OMG, I sure hope that the A/C in the rooms are working".  The staff at the front desk was friendly.  So now we are all checked in, have our key cards and what's next.  I entered my room, it was nice and clean but it wasn't even warm in there it was HOT.  We all got settled in and as we were leaving I informed the front desk of the A/C and when we returned it was working but guess what it wasn't working in what I guess was the master bedroom and the A/C setting was 60 degrees.  The poor iron, Lord I had to keep plugging and unplugging it for it to work.  The kitchen wasn't equipped for cooking.  Grant it the kitchen was nice, it has a stove, sink, refrigerator and a microwave but where's the utensils, pots and pans.  Who travels with pots and pans unless you have an RV.  If they were were available upon request we did know about it.  The party traveling with me also had complaints.  One had no microwave, an iron with no ironing board, the other one had major A/C problems.  When she reported it maintenance came with a flashlight shined it on the A/C said it was fine and left, evendentually her definition of cold and his definition of cold was different .  The next morning she was told that they have had problems with the A/C in that room and moved her to another room.  "Hello" fix the A/C or don't assign the room.  I guess there is a shortage of tissue and towels.  We asked for tissue, didn't get it.  I call for towels a little after 6 pm didn't get them.  I call for towels again after 12 am and was told that housekeeping wasn't there and I would have to come and get them myself yet and still they did not have all of what I asked for.  The carpet was stained, not an issue for me.  The sheet on the twin sleep sofa was torn was an issue for me.  At check out their was a misunderstanding.  I didn't think the clerk explain all the information clearly enough.  Not only was their one with me but one with the gentlemen ahead of me.  Overall I would say that this hotel was descent, would I recommend it, NO.  The location was good, the price was good and we got what we paid for.More</t>
   </si>
   <si>
-    <t>snuggles64</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r58656058-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2583,9 +2262,6 @@
     <t>My family and I went for a family function. We got to the room and the door was easy to open without the room key. We didnt have hot water, and other guests were complaining about the hot water. We left for the day and when we returned at 11:00 p.m. our room was not cleaned. Our used towels were nicely piled up under the sink. There aren't any ice machines so you will journey through the maze to the front office to obtain ice. You will also need to have your own container. This was my worst Econolodge stay that I've ever encountered. I was told several times that the manager would see me but he never came or emailed me as promised.More</t>
   </si>
   <si>
-    <t>drywalsman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r51913563-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2607,9 +2283,6 @@
     <t>Started out bad as with all the new construction in the area for the new Cowboys' stadium and the upcoming super bowl in a couple years, place was almost impossible to get to.  Had to call for directions even though i could see it a few hundred yards away.  Front desk service was bad.  It took almost 20 minutes just to check into room that I had already reserved.  I was the only person at the front desk.  Asked for a shuttle to pick us up for six flags an hour after we got to hotel.  When we came back to front for pick up, driver/manager was at front desk chilling.  The front desk clerk had not let him know that we needed shuttle service.  Shuttle driver/manager was nice, but scary driver.  Room was old, one of the main locks was broken on the door.  Bed was so old and non comfortable.  We were on first floor and our sliding window wouldn't lock.  I could go on and on, but we left the next day (two days early) for a hilton garden inn.  Price was nice, but nothing else was.  We were told that people had just bought hotel a couple months earlier and were working hard to get it together.  They have a lot of work to do.  Don't be fooled if it says its walking distance to six flags.  If you call two miles walking distance, then more...Started out bad as with all the new construction in the area for the new Cowboys' stadium and the upcoming super bowl in a couple years, place was almost impossible to get to.  Had to call for directions even though i could see it a few hundred yards away.  Front desk service was bad.  It took almost 20 minutes just to check into room that I had already reserved.  I was the only person at the front desk.  Asked for a shuttle to pick us up for six flags an hour after we got to hotel.  When we came back to front for pick up, driver/manager was at front desk chilling.  The front desk clerk had not let him know that we needed shuttle service.  Shuttle driver/manager was nice, but scary driver.  Room was old, one of the main locks was broken on the door.  Bed was so old and non comfortable.  We were on first floor and our sliding window wouldn't lock.  I could go on and on, but we left the next day (two days early) for a hilton garden inn.  Price was nice, but nothing else was.  We were told that people had just bought hotel a couple months earlier and were working hard to get it together.  They have a lot of work to do.  Don't be fooled if it says its walking distance to six flags.  If you call two miles walking distance, then more power to you.  We did get a complimentary shuttle that was very nice and came back to pick us up on time.  e-mail if you want to know anything else.More</t>
   </si>
   <si>
-    <t>dblum69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r50826482-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2628,9 +2301,6 @@
     <t>Stayed there for the Big 12 Football Championship.  The price we paid was resonable but probably wasn't the way I'd go if I had it to do over.  The room was extremely old and outdated...hole in the couch, no blanket or pillows for the guy stuck on the pullout bed (Me), lock was broken on the door, old tv's, old everything.  It's one of those places you just don't really want to touch anything or even sit on the couch.  They claim it's in walking distance to Cowboy's Stadium but with the interstate, heavy traffic and the mess of road construction going on around there...I wasn't going to risk my life walking.  I'd advise looking elsewhere if you're looking for a place in this area.More</t>
   </si>
   <si>
-    <t>jungrach</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r46273942-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2647,9 +2317,6 @@
   </si>
   <si>
     <t>October 2009</t>
-  </si>
-  <si>
-    <t>nikkidussere</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225024-r38383679-Econo_Lodge_Inn_Suites-Arlington_Texas.html</t>
@@ -3175,47 +2842,43 @@
       <c r="A2" t="n">
         <v>19034</v>
       </c>
-      <c r="B2" t="n">
-        <v>124218</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -3233,54 +2896,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19034</v>
       </c>
-      <c r="B3" t="n">
-        <v>124219</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3294,54 +2953,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19034</v>
       </c>
-      <c r="B4" t="n">
-        <v>124220</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3355,54 +3010,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19034</v>
       </c>
-      <c r="B5" t="n">
-        <v>124221</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3416,54 +3067,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19034</v>
       </c>
-      <c r="B6" t="n">
-        <v>37176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3481,54 +3128,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19034</v>
       </c>
-      <c r="B7" t="n">
-        <v>124222</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3542,54 +3185,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19034</v>
       </c>
-      <c r="B8" t="n">
-        <v>15931</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3603,54 +3242,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19034</v>
       </c>
-      <c r="B9" t="n">
-        <v>124223</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3664,54 +3299,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19034</v>
       </c>
-      <c r="B10" t="n">
-        <v>124224</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3725,54 +3356,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>19034</v>
       </c>
-      <c r="B11" t="n">
-        <v>124225</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3786,54 +3413,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>19034</v>
       </c>
-      <c r="B12" t="n">
-        <v>124226</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3847,54 +3470,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>19034</v>
       </c>
-      <c r="B13" t="n">
-        <v>124227</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3908,45 +3527,41 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>19034</v>
       </c>
-      <c r="B14" t="n">
-        <v>124228</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
@@ -3965,54 +3580,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>19034</v>
       </c>
-      <c r="B15" t="n">
-        <v>124229</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4030,54 +3641,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>19034</v>
       </c>
-      <c r="B16" t="n">
-        <v>3612</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4095,45 +3702,41 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>19034</v>
       </c>
-      <c r="B17" t="n">
-        <v>124230</v>
-      </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -4152,54 +3755,50 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19034</v>
       </c>
-      <c r="B18" t="n">
-        <v>124231</v>
-      </c>
-      <c r="C18" t="s">
-        <v>154</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4213,54 +3812,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>19034</v>
       </c>
-      <c r="B19" t="n">
-        <v>124232</v>
-      </c>
-      <c r="C19" t="s">
-        <v>161</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4278,54 +3873,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>19034</v>
       </c>
-      <c r="B20" t="n">
-        <v>124233</v>
-      </c>
-      <c r="C20" t="s">
-        <v>170</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4345,54 +3936,50 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>19034</v>
       </c>
-      <c r="B21" t="n">
-        <v>2695</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4406,54 +3993,50 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>19034</v>
       </c>
-      <c r="B22" t="n">
-        <v>561</v>
-      </c>
-      <c r="C22" t="s">
-        <v>183</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4473,54 +4056,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>19034</v>
       </c>
-      <c r="B23" t="n">
-        <v>124234</v>
-      </c>
-      <c r="C23" t="s">
-        <v>189</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -4540,54 +4119,50 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>19034</v>
       </c>
-      <c r="B24" t="n">
-        <v>124235</v>
-      </c>
-      <c r="C24" t="s">
-        <v>196</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O24" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4605,54 +4180,50 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>19034</v>
       </c>
-      <c r="B25" t="n">
-        <v>25715</v>
-      </c>
-      <c r="C25" t="s">
-        <v>202</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4672,54 +4243,50 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>19034</v>
       </c>
-      <c r="B26" t="n">
-        <v>124236</v>
-      </c>
-      <c r="C26" t="s">
-        <v>209</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4733,45 +4300,51 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>19034</v>
       </c>
-      <c r="B27" t="n">
-        <v>2559</v>
-      </c>
-      <c r="C27" t="s">
-        <v>217</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="J27" t="s">
-        <v>220</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" t="s">
+        <v>196</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>190</v>
+      </c>
+      <c r="O27" t="s">
+        <v>150</v>
+      </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
@@ -4781,6 +4354,11 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4792,37 +4370,37 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4836,54 +4414,50 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>19034</v>
       </c>
-      <c r="B29" t="n">
-        <v>124237</v>
-      </c>
-      <c r="C29" t="s">
-        <v>227</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4901,54 +4475,50 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>19034</v>
       </c>
-      <c r="B30" t="n">
-        <v>18396</v>
-      </c>
-      <c r="C30" t="s">
-        <v>232</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4968,54 +4538,50 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>19034</v>
       </c>
-      <c r="B31" t="n">
-        <v>124238</v>
-      </c>
-      <c r="C31" t="s">
-        <v>239</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="J31" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="K31" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -5035,54 +4601,50 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>19034</v>
       </c>
-      <c r="B32" t="n">
-        <v>20523</v>
-      </c>
-      <c r="C32" t="s">
-        <v>245</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="J32" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K32" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -5102,54 +4664,50 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>19034</v>
       </c>
-      <c r="B33" t="n">
-        <v>43995</v>
-      </c>
-      <c r="C33" t="s">
-        <v>252</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K33" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="L33" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O33" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -5167,54 +4725,50 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>19034</v>
       </c>
-      <c r="B34" t="n">
-        <v>124239</v>
-      </c>
-      <c r="C34" t="s">
-        <v>258</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5234,54 +4788,50 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>19034</v>
       </c>
-      <c r="B35" t="n">
-        <v>124240</v>
-      </c>
-      <c r="C35" t="s">
-        <v>265</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="J35" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="K35" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -5299,54 +4849,50 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>19034</v>
       </c>
-      <c r="B36" t="n">
-        <v>18677</v>
-      </c>
-      <c r="C36" t="s">
-        <v>272</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="J36" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5366,54 +4912,50 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>19034</v>
       </c>
-      <c r="B37" t="n">
-        <v>124241</v>
-      </c>
-      <c r="C37" t="s">
-        <v>279</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="J37" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="K37" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5427,54 +4969,50 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>19034</v>
       </c>
-      <c r="B38" t="n">
-        <v>124242</v>
-      </c>
-      <c r="C38" t="s">
-        <v>285</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="K38" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -5494,54 +5032,50 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>19034</v>
       </c>
-      <c r="B39" t="n">
-        <v>49133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>293</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5555,54 +5089,50 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>19034</v>
       </c>
-      <c r="B40" t="n">
-        <v>124243</v>
-      </c>
-      <c r="C40" t="s">
-        <v>300</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="K40" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5620,54 +5150,50 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>19034</v>
       </c>
-      <c r="B41" t="n">
-        <v>124244</v>
-      </c>
-      <c r="C41" t="s">
-        <v>308</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="J41" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="O41" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -5687,54 +5213,50 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>19034</v>
       </c>
-      <c r="B42" t="n">
-        <v>4263</v>
-      </c>
-      <c r="C42" t="s">
-        <v>316</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="J42" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="L42" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5758,45 +5280,41 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>19034</v>
       </c>
-      <c r="B43" t="n">
-        <v>31891</v>
-      </c>
-      <c r="C43" t="s">
-        <v>323</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="J43" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -5825,54 +5343,50 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>19034</v>
       </c>
-      <c r="B44" t="n">
-        <v>124245</v>
-      </c>
-      <c r="C44" t="s">
-        <v>330</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="K44" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="L44" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5886,7 +5400,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45">
@@ -5899,37 +5413,37 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="J45" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="K45" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5947,54 +5461,50 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>19034</v>
       </c>
-      <c r="B46" t="n">
-        <v>7521</v>
-      </c>
-      <c r="C46" t="s">
-        <v>344</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="J46" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="K46" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="L46" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -6014,54 +5524,50 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>19034</v>
       </c>
-      <c r="B47" t="n">
-        <v>124246</v>
-      </c>
-      <c r="C47" t="s">
-        <v>350</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="J47" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="K47" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="L47" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6075,54 +5581,50 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>19034</v>
       </c>
-      <c r="B48" t="n">
-        <v>124247</v>
-      </c>
-      <c r="C48" t="s">
-        <v>357</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="J48" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6142,45 +5644,41 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>363</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>19034</v>
       </c>
-      <c r="B49" t="n">
-        <v>124248</v>
-      </c>
-      <c r="C49" t="s">
-        <v>364</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="J49" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="K49" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
@@ -6209,54 +5707,50 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>19034</v>
       </c>
-      <c r="B50" t="n">
-        <v>124249</v>
-      </c>
-      <c r="C50" t="s">
-        <v>371</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="J50" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="K50" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="L50" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6274,52 +5768,48 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>19034</v>
       </c>
-      <c r="B51" t="n">
-        <v>124250</v>
-      </c>
-      <c r="C51" t="s">
-        <v>379</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="J51" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="O51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -6343,7 +5833,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52">
@@ -6356,37 +5846,37 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="J52" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="K52" t="s">
-        <v>388</v>
+        <v>343</v>
       </c>
       <c r="L52" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6404,54 +5894,50 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>19034</v>
       </c>
-      <c r="B53" t="n">
-        <v>124251</v>
-      </c>
-      <c r="C53" t="s">
-        <v>391</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="J53" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="K53" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="O53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6471,45 +5957,41 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>19034</v>
       </c>
-      <c r="B54" t="n">
-        <v>124252</v>
-      </c>
-      <c r="C54" t="s">
-        <v>398</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="J54" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="K54" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
@@ -6528,45 +6010,41 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>19034</v>
       </c>
-      <c r="B55" t="n">
-        <v>46587</v>
-      </c>
-      <c r="C55" t="s">
-        <v>405</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="J55" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="K55" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="L55" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -6585,54 +6063,50 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>19034</v>
       </c>
-      <c r="B56" t="n">
-        <v>6579</v>
-      </c>
-      <c r="C56" t="s">
-        <v>411</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="J56" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="K56" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="L56" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="O56" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6654,54 +6128,50 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>19034</v>
       </c>
-      <c r="B57" t="n">
-        <v>124253</v>
-      </c>
-      <c r="C57" t="s">
-        <v>418</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="J57" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="K57" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="L57" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="O57" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6725,54 +6195,50 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>19034</v>
       </c>
-      <c r="B58" t="n">
-        <v>6270</v>
-      </c>
-      <c r="C58" t="s">
-        <v>424</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="J58" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="K58" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="O58" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6796,54 +6262,50 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>19034</v>
       </c>
-      <c r="B59" t="n">
-        <v>1895</v>
-      </c>
-      <c r="C59" t="s">
-        <v>431</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="J59" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="K59" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="L59" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="O59" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -6867,54 +6329,50 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>19034</v>
       </c>
-      <c r="B60" t="n">
-        <v>124254</v>
-      </c>
-      <c r="C60" t="s">
-        <v>437</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="J60" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="K60" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="L60" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="O60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6938,54 +6396,50 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>19034</v>
       </c>
-      <c r="B61" t="n">
-        <v>124255</v>
-      </c>
-      <c r="C61" t="s">
-        <v>443</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="J61" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="K61" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="O61" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -7009,54 +6463,50 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>19034</v>
       </c>
-      <c r="B62" t="n">
-        <v>53171</v>
-      </c>
-      <c r="C62" t="s">
-        <v>450</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="J62" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="K62" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="O62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
@@ -7078,7 +6528,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63">
@@ -7091,37 +6541,37 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="J63" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="K63" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="L63" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="O63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -7145,54 +6595,50 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>19034</v>
       </c>
-      <c r="B64" t="n">
-        <v>124256</v>
-      </c>
-      <c r="C64" t="s">
-        <v>463</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="J64" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="K64" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="O64" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7216,54 +6662,50 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>19034</v>
       </c>
-      <c r="B65" t="n">
-        <v>124257</v>
-      </c>
-      <c r="C65" t="s">
-        <v>470</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="J65" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="K65" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="L65" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
       <c r="O65" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -7287,45 +6729,41 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>19034</v>
       </c>
-      <c r="B66" t="n">
-        <v>74702</v>
-      </c>
-      <c r="C66" t="s">
-        <v>477</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="J66" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="K66" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="L66" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
@@ -7354,54 +6792,50 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>19034</v>
       </c>
-      <c r="B67" t="n">
-        <v>124258</v>
-      </c>
-      <c r="C67" t="s">
-        <v>483</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="J67" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="K67" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="O67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -7425,54 +6859,50 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>490</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>19034</v>
       </c>
-      <c r="B68" t="n">
-        <v>124259</v>
-      </c>
-      <c r="C68" t="s">
-        <v>491</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="J68" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="K68" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="L68" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="O68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -7496,54 +6926,50 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>19034</v>
       </c>
-      <c r="B69" t="n">
-        <v>3019</v>
-      </c>
-      <c r="C69" t="s">
-        <v>498</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>499</v>
+        <v>438</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="J69" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="K69" t="s">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="L69" t="s">
-        <v>503</v>
+        <v>442</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="O69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -7567,54 +6993,50 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>19034</v>
       </c>
-      <c r="B70" t="n">
-        <v>124260</v>
-      </c>
-      <c r="C70" t="s">
-        <v>505</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>507</v>
+        <v>445</v>
       </c>
       <c r="J70" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="K70" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="L70" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="O70" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P70" t="n">
         <v>1</v>
@@ -7638,54 +7060,50 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>19034</v>
       </c>
-      <c r="B71" t="n">
-        <v>124261</v>
-      </c>
-      <c r="C71" t="s">
-        <v>512</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>513</v>
+        <v>450</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
       <c r="J71" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
       <c r="K71" t="s">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="L71" t="s">
-        <v>517</v>
+        <v>454</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="O71" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7709,54 +7127,50 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>517</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>19034</v>
       </c>
-      <c r="B72" t="n">
-        <v>124262</v>
-      </c>
-      <c r="C72" t="s">
-        <v>518</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>520</v>
+        <v>456</v>
       </c>
       <c r="J72" t="s">
-        <v>521</v>
+        <v>457</v>
       </c>
       <c r="K72" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="L72" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="O72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7780,54 +7194,50 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>19034</v>
       </c>
-      <c r="B73" t="n">
-        <v>124263</v>
-      </c>
-      <c r="C73" t="s">
-        <v>526</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="J73" t="s">
-        <v>529</v>
+        <v>464</v>
       </c>
       <c r="K73" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
       <c r="L73" t="s">
-        <v>531</v>
+        <v>466</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="O73" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7849,60 +7259,56 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="X73" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Y73" t="s">
-        <v>535</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>19034</v>
       </c>
-      <c r="B74" t="n">
-        <v>124264</v>
-      </c>
-      <c r="C74" t="s">
-        <v>536</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="J74" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="K74" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="L74" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="O74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7924,60 +7330,56 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="X74" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Y74" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>19034</v>
       </c>
-      <c r="B75" t="n">
-        <v>124265</v>
-      </c>
-      <c r="C75" t="s">
-        <v>543</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="J75" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="K75" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>532</v>
+        <v>467</v>
       </c>
       <c r="O75" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7999,60 +7401,56 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="X75" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Y75" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>19034</v>
       </c>
-      <c r="B76" t="n">
-        <v>124266</v>
-      </c>
-      <c r="C76" t="s">
-        <v>550</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>551</v>
+        <v>483</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="J76" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="K76" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s">
-        <v>554</v>
+        <v>486</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="O76" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -8074,51 +7472,47 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="X76" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Y76" t="s">
-        <v>555</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>19034</v>
       </c>
-      <c r="B77" t="n">
-        <v>124267</v>
-      </c>
-      <c r="C77" t="s">
-        <v>556</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
       <c r="J77" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="K77" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="L77" t="s">
-        <v>561</v>
+        <v>492</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
@@ -8145,60 +7539,56 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="X77" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Y77" t="s">
-        <v>562</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>19034</v>
       </c>
-      <c r="B78" t="n">
-        <v>124268</v>
-      </c>
-      <c r="C78" t="s">
-        <v>563</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>565</v>
+        <v>495</v>
       </c>
       <c r="J78" t="s">
-        <v>566</v>
+        <v>496</v>
       </c>
       <c r="K78" t="s">
-        <v>567</v>
+        <v>497</v>
       </c>
       <c r="L78" t="s">
-        <v>568</v>
+        <v>498</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="O78" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -8220,51 +7610,47 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="X78" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Y78" t="s">
-        <v>569</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>19034</v>
       </c>
-      <c r="B79" t="n">
-        <v>124269</v>
-      </c>
-      <c r="C79" t="s">
-        <v>570</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>572</v>
+        <v>501</v>
       </c>
       <c r="J79" t="s">
-        <v>573</v>
+        <v>502</v>
       </c>
       <c r="K79" t="s">
-        <v>574</v>
+        <v>503</v>
       </c>
       <c r="L79" t="s">
-        <v>575</v>
+        <v>504</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
@@ -8291,60 +7677,56 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="X79" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Y79" t="s">
-        <v>576</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>19034</v>
       </c>
-      <c r="B80" t="n">
-        <v>124270</v>
-      </c>
-      <c r="C80" t="s">
-        <v>577</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>578</v>
+        <v>506</v>
       </c>
       <c r="G80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>579</v>
+        <v>507</v>
       </c>
       <c r="J80" t="s">
-        <v>580</v>
+        <v>508</v>
       </c>
       <c r="K80" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="L80" t="s">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>583</v>
+        <v>511</v>
       </c>
       <c r="O80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -8366,60 +7748,56 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="X80" t="s">
-        <v>534</v>
+        <v>469</v>
       </c>
       <c r="Y80" t="s">
-        <v>584</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>19034</v>
       </c>
-      <c r="B81" t="n">
-        <v>63593</v>
-      </c>
-      <c r="C81" t="s">
-        <v>585</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>587</v>
+        <v>514</v>
       </c>
       <c r="J81" t="s">
-        <v>588</v>
+        <v>515</v>
       </c>
       <c r="K81" t="s">
-        <v>589</v>
+        <v>516</v>
       </c>
       <c r="L81" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>591</v>
+        <v>518</v>
       </c>
       <c r="O81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -8441,54 +7819,50 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>19034</v>
       </c>
-      <c r="B82" t="n">
-        <v>3949</v>
-      </c>
-      <c r="C82" t="s">
-        <v>593</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>594</v>
+        <v>520</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="J82" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="K82" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="L82" t="s">
-        <v>598</v>
+        <v>524</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>591</v>
+        <v>518</v>
       </c>
       <c r="O82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -8512,45 +7886,41 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>19034</v>
       </c>
-      <c r="B83" t="n">
-        <v>124271</v>
-      </c>
-      <c r="C83" t="s">
-        <v>600</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>601</v>
+        <v>526</v>
       </c>
       <c r="G83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>602</v>
+        <v>527</v>
       </c>
       <c r="J83" t="s">
-        <v>603</v>
+        <v>528</v>
       </c>
       <c r="K83" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
       <c r="L83" t="s">
-        <v>605</v>
+        <v>530</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
@@ -8579,54 +7949,50 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>606</v>
+        <v>531</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>19034</v>
       </c>
-      <c r="B84" t="n">
-        <v>124272</v>
-      </c>
-      <c r="C84" t="s">
-        <v>607</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>608</v>
+        <v>532</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>609</v>
+        <v>533</v>
       </c>
       <c r="J84" t="s">
-        <v>610</v>
+        <v>534</v>
       </c>
       <c r="K84" t="s">
-        <v>611</v>
+        <v>535</v>
       </c>
       <c r="L84" t="s">
-        <v>612</v>
+        <v>536</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>613</v>
+        <v>537</v>
       </c>
       <c r="O84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8650,54 +8016,50 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>614</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>19034</v>
       </c>
-      <c r="B85" t="n">
-        <v>124273</v>
-      </c>
-      <c r="C85" t="s">
-        <v>615</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>616</v>
+        <v>539</v>
       </c>
       <c r="G85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>617</v>
+        <v>540</v>
       </c>
       <c r="J85" t="s">
-        <v>618</v>
+        <v>541</v>
       </c>
       <c r="K85" t="s">
-        <v>619</v>
+        <v>542</v>
       </c>
       <c r="L85" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="O85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -8721,54 +8083,50 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>620</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>19034</v>
       </c>
-      <c r="B86" t="n">
-        <v>124274</v>
-      </c>
-      <c r="C86" t="s">
-        <v>622</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>623</v>
+        <v>545</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>624</v>
+        <v>546</v>
       </c>
       <c r="J86" t="s">
-        <v>625</v>
+        <v>547</v>
       </c>
       <c r="K86" t="s">
-        <v>626</v>
+        <v>548</v>
       </c>
       <c r="L86" t="s">
-        <v>627</v>
+        <v>549</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>628</v>
+        <v>550</v>
       </c>
       <c r="O86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8792,45 +8150,41 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>627</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>19034</v>
       </c>
-      <c r="B87" t="n">
-        <v>124275</v>
-      </c>
-      <c r="C87" t="s">
-        <v>629</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>630</v>
+        <v>551</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>631</v>
+        <v>552</v>
       </c>
       <c r="J87" t="s">
-        <v>632</v>
+        <v>553</v>
       </c>
       <c r="K87" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
       <c r="L87" t="s">
-        <v>633</v>
+        <v>554</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
@@ -8859,54 +8213,50 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>633</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>19034</v>
       </c>
-      <c r="B88" t="n">
-        <v>2537</v>
-      </c>
-      <c r="C88" t="s">
-        <v>634</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>636</v>
+        <v>556</v>
       </c>
       <c r="J88" t="s">
-        <v>637</v>
+        <v>557</v>
       </c>
       <c r="K88" t="s">
-        <v>638</v>
+        <v>558</v>
       </c>
       <c r="L88" t="s">
-        <v>639</v>
+        <v>559</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="O88" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8930,54 +8280,50 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>641</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>19034</v>
       </c>
-      <c r="B89" t="n">
-        <v>124276</v>
-      </c>
-      <c r="C89" t="s">
-        <v>642</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>643</v>
+        <v>562</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>644</v>
+        <v>563</v>
       </c>
       <c r="J89" t="s">
-        <v>645</v>
+        <v>564</v>
       </c>
       <c r="K89" t="s">
-        <v>646</v>
+        <v>565</v>
       </c>
       <c r="L89" t="s">
-        <v>647</v>
+        <v>566</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>628</v>
+        <v>550</v>
       </c>
       <c r="O89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -9001,54 +8347,50 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>648</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>19034</v>
       </c>
-      <c r="B90" t="n">
-        <v>69983</v>
-      </c>
-      <c r="C90" t="s">
-        <v>649</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>651</v>
+        <v>569</v>
       </c>
       <c r="J90" t="s">
-        <v>652</v>
+        <v>570</v>
       </c>
       <c r="K90" t="s">
-        <v>653</v>
+        <v>571</v>
       </c>
       <c r="L90" t="s">
-        <v>654</v>
+        <v>572</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
       <c r="O90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -9072,54 +8414,50 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>19034</v>
       </c>
-      <c r="B91" t="n">
-        <v>124277</v>
-      </c>
-      <c r="C91" t="s">
-        <v>657</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>658</v>
+        <v>575</v>
       </c>
       <c r="G91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>659</v>
+        <v>576</v>
       </c>
       <c r="J91" t="s">
-        <v>660</v>
+        <v>577</v>
       </c>
       <c r="K91" t="s">
-        <v>661</v>
+        <v>578</v>
       </c>
       <c r="L91" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
       <c r="O91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -9143,54 +8481,50 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>19034</v>
       </c>
-      <c r="B92" t="n">
-        <v>124278</v>
-      </c>
-      <c r="C92" t="s">
-        <v>663</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>664</v>
+        <v>580</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>665</v>
+        <v>581</v>
       </c>
       <c r="J92" t="s">
-        <v>666</v>
+        <v>582</v>
       </c>
       <c r="K92" t="s">
-        <v>667</v>
+        <v>583</v>
       </c>
       <c r="L92" t="s">
-        <v>668</v>
+        <v>584</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
       <c r="O92" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -9214,54 +8548,50 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>669</v>
+        <v>585</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>19034</v>
       </c>
-      <c r="B93" t="n">
-        <v>124279</v>
-      </c>
-      <c r="C93" t="s">
-        <v>670</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>671</v>
+        <v>586</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>672</v>
+        <v>587</v>
       </c>
       <c r="J93" t="s">
-        <v>673</v>
+        <v>588</v>
       </c>
       <c r="K93" t="s">
-        <v>674</v>
+        <v>589</v>
       </c>
       <c r="L93" t="s">
-        <v>675</v>
+        <v>590</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
       <c r="O93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -9285,54 +8615,50 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>676</v>
+        <v>591</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>19034</v>
       </c>
-      <c r="B94" t="n">
-        <v>124280</v>
-      </c>
-      <c r="C94" t="s">
-        <v>677</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>678</v>
+        <v>592</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>679</v>
+        <v>593</v>
       </c>
       <c r="J94" t="s">
-        <v>680</v>
+        <v>594</v>
       </c>
       <c r="K94" t="s">
-        <v>681</v>
+        <v>595</v>
       </c>
       <c r="L94" t="s">
-        <v>682</v>
+        <v>596</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>683</v>
+        <v>597</v>
       </c>
       <c r="O94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -9356,45 +8682,41 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>684</v>
+        <v>598</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>19034</v>
       </c>
-      <c r="B95" t="n">
-        <v>69754</v>
-      </c>
-      <c r="C95" t="s">
-        <v>685</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>686</v>
+        <v>599</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>687</v>
+        <v>600</v>
       </c>
       <c r="J95" t="s">
-        <v>688</v>
+        <v>601</v>
       </c>
       <c r="K95" t="s">
-        <v>689</v>
+        <v>602</v>
       </c>
       <c r="L95" t="s">
-        <v>690</v>
+        <v>603</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
@@ -9423,54 +8745,50 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>690</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>19034</v>
       </c>
-      <c r="B96" t="n">
-        <v>51750</v>
-      </c>
-      <c r="C96" t="s">
-        <v>691</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>692</v>
+        <v>604</v>
       </c>
       <c r="G96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>693</v>
+        <v>605</v>
       </c>
       <c r="J96" t="s">
-        <v>694</v>
+        <v>606</v>
       </c>
       <c r="K96" t="s">
-        <v>695</v>
+        <v>607</v>
       </c>
       <c r="L96" t="s">
-        <v>696</v>
+        <v>608</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>683</v>
+        <v>597</v>
       </c>
       <c r="O96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P96" t="n">
         <v>2</v>
@@ -9494,54 +8812,50 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>697</v>
+        <v>609</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>19034</v>
       </c>
-      <c r="B97" t="n">
-        <v>124281</v>
-      </c>
-      <c r="C97" t="s">
-        <v>698</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>699</v>
+        <v>610</v>
       </c>
       <c r="G97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>700</v>
+        <v>611</v>
       </c>
       <c r="J97" t="s">
-        <v>701</v>
+        <v>612</v>
       </c>
       <c r="K97" t="s">
-        <v>702</v>
+        <v>613</v>
       </c>
       <c r="L97" t="s">
-        <v>703</v>
+        <v>614</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>683</v>
+        <v>597</v>
       </c>
       <c r="O97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -9565,54 +8879,50 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>704</v>
+        <v>615</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>19034</v>
       </c>
-      <c r="B98" t="n">
-        <v>124282</v>
-      </c>
-      <c r="C98" t="s">
-        <v>705</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>706</v>
+        <v>616</v>
       </c>
       <c r="G98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>707</v>
+        <v>617</v>
       </c>
       <c r="J98" t="s">
-        <v>708</v>
+        <v>618</v>
       </c>
       <c r="K98" t="s">
-        <v>709</v>
+        <v>619</v>
       </c>
       <c r="L98" t="s">
-        <v>710</v>
+        <v>620</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>711</v>
+        <v>621</v>
       </c>
       <c r="O98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -9636,54 +8946,50 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>712</v>
+        <v>622</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>19034</v>
       </c>
-      <c r="B99" t="n">
-        <v>8416</v>
-      </c>
-      <c r="C99" t="s">
-        <v>713</v>
-      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>714</v>
+        <v>623</v>
       </c>
       <c r="G99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>715</v>
+        <v>624</v>
       </c>
       <c r="J99" t="s">
-        <v>716</v>
+        <v>625</v>
       </c>
       <c r="K99" t="s">
-        <v>717</v>
+        <v>626</v>
       </c>
       <c r="L99" t="s">
-        <v>718</v>
+        <v>627</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>719</v>
+        <v>628</v>
       </c>
       <c r="O99" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P99" t="n">
         <v>2</v>
@@ -9707,54 +9013,50 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>718</v>
+        <v>627</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>19034</v>
       </c>
-      <c r="B100" t="n">
-        <v>124283</v>
-      </c>
-      <c r="C100" t="s">
-        <v>720</v>
-      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>721</v>
+        <v>629</v>
       </c>
       <c r="G100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>722</v>
+        <v>630</v>
       </c>
       <c r="J100" t="s">
-        <v>723</v>
+        <v>631</v>
       </c>
       <c r="K100" t="s">
-        <v>724</v>
+        <v>632</v>
       </c>
       <c r="L100" t="s">
-        <v>725</v>
+        <v>633</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>726</v>
+        <v>634</v>
       </c>
       <c r="O100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9778,54 +9080,50 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>725</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>19034</v>
       </c>
-      <c r="B101" t="n">
-        <v>124284</v>
-      </c>
-      <c r="C101" t="s">
-        <v>727</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>728</v>
+        <v>635</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>729</v>
+        <v>636</v>
       </c>
       <c r="J101" t="s">
-        <v>730</v>
+        <v>637</v>
       </c>
       <c r="K101" t="s">
-        <v>731</v>
+        <v>638</v>
       </c>
       <c r="L101" t="s">
-        <v>732</v>
+        <v>639</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>726</v>
+        <v>634</v>
       </c>
       <c r="O101" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -9845,45 +9143,41 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>732</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>19034</v>
       </c>
-      <c r="B102" t="n">
-        <v>124285</v>
-      </c>
-      <c r="C102" t="s">
-        <v>733</v>
-      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>734</v>
+        <v>640</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>735</v>
+        <v>641</v>
       </c>
       <c r="J102" t="s">
-        <v>736</v>
+        <v>642</v>
       </c>
       <c r="K102" t="s">
-        <v>737</v>
+        <v>643</v>
       </c>
       <c r="L102" t="s">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
@@ -9912,54 +9206,50 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>738</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>19034</v>
       </c>
-      <c r="B103" t="n">
-        <v>124286</v>
-      </c>
-      <c r="C103" t="s">
-        <v>739</v>
-      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>740</v>
+        <v>645</v>
       </c>
       <c r="G103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>741</v>
+        <v>646</v>
       </c>
       <c r="J103" t="s">
-        <v>742</v>
+        <v>647</v>
       </c>
       <c r="K103" t="s">
-        <v>743</v>
+        <v>648</v>
       </c>
       <c r="L103" t="s">
-        <v>744</v>
+        <v>649</v>
       </c>
       <c r="M103" t="n">
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>745</v>
+        <v>650</v>
       </c>
       <c r="O103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -9979,54 +9269,50 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>746</v>
+        <v>651</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>19034</v>
       </c>
-      <c r="B104" t="n">
-        <v>124287</v>
-      </c>
-      <c r="C104" t="s">
-        <v>747</v>
-      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>748</v>
+        <v>652</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>749</v>
+        <v>653</v>
       </c>
       <c r="J104" t="s">
-        <v>750</v>
+        <v>654</v>
       </c>
       <c r="K104" t="s">
-        <v>751</v>
+        <v>655</v>
       </c>
       <c r="L104" t="s">
-        <v>752</v>
+        <v>656</v>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
       <c r="N104" t="s">
-        <v>753</v>
+        <v>657</v>
       </c>
       <c r="O104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P104" t="n">
         <v>1</v>
@@ -10046,54 +9332,50 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>754</v>
+        <v>658</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>19034</v>
       </c>
-      <c r="B105" t="n">
-        <v>87111</v>
-      </c>
-      <c r="C105" t="s">
-        <v>755</v>
-      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>756</v>
+        <v>659</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>757</v>
+        <v>660</v>
       </c>
       <c r="J105" t="s">
-        <v>758</v>
+        <v>661</v>
       </c>
       <c r="K105" t="s">
-        <v>759</v>
+        <v>662</v>
       </c>
       <c r="L105" t="s">
-        <v>760</v>
+        <v>663</v>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
       <c r="N105" t="s">
-        <v>761</v>
+        <v>664</v>
       </c>
       <c r="O105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P105" t="n">
         <v>1</v>
@@ -10113,54 +9395,50 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>760</v>
+        <v>663</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>19034</v>
       </c>
-      <c r="B106" t="n">
-        <v>124288</v>
-      </c>
-      <c r="C106" t="s">
-        <v>762</v>
-      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>763</v>
+        <v>665</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>764</v>
+        <v>666</v>
       </c>
       <c r="J106" t="s">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="K106" t="s">
-        <v>766</v>
+        <v>668</v>
       </c>
       <c r="L106" t="s">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>768</v>
+        <v>670</v>
       </c>
       <c r="O106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10184,54 +9462,50 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>769</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>19034</v>
       </c>
-      <c r="B107" t="n">
-        <v>124289</v>
-      </c>
-      <c r="C107" t="s">
-        <v>770</v>
-      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>772</v>
+        <v>673</v>
       </c>
       <c r="J107" t="s">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="K107" t="s">
-        <v>773</v>
+        <v>674</v>
       </c>
       <c r="L107" t="s">
-        <v>774</v>
+        <v>675</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>775</v>
+        <v>676</v>
       </c>
       <c r="O107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P107" t="n">
         <v>1</v>
@@ -10255,54 +9529,50 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>776</v>
+        <v>677</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>19034</v>
       </c>
-      <c r="B108" t="n">
-        <v>124290</v>
-      </c>
-      <c r="C108" t="s">
-        <v>777</v>
-      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>778</v>
+        <v>678</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>779</v>
+        <v>679</v>
       </c>
       <c r="J108" t="s">
-        <v>780</v>
+        <v>680</v>
       </c>
       <c r="K108" t="s">
-        <v>781</v>
+        <v>681</v>
       </c>
       <c r="L108" t="s">
-        <v>782</v>
+        <v>682</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>783</v>
+        <v>683</v>
       </c>
       <c r="O108" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="P108" t="s"/>
       <c r="Q108" t="s"/>
@@ -10316,54 +9586,50 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>784</v>
+        <v>684</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>19034</v>
       </c>
-      <c r="B109" t="n">
-        <v>124291</v>
-      </c>
-      <c r="C109" t="s">
-        <v>785</v>
-      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>786</v>
+        <v>685</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>787</v>
+        <v>686</v>
       </c>
       <c r="J109" t="s">
-        <v>788</v>
+        <v>687</v>
       </c>
       <c r="K109" t="s">
-        <v>789</v>
+        <v>688</v>
       </c>
       <c r="L109" t="s">
-        <v>790</v>
+        <v>689</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>791</v>
+        <v>690</v>
       </c>
       <c r="O109" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10387,54 +9653,50 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>790</v>
+        <v>689</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>19034</v>
       </c>
-      <c r="B110" t="n">
-        <v>124292</v>
-      </c>
-      <c r="C110" t="s">
-        <v>792</v>
-      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>793</v>
+        <v>691</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>794</v>
+        <v>692</v>
       </c>
       <c r="J110" t="s">
-        <v>795</v>
+        <v>693</v>
       </c>
       <c r="K110" t="s">
-        <v>796</v>
+        <v>694</v>
       </c>
       <c r="L110" t="s">
-        <v>797</v>
+        <v>695</v>
       </c>
       <c r="M110" t="n">
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>798</v>
+        <v>696</v>
       </c>
       <c r="O110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P110" t="n">
         <v>2</v>
@@ -10456,51 +9718,47 @@
         <v>0</v>
       </c>
       <c r="W110" t="s">
-        <v>799</v>
+        <v>697</v>
       </c>
       <c r="X110" t="s">
-        <v>800</v>
+        <v>698</v>
       </c>
       <c r="Y110" t="s">
-        <v>801</v>
+        <v>699</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>19034</v>
       </c>
-      <c r="B111" t="n">
-        <v>124293</v>
-      </c>
-      <c r="C111" t="s">
-        <v>802</v>
-      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>803</v>
+        <v>700</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I111" t="s">
-        <v>804</v>
+        <v>701</v>
       </c>
       <c r="J111" t="s">
-        <v>805</v>
+        <v>702</v>
       </c>
       <c r="K111" t="s">
-        <v>806</v>
+        <v>703</v>
       </c>
       <c r="L111" t="s">
-        <v>807</v>
+        <v>704</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
@@ -10527,60 +9785,56 @@
         <v>0</v>
       </c>
       <c r="W111" t="s">
-        <v>799</v>
+        <v>697</v>
       </c>
       <c r="X111" t="s">
-        <v>800</v>
+        <v>698</v>
       </c>
       <c r="Y111" t="s">
-        <v>808</v>
+        <v>705</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>19034</v>
       </c>
-      <c r="B112" t="n">
-        <v>124294</v>
-      </c>
-      <c r="C112" t="s">
-        <v>809</v>
-      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F112" t="s">
-        <v>810</v>
+        <v>706</v>
       </c>
       <c r="G112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
-        <v>811</v>
+        <v>707</v>
       </c>
       <c r="J112" t="s">
-        <v>812</v>
+        <v>708</v>
       </c>
       <c r="K112" t="s">
-        <v>813</v>
+        <v>709</v>
       </c>
       <c r="L112" t="s">
-        <v>814</v>
+        <v>710</v>
       </c>
       <c r="M112" t="n">
         <v>2</v>
       </c>
       <c r="N112" t="s">
-        <v>815</v>
+        <v>711</v>
       </c>
       <c r="O112" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -10604,54 +9858,50 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>816</v>
+        <v>712</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>19034</v>
       </c>
-      <c r="B113" t="n">
-        <v>124295</v>
-      </c>
-      <c r="C113" t="s">
-        <v>817</v>
-      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>818</v>
+        <v>713</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
-        <v>819</v>
+        <v>714</v>
       </c>
       <c r="J113" t="s">
-        <v>820</v>
+        <v>715</v>
       </c>
       <c r="K113" t="s">
-        <v>821</v>
+        <v>716</v>
       </c>
       <c r="L113" t="s">
-        <v>822</v>
+        <v>717</v>
       </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
       <c r="N113" t="s">
-        <v>815</v>
+        <v>711</v>
       </c>
       <c r="O113" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -10675,54 +9925,50 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>823</v>
+        <v>718</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>19034</v>
       </c>
-      <c r="B114" t="n">
-        <v>124296</v>
-      </c>
-      <c r="C114" t="s">
-        <v>824</v>
-      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>825</v>
+        <v>719</v>
       </c>
       <c r="G114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I114" t="s">
-        <v>826</v>
+        <v>720</v>
       </c>
       <c r="J114" t="s">
-        <v>827</v>
+        <v>721</v>
       </c>
       <c r="K114" t="s">
-        <v>681</v>
+        <v>595</v>
       </c>
       <c r="L114" t="s">
-        <v>828</v>
+        <v>722</v>
       </c>
       <c r="M114" t="n">
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>829</v>
+        <v>723</v>
       </c>
       <c r="O114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P114" t="n">
         <v>2</v>
@@ -10746,54 +9992,50 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>830</v>
+        <v>724</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>19034</v>
       </c>
-      <c r="B115" t="n">
-        <v>124297</v>
-      </c>
-      <c r="C115" t="s">
-        <v>831</v>
-      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>832</v>
+        <v>725</v>
       </c>
       <c r="G115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I115" t="s">
-        <v>833</v>
+        <v>726</v>
       </c>
       <c r="J115" t="s">
-        <v>834</v>
+        <v>727</v>
       </c>
       <c r="K115" t="s">
-        <v>835</v>
+        <v>728</v>
       </c>
       <c r="L115" t="s">
-        <v>836</v>
+        <v>729</v>
       </c>
       <c r="M115" t="n">
         <v>2</v>
       </c>
       <c r="N115" t="s">
-        <v>837</v>
+        <v>730</v>
       </c>
       <c r="O115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P115" t="n">
         <v>2</v>
@@ -10817,54 +10059,50 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>838</v>
+        <v>731</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>19034</v>
       </c>
-      <c r="B116" t="n">
-        <v>124298</v>
-      </c>
-      <c r="C116" t="s">
-        <v>839</v>
-      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>840</v>
+        <v>732</v>
       </c>
       <c r="G116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I116" t="s">
-        <v>841</v>
+        <v>733</v>
       </c>
       <c r="J116" t="s">
-        <v>842</v>
+        <v>734</v>
       </c>
       <c r="K116" t="s">
-        <v>843</v>
+        <v>735</v>
       </c>
       <c r="L116" t="s">
-        <v>844</v>
+        <v>736</v>
       </c>
       <c r="M116" t="n">
         <v>2</v>
       </c>
       <c r="N116" t="s">
-        <v>845</v>
+        <v>737</v>
       </c>
       <c r="O116" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P116" t="n">
         <v>3</v>
@@ -10888,54 +10126,50 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>846</v>
+        <v>738</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>19034</v>
       </c>
-      <c r="B117" t="n">
-        <v>124299</v>
-      </c>
-      <c r="C117" t="s">
-        <v>847</v>
-      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>848</v>
+        <v>739</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
-        <v>849</v>
+        <v>740</v>
       </c>
       <c r="J117" t="s">
-        <v>850</v>
+        <v>741</v>
       </c>
       <c r="K117" t="s">
-        <v>851</v>
+        <v>742</v>
       </c>
       <c r="L117" t="s">
-        <v>852</v>
+        <v>743</v>
       </c>
       <c r="M117" t="n">
         <v>2</v>
       </c>
       <c r="N117" t="s">
-        <v>845</v>
+        <v>737</v>
       </c>
       <c r="O117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P117" t="n">
         <v>1</v>
@@ -10959,54 +10193,50 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>853</v>
+        <v>744</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>19034</v>
       </c>
-      <c r="B118" t="n">
-        <v>124300</v>
-      </c>
-      <c r="C118" t="s">
-        <v>854</v>
-      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F118" t="s">
-        <v>855</v>
+        <v>745</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I118" t="s">
-        <v>856</v>
+        <v>746</v>
       </c>
       <c r="J118" t="s">
-        <v>857</v>
+        <v>747</v>
       </c>
       <c r="K118" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="L118" t="s">
-        <v>859</v>
+        <v>749</v>
       </c>
       <c r="M118" t="n">
         <v>2</v>
       </c>
       <c r="N118" t="s">
-        <v>860</v>
+        <v>750</v>
       </c>
       <c r="O118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P118" t="n">
         <v>3</v>
@@ -11030,54 +10260,50 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>859</v>
+        <v>749</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>19034</v>
       </c>
-      <c r="B119" t="n">
-        <v>124301</v>
-      </c>
-      <c r="C119" t="s">
-        <v>861</v>
-      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>862</v>
+        <v>751</v>
       </c>
       <c r="G119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I119" t="s">
-        <v>863</v>
+        <v>752</v>
       </c>
       <c r="J119" t="s">
-        <v>864</v>
+        <v>753</v>
       </c>
       <c r="K119" t="s">
-        <v>865</v>
+        <v>754</v>
       </c>
       <c r="L119" t="s">
-        <v>866</v>
+        <v>755</v>
       </c>
       <c r="M119" t="n">
         <v>2</v>
       </c>
       <c r="N119" t="s">
-        <v>867</v>
+        <v>756</v>
       </c>
       <c r="O119" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P119" t="n">
         <v>3</v>
@@ -11101,7 +10327,7 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>868</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
